--- a/sp500-historical-components-and-changes/outer_join.xlsx
+++ b/sp500-historical-components-and-changes/outer_join.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yingchen\Documents\GitHub\analyzingalpha\sp500-historical-components-and-changes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21C7D8A6-4E7A-4D36-963B-DEEAACE5A86F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B34A7A6-DE22-4164-A612-D74182EAA9BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="18276" windowHeight="10992" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$211</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$209</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="983" uniqueCount="478">
   <si>
     <t>effective_date_x</t>
   </si>
@@ -190,6 +190,9 @@
     <t>CPRT</t>
   </si>
   <si>
+    <t>CRAY</t>
+  </si>
+  <si>
     <t>CSC</t>
   </si>
   <si>
@@ -595,6 +598,9 @@
     <t>TTWO</t>
   </si>
   <si>
+    <t>TW</t>
+  </si>
+  <si>
     <t>TWC</t>
   </si>
   <si>
@@ -634,9 +640,6 @@
     <t>WRB</t>
   </si>
   <si>
-    <t>WSH</t>
-  </si>
-  <si>
     <t>WYN</t>
   </si>
   <si>
@@ -1264,6 +1267,9 @@
     <t>American Water Works</t>
   </si>
   <si>
+    <t>C.R. Bard</t>
+  </si>
+  <si>
     <t>Bemis</t>
   </si>
   <si>
@@ -1282,6 +1288,9 @@
     <t>Coty</t>
   </si>
   <si>
+    <t>Federal Realty Trust</t>
+  </si>
+  <si>
     <t>Computer Sciences</t>
   </si>
   <si>
@@ -1312,9 +1321,6 @@
     <t>First Republic</t>
   </si>
   <si>
-    <t>Federal Realty Trust</t>
-  </si>
-  <si>
     <t>Fortive</t>
   </si>
   <si>
@@ -1327,97 +1333,94 @@
     <t>Goodyear Tire &amp; Rubber</t>
   </si>
   <si>
-    <t>C.R. Bard</t>
-  </si>
-  <si>
     <t>Hilton Worldwide</t>
   </si>
   <si>
     <t>IDEXX</t>
   </si>
   <si>
+    <t>IDEX</t>
+  </si>
+  <si>
+    <t>IHS Markit</t>
+  </si>
+  <si>
+    <t>Gartner</t>
+  </si>
+  <si>
+    <t>Johnson Controls</t>
+  </si>
+  <si>
+    <t>Jefferies Financial Group</t>
+  </si>
+  <si>
+    <t>Jack Henry</t>
+  </si>
+  <si>
+    <t>Alliant Energy</t>
+  </si>
+  <si>
+    <t>Lamb Weston Holdings</t>
+  </si>
+  <si>
+    <t>Macy’s</t>
+  </si>
+  <si>
+    <t>Mattel</t>
+  </si>
+  <si>
+    <t>MarketAxess Holdings</t>
+  </si>
+  <si>
+    <t>Mettler-Toledo</t>
+  </si>
+  <si>
+    <t>Maxim Integrated Products</t>
+  </si>
+  <si>
+    <t>Norwegian Cruise Line</t>
+  </si>
+  <si>
+    <t>Otis Worldwide</t>
+  </si>
+  <si>
+    <t>Paycom Software</t>
+  </si>
+  <si>
+    <t>PG&amp;E</t>
+  </si>
+  <si>
+    <t>Precision Castparts</t>
+  </si>
+  <si>
+    <t>Quintiles IMS Holdings</t>
+  </si>
+  <si>
+    <t>Ryder Systems</t>
+  </si>
+  <si>
+    <t>Everest Re</t>
+  </si>
+  <si>
+    <t>Rollins</t>
+  </si>
+  <si>
+    <t>Raytheon</t>
+  </si>
+  <si>
+    <t>SVB Financial Group</t>
+  </si>
+  <si>
+    <t>SanDisk</t>
+  </si>
+  <si>
+    <t>Staples</t>
+  </si>
+  <si>
+    <t>STERIS</t>
+  </si>
+  <si>
     <t>St. Jude</t>
-  </si>
-  <si>
-    <t>IDEX</t>
-  </si>
-  <si>
-    <t>IHS Markit</t>
-  </si>
-  <si>
-    <t>Gartner</t>
-  </si>
-  <si>
-    <t>Johnson Controls</t>
-  </si>
-  <si>
-    <t>Jefferies Financial Group</t>
-  </si>
-  <si>
-    <t>Jack Henry</t>
-  </si>
-  <si>
-    <t>Alliant Energy</t>
-  </si>
-  <si>
-    <t>Lamb Weston Holdings</t>
-  </si>
-  <si>
-    <t>Macy’s</t>
-  </si>
-  <si>
-    <t>Mattel</t>
-  </si>
-  <si>
-    <t>MarketAxess Holdings</t>
-  </si>
-  <si>
-    <t>Mettler-Toledo</t>
-  </si>
-  <si>
-    <t>Maxim Integrated Products</t>
-  </si>
-  <si>
-    <t>Norwegian Cruise Line</t>
-  </si>
-  <si>
-    <t>Otis Worldwide</t>
-  </si>
-  <si>
-    <t>Paycom Software</t>
-  </si>
-  <si>
-    <t>PG&amp;E</t>
-  </si>
-  <si>
-    <t>Precision Castparts</t>
-  </si>
-  <si>
-    <t>Quintiles IMS Holdings</t>
-  </si>
-  <si>
-    <t>Ryder Systems</t>
-  </si>
-  <si>
-    <t>Everest Re</t>
-  </si>
-  <si>
-    <t>Rollins</t>
-  </si>
-  <si>
-    <t>Raytheon</t>
-  </si>
-  <si>
-    <t>SVB Financial Group</t>
-  </si>
-  <si>
-    <t>SanDisk</t>
-  </si>
-  <si>
-    <t>Staples</t>
-  </si>
-  <si>
-    <t>STERIS</t>
   </si>
   <si>
     <t>Teradata</t>
@@ -1860,11 +1863,9 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:I211"/>
+  <dimension ref="A1:I209"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B116" workbookViewId="0">
-      <selection activeCell="H99" sqref="H99"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -1873,7 +1874,6 @@
     <col min="6" max="6" width="17.734375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.41796875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="28.5234375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.26171875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -1913,10 +1913,10 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E2" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F2" s="2">
         <v>43245</v>
@@ -1925,10 +1925,10 @@
         <v>43251</v>
       </c>
       <c r="H2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="I2" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -1942,13 +1942,13 @@
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E3" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="I3" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -1962,10 +1962,10 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E4" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F4" s="2">
         <v>43430</v>
@@ -1974,10 +1974,10 @@
         <v>43437</v>
       </c>
       <c r="H4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="I4" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -1991,10 +1991,10 @@
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E5" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F5" s="2">
         <v>42514</v>
@@ -2003,10 +2003,10 @@
         <v>42517</v>
       </c>
       <c r="H5" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="I5" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -2020,10 +2020,10 @@
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E6" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F6" s="2">
         <v>42544</v>
@@ -2032,10 +2032,10 @@
         <v>42551</v>
       </c>
       <c r="H6" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="I6" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -2049,10 +2049,10 @@
         <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F7" s="2">
         <v>42895</v>
@@ -2061,10 +2061,10 @@
         <v>42905</v>
       </c>
       <c r="H7" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="I7" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -2078,10 +2078,10 @@
         <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E8" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F8" s="2">
         <v>42500</v>
@@ -2090,10 +2090,10 @@
         <v>42502</v>
       </c>
       <c r="H8" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="I8" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2107,13 +2107,13 @@
         <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E9" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="I9" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -2127,10 +2127,10 @@
         <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E10" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F10" s="2">
         <v>43812</v>
@@ -2139,10 +2139,10 @@
         <v>43822</v>
       </c>
       <c r="H10" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="I10" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -2156,10 +2156,10 @@
         <v>17</v>
       </c>
       <c r="D11" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E11" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F11" s="2">
         <v>42947</v>
@@ -2168,10 +2168,10 @@
         <v>42955</v>
       </c>
       <c r="H11" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="I11" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -2185,10 +2185,10 @@
         <v>18</v>
       </c>
       <c r="D12" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E12" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F12" s="2">
         <v>43368</v>
@@ -2197,10 +2197,10 @@
         <v>43374</v>
       </c>
       <c r="H12" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I12" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -2214,10 +2214,10 @@
         <v>19</v>
       </c>
       <c r="D13" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E13" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F13" s="2">
         <v>43335</v>
@@ -2226,10 +2226,10 @@
         <v>43340</v>
       </c>
       <c r="H13" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="I13" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -2243,10 +2243,10 @@
         <v>20</v>
       </c>
       <c r="D14" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E14" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F14" s="2">
         <v>42895</v>
@@ -2255,10 +2255,10 @@
         <v>42905</v>
       </c>
       <c r="H14" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="I14" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2272,13 +2272,13 @@
         <v>21</v>
       </c>
       <c r="D15" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="I15" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -2292,10 +2292,10 @@
         <v>22</v>
       </c>
       <c r="D16" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E16" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F16" s="2">
         <v>43678</v>
@@ -2304,10 +2304,10 @@
         <v>43686</v>
       </c>
       <c r="H16" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I16" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2321,13 +2321,13 @@
         <v>23</v>
       </c>
       <c r="D17" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E17" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="I17" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -2341,10 +2341,10 @@
         <v>24</v>
       </c>
       <c r="D18" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E18" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F18" s="2">
         <v>42508</v>
@@ -2353,10 +2353,10 @@
         <v>42510</v>
       </c>
       <c r="H18" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="I18" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -2370,10 +2370,10 @@
         <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E19" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F19" s="2">
         <v>43504</v>
@@ -2382,10 +2382,10 @@
         <v>43511</v>
       </c>
       <c r="H19" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="I19" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -2399,10 +2399,10 @@
         <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E20" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F20" s="2">
         <v>42430</v>
@@ -2411,10 +2411,10 @@
         <v>42432</v>
       </c>
       <c r="H20" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="I20" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2428,13 +2428,13 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E21" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="I21" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -2448,10 +2448,10 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E22" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F22" s="2">
         <v>43259</v>
@@ -2460,10 +2460,10 @@
         <v>43269</v>
       </c>
       <c r="H22" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="I22" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2477,16 +2477,16 @@
         <v>28</v>
       </c>
       <c r="D23" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E23" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="I23" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1">
         <v>109</v>
       </c>
@@ -2497,10 +2497,19 @@
         <v>29</v>
       </c>
       <c r="D24" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E24" t="s">
-        <v>401</v>
+        <v>402</v>
+      </c>
+      <c r="F24" s="2">
+        <v>43097</v>
+      </c>
+      <c r="G24" s="2">
+        <v>43103</v>
+      </c>
+      <c r="H24" t="s">
+        <v>414</v>
       </c>
       <c r="I24" t="s">
         <v>475</v>
@@ -2517,10 +2526,10 @@
         <v>30</v>
       </c>
       <c r="D25" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E25" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F25" s="2">
         <v>42947</v>
@@ -2529,10 +2538,10 @@
         <v>42954</v>
       </c>
       <c r="H25" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I25" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -2546,10 +2555,10 @@
         <v>30</v>
       </c>
       <c r="D26" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E26" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F26" s="2">
         <v>43550</v>
@@ -2558,10 +2567,10 @@
         <v>43558</v>
       </c>
       <c r="H26" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I26" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -2575,10 +2584,10 @@
         <v>31</v>
       </c>
       <c r="D27" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E27" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F27" s="2">
         <v>43619</v>
@@ -2587,10 +2596,10 @@
         <v>43623</v>
       </c>
       <c r="H27" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="I27" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -2604,10 +2613,10 @@
         <v>32</v>
       </c>
       <c r="D28" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E28" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F28" s="2">
         <v>43259</v>
@@ -2616,10 +2625,10 @@
         <v>43269</v>
       </c>
       <c r="H28" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I28" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -2633,10 +2642,10 @@
         <v>33</v>
       </c>
       <c r="D29" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E29" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F29" s="2">
         <v>42391</v>
@@ -2645,10 +2654,10 @@
         <v>42398</v>
       </c>
       <c r="H29" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="I29" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2662,13 +2671,13 @@
         <v>34</v>
       </c>
       <c r="D30" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E30" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="I30" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -2682,10 +2691,10 @@
         <v>35</v>
       </c>
       <c r="D31" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E31" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F31" s="2">
         <v>43403</v>
@@ -2697,7 +2706,7 @@
         <v>35</v>
       </c>
       <c r="I31" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -2711,10 +2720,10 @@
         <v>36</v>
       </c>
       <c r="D32" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E32" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F32" s="2">
         <v>42457</v>
@@ -2723,21 +2732,21 @@
         <v>42461</v>
       </c>
       <c r="H32" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="I32" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="1">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C33" t="s">
         <v>37</v>
       </c>
       <c r="E33" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F33" s="2">
         <v>43921</v>
@@ -2746,10 +2755,10 @@
         <v>43924</v>
       </c>
       <c r="H33" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="I33" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -2763,10 +2772,10 @@
         <v>38</v>
       </c>
       <c r="D34" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E34" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F34" s="2">
         <v>42382</v>
@@ -2775,10 +2784,10 @@
         <v>42384</v>
       </c>
       <c r="H34" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="I34" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2792,13 +2801,13 @@
         <v>39</v>
       </c>
       <c r="D35" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="I35" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="36" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -2812,10 +2821,10 @@
         <v>40</v>
       </c>
       <c r="D36" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E36" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F36" s="2">
         <v>42514</v>
@@ -2824,10 +2833,10 @@
         <v>42517</v>
       </c>
       <c r="H36" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="I36" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="37" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -2841,10 +2850,10 @@
         <v>41</v>
       </c>
       <c r="D37" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E37" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F37" s="2">
         <v>42986</v>
@@ -2853,10 +2862,10 @@
         <v>42996</v>
       </c>
       <c r="H37" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="I37" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2873,10 +2882,10 @@
         <v>42</v>
       </c>
       <c r="E38" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="I38" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="39" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -2890,10 +2899,10 @@
         <v>43</v>
       </c>
       <c r="D39" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E39" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F39" s="2">
         <v>43453</v>
@@ -2902,10 +2911,10 @@
         <v>43458</v>
       </c>
       <c r="H39" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="I39" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2919,13 +2928,13 @@
         <v>44</v>
       </c>
       <c r="D40" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E40" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="I40" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="41" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -2939,10 +2948,10 @@
         <v>45</v>
       </c>
       <c r="D41" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E41" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F41" s="2">
         <v>42395</v>
@@ -2951,10 +2960,10 @@
         <v>42398</v>
       </c>
       <c r="H41" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="I41" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="42" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -2968,10 +2977,10 @@
         <v>46</v>
       </c>
       <c r="D42" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E42" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F42" s="2">
         <v>43168</v>
@@ -2980,10 +2989,10 @@
         <v>43178</v>
       </c>
       <c r="H42" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="I42" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2997,13 +3006,13 @@
         <v>47</v>
       </c>
       <c r="D43" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E43" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="I43" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -3017,13 +3026,13 @@
         <v>48</v>
       </c>
       <c r="D44" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E44" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="I44" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="45" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -3037,10 +3046,10 @@
         <v>49</v>
       </c>
       <c r="D45" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E45" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F45" s="2">
         <v>42430</v>
@@ -3049,10 +3058,10 @@
         <v>42432</v>
       </c>
       <c r="H45" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="I45" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="46" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -3066,10 +3075,10 @@
         <v>50</v>
       </c>
       <c r="D46" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E46" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F46" s="2">
         <v>43430</v>
@@ -3078,10 +3087,10 @@
         <v>43437</v>
       </c>
       <c r="H46" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="I46" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -3095,13 +3104,13 @@
         <v>51</v>
       </c>
       <c r="D47" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E47" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="I47" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="48" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -3115,10 +3124,10 @@
         <v>52</v>
       </c>
       <c r="D48" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E48" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F48" s="2">
         <v>42640</v>
@@ -3127,10 +3136,10 @@
         <v>42643</v>
       </c>
       <c r="H48" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="I48" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -3144,10 +3153,10 @@
         <v>53</v>
       </c>
       <c r="D49" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E49" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F49" s="2">
         <v>42544</v>
@@ -3156,10 +3165,10 @@
         <v>42556</v>
       </c>
       <c r="H49" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="I49" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="50" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -3173,10 +3182,10 @@
         <v>54</v>
       </c>
       <c r="D50" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E50" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F50" s="2">
         <v>43276</v>
@@ -3185,61 +3194,64 @@
         <v>43283</v>
       </c>
       <c r="H50" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="I50" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="1">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C51" t="s">
         <v>55</v>
       </c>
       <c r="E51" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F51" s="2">
-        <v>42822</v>
+        <v>42391</v>
       </c>
       <c r="G51" s="2">
-        <v>42829</v>
+        <v>42398</v>
       </c>
       <c r="H51" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="I51" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="1">
-        <v>119</v>
-      </c>
-      <c r="B52" s="2">
-        <v>43194</v>
+        <v>197</v>
       </c>
       <c r="C52" t="s">
         <v>56</v>
       </c>
-      <c r="D52" t="s">
-        <v>256</v>
-      </c>
       <c r="E52" t="s">
         <v>401</v>
       </c>
+      <c r="F52" s="2">
+        <v>42822</v>
+      </c>
+      <c r="G52" s="2">
+        <v>42829</v>
+      </c>
+      <c r="H52" t="s">
+        <v>422</v>
+      </c>
       <c r="I52" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="1">
-        <v>165</v>
+        <v>119</v>
       </c>
       <c r="B53" s="2">
-        <v>43619</v>
+        <v>43194</v>
       </c>
       <c r="C53" t="s">
         <v>57</v>
@@ -3248,27 +3260,18 @@
         <v>257</v>
       </c>
       <c r="E53" t="s">
-        <v>400</v>
-      </c>
-      <c r="F53" s="2">
-        <v>43613</v>
-      </c>
-      <c r="G53" s="2">
-        <v>43619</v>
-      </c>
-      <c r="H53" t="s">
-        <v>257</v>
+        <v>402</v>
       </c>
       <c r="I53" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="54" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="1">
-        <v>38</v>
+        <v>165</v>
       </c>
       <c r="B54" s="2">
-        <v>42543</v>
+        <v>43619</v>
       </c>
       <c r="C54" t="s">
         <v>58</v>
@@ -3280,24 +3283,24 @@
         <v>401</v>
       </c>
       <c r="F54" s="2">
-        <v>42542</v>
+        <v>43613</v>
       </c>
       <c r="G54" s="2">
-        <v>42544</v>
+        <v>43619</v>
       </c>
       <c r="H54" t="s">
         <v>258</v>
       </c>
       <c r="I54" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="55" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="1">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="B55" s="2">
-        <v>42422</v>
+        <v>42543</v>
       </c>
       <c r="C55" t="s">
         <v>59</v>
@@ -3306,27 +3309,27 @@
         <v>259</v>
       </c>
       <c r="E55" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="F55" s="2">
-        <v>42416</v>
+        <v>42542</v>
       </c>
       <c r="G55" s="2">
-        <v>42419</v>
+        <v>42544</v>
       </c>
       <c r="H55" t="s">
         <v>259</v>
       </c>
       <c r="I55" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="56" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="1">
-        <v>103</v>
+        <v>8</v>
       </c>
       <c r="B56" s="2">
-        <v>42979</v>
+        <v>42422</v>
       </c>
       <c r="C56" t="s">
         <v>60</v>
@@ -3338,24 +3341,24 @@
         <v>401</v>
       </c>
       <c r="F56" s="2">
-        <v>42971</v>
+        <v>42416</v>
       </c>
       <c r="G56" s="2">
-        <v>42979</v>
+        <v>42419</v>
       </c>
       <c r="H56" t="s">
         <v>260</v>
       </c>
       <c r="I56" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="57" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="1">
-        <v>65</v>
+        <v>103</v>
       </c>
       <c r="B57" s="2">
-        <v>42807</v>
+        <v>42979</v>
       </c>
       <c r="C57" t="s">
         <v>61</v>
@@ -3364,27 +3367,27 @@
         <v>261</v>
       </c>
       <c r="E57" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="F57" s="2">
-        <v>42800</v>
+        <v>42971</v>
       </c>
       <c r="G57" s="2">
-        <v>42807</v>
+        <v>42979</v>
       </c>
       <c r="H57" t="s">
-        <v>420</v>
+        <v>261</v>
       </c>
       <c r="I57" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="58" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="1">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="B58" s="2">
-        <v>42508</v>
+        <v>42807</v>
       </c>
       <c r="C58" t="s">
         <v>62</v>
@@ -3393,27 +3396,27 @@
         <v>262</v>
       </c>
       <c r="E58" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F58" s="2">
-        <v>42503</v>
+        <v>42800</v>
       </c>
       <c r="G58" s="2">
-        <v>42507</v>
+        <v>42807</v>
       </c>
       <c r="H58" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="I58" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="59" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="1">
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="B59" s="2">
-        <v>42830</v>
+        <v>42508</v>
       </c>
       <c r="C59" t="s">
         <v>63</v>
@@ -3425,24 +3428,24 @@
         <v>401</v>
       </c>
       <c r="F59" s="2">
-        <v>42823</v>
+        <v>42503</v>
       </c>
       <c r="G59" s="2">
-        <v>42830</v>
+        <v>42507</v>
       </c>
       <c r="H59" t="s">
-        <v>263</v>
+        <v>424</v>
       </c>
       <c r="I59" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="60" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="1">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="B60" s="2">
-        <v>42643</v>
+        <v>42830</v>
       </c>
       <c r="C60" t="s">
         <v>64</v>
@@ -3451,27 +3454,27 @@
         <v>264</v>
       </c>
       <c r="E60" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F60" s="2">
-        <v>42640</v>
+        <v>42823</v>
       </c>
       <c r="G60" s="2">
-        <v>42643</v>
+        <v>42830</v>
       </c>
       <c r="H60" t="s">
         <v>264</v>
       </c>
       <c r="I60" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="61" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="1">
-        <v>163</v>
+        <v>52</v>
       </c>
       <c r="B61" s="2">
-        <v>43557</v>
+        <v>42643</v>
       </c>
       <c r="C61" t="s">
         <v>65</v>
@@ -3480,27 +3483,27 @@
         <v>265</v>
       </c>
       <c r="E61" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="F61" s="2">
-        <v>43550</v>
+        <v>42640</v>
       </c>
       <c r="G61" s="2">
-        <v>43557</v>
+        <v>42643</v>
       </c>
       <c r="H61" t="s">
-        <v>422</v>
+        <v>265</v>
       </c>
       <c r="I61" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="62" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="1">
-        <v>133</v>
+        <v>163</v>
       </c>
       <c r="B62" s="2">
-        <v>43283</v>
+        <v>43557</v>
       </c>
       <c r="C62" t="s">
         <v>66</v>
@@ -3512,24 +3515,24 @@
         <v>401</v>
       </c>
       <c r="F62" s="2">
-        <v>43276</v>
+        <v>43550</v>
       </c>
       <c r="G62" s="2">
+        <v>43557</v>
+      </c>
+      <c r="H62" t="s">
+        <v>425</v>
+      </c>
+      <c r="I62" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A63" s="1">
+        <v>133</v>
+      </c>
+      <c r="B63" s="2">
         <v>43283</v>
-      </c>
-      <c r="H62" t="s">
-        <v>423</v>
-      </c>
-      <c r="I62" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A63" s="1">
-        <v>98</v>
-      </c>
-      <c r="B63" s="2">
-        <v>42942</v>
       </c>
       <c r="C63" t="s">
         <v>67</v>
@@ -3538,7 +3541,16 @@
         <v>267</v>
       </c>
       <c r="E63" t="s">
-        <v>400</v>
+        <v>402</v>
+      </c>
+      <c r="F63" s="2">
+        <v>43276</v>
+      </c>
+      <c r="G63" s="2">
+        <v>43283</v>
+      </c>
+      <c r="H63" t="s">
+        <v>426</v>
       </c>
       <c r="I63" t="s">
         <v>475</v>
@@ -3546,10 +3558,10 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="1">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="B64" s="2">
-        <v>42829</v>
+        <v>42942</v>
       </c>
       <c r="C64" t="s">
         <v>68</v>
@@ -3558,18 +3570,18 @@
         <v>268</v>
       </c>
       <c r="E64" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="I64" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="1">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="B65" s="2">
-        <v>42621</v>
+        <v>42829</v>
       </c>
       <c r="C65" t="s">
         <v>69</v>
@@ -3581,15 +3593,15 @@
         <v>401</v>
       </c>
       <c r="I65" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="1">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="B66" s="2">
-        <v>42796</v>
+        <v>42621</v>
       </c>
       <c r="C66" t="s">
         <v>70</v>
@@ -3598,18 +3610,18 @@
         <v>270</v>
       </c>
       <c r="E66" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="I66" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="1">
-        <v>145</v>
+        <v>63</v>
       </c>
       <c r="B67" s="2">
-        <v>43417</v>
+        <v>42796</v>
       </c>
       <c r="C67" t="s">
         <v>71</v>
@@ -3618,27 +3630,18 @@
         <v>271</v>
       </c>
       <c r="E67" t="s">
-        <v>401</v>
-      </c>
-      <c r="F67" s="2">
-        <v>43411</v>
-      </c>
-      <c r="G67" s="2">
-        <v>43417</v>
-      </c>
-      <c r="H67" t="s">
-        <v>71</v>
+        <v>402</v>
       </c>
       <c r="I67" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="68" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="1">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="B68" s="2">
-        <v>43458</v>
+        <v>43417</v>
       </c>
       <c r="C68" t="s">
         <v>72</v>
@@ -3647,27 +3650,27 @@
         <v>272</v>
       </c>
       <c r="E68" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F68" s="2">
-        <v>43453</v>
+        <v>43411</v>
       </c>
       <c r="G68" s="2">
+        <v>43417</v>
+      </c>
+      <c r="H68" t="s">
+        <v>72</v>
+      </c>
+      <c r="I68" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A69" s="1">
+        <v>153</v>
+      </c>
+      <c r="B69" s="2">
         <v>43458</v>
-      </c>
-      <c r="H68" t="s">
-        <v>424</v>
-      </c>
-      <c r="I68" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A69" s="1">
-        <v>14</v>
-      </c>
-      <c r="B69" s="2">
-        <v>42459</v>
       </c>
       <c r="C69" t="s">
         <v>73</v>
@@ -3676,7 +3679,16 @@
         <v>273</v>
       </c>
       <c r="E69" t="s">
-        <v>401</v>
+        <v>402</v>
+      </c>
+      <c r="F69" s="2">
+        <v>43453</v>
+      </c>
+      <c r="G69" s="2">
+        <v>43458</v>
+      </c>
+      <c r="H69" t="s">
+        <v>427</v>
       </c>
       <c r="I69" t="s">
         <v>475</v>
@@ -3684,10 +3696,10 @@
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="1">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="B70" s="2">
-        <v>42706</v>
+        <v>42459</v>
       </c>
       <c r="C70" t="s">
         <v>74</v>
@@ -3696,47 +3708,38 @@
         <v>274</v>
       </c>
       <c r="E70" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="I70" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="1">
+        <v>53</v>
+      </c>
+      <c r="B71" s="2">
+        <v>42706</v>
+      </c>
+      <c r="C71" t="s">
+        <v>75</v>
+      </c>
+      <c r="D71" t="s">
+        <v>275</v>
+      </c>
+      <c r="E71" t="s">
+        <v>401</v>
+      </c>
+      <c r="I71" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A72" s="1">
         <v>142</v>
       </c>
-      <c r="B71" s="2">
+      <c r="B72" s="2">
         <v>43384</v>
-      </c>
-      <c r="C71" t="s">
-        <v>74</v>
-      </c>
-      <c r="D71" t="s">
-        <v>274</v>
-      </c>
-      <c r="E71" t="s">
-        <v>401</v>
-      </c>
-      <c r="F71" s="2">
-        <v>43377</v>
-      </c>
-      <c r="G71" s="2">
-        <v>43384</v>
-      </c>
-      <c r="H71" t="s">
-        <v>274</v>
-      </c>
-      <c r="I71" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A72" s="1">
-        <v>123</v>
-      </c>
-      <c r="B72" s="2">
-        <v>43256</v>
       </c>
       <c r="C72" t="s">
         <v>75</v>
@@ -3745,18 +3748,27 @@
         <v>275</v>
       </c>
       <c r="E72" t="s">
-        <v>400</v>
+        <v>402</v>
+      </c>
+      <c r="F72" s="2">
+        <v>43377</v>
+      </c>
+      <c r="G72" s="2">
+        <v>43384</v>
+      </c>
+      <c r="H72" t="s">
+        <v>275</v>
       </c>
       <c r="I72" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="73" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="1">
-        <v>2</v>
+        <v>123</v>
       </c>
       <c r="B73" s="2">
-        <v>42388</v>
+        <v>43256</v>
       </c>
       <c r="C73" t="s">
         <v>76</v>
@@ -3765,27 +3777,18 @@
         <v>276</v>
       </c>
       <c r="E73" t="s">
-        <v>400</v>
-      </c>
-      <c r="F73" s="2">
-        <v>42382</v>
-      </c>
-      <c r="G73" s="2">
-        <v>42384</v>
-      </c>
-      <c r="H73" t="s">
-        <v>276</v>
+        <v>401</v>
       </c>
       <c r="I73" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="74" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="1">
-        <v>150</v>
+        <v>2</v>
       </c>
       <c r="B74" s="2">
-        <v>43437</v>
+        <v>42388</v>
       </c>
       <c r="C74" t="s">
         <v>77</v>
@@ -3794,27 +3797,27 @@
         <v>277</v>
       </c>
       <c r="E74" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F74" s="2">
-        <v>43430</v>
+        <v>42382</v>
       </c>
       <c r="G74" s="2">
-        <v>43437</v>
+        <v>42384</v>
       </c>
       <c r="H74" t="s">
         <v>277</v>
       </c>
       <c r="I74" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="75" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="1">
-        <v>37</v>
+        <v>150</v>
       </c>
       <c r="B75" s="2">
-        <v>42543</v>
+        <v>43437</v>
       </c>
       <c r="C75" t="s">
         <v>78</v>
@@ -3823,27 +3826,27 @@
         <v>278</v>
       </c>
       <c r="E75" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F75" s="2">
-        <v>42542</v>
+        <v>43430</v>
       </c>
       <c r="G75" s="2">
-        <v>42544</v>
+        <v>43437</v>
       </c>
       <c r="H75" t="s">
         <v>278</v>
       </c>
       <c r="I75" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="76" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="1">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="B76" s="2">
-        <v>42464</v>
+        <v>42543</v>
       </c>
       <c r="C76" t="s">
         <v>79</v>
@@ -3852,30 +3855,30 @@
         <v>279</v>
       </c>
       <c r="E76" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F76" s="2">
-        <v>42457</v>
+        <v>42542</v>
       </c>
       <c r="G76" s="2">
-        <v>42461</v>
+        <v>42544</v>
       </c>
       <c r="H76" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I76" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="77" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="1">
-        <v>173</v>
+        <v>19</v>
       </c>
       <c r="B77" s="2">
-        <v>43686</v>
+        <v>42464</v>
       </c>
       <c r="C77" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D77" t="s">
         <v>280</v>
@@ -3884,24 +3887,24 @@
         <v>401</v>
       </c>
       <c r="F77" s="2">
-        <v>43678</v>
+        <v>42457</v>
       </c>
       <c r="G77" s="2">
-        <v>43686</v>
+        <v>42461</v>
       </c>
       <c r="H77" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="I77" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="78" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="1">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="B78" s="2">
-        <v>43619</v>
+        <v>43686</v>
       </c>
       <c r="C78" t="s">
         <v>80</v>
@@ -3910,27 +3913,27 @@
         <v>281</v>
       </c>
       <c r="E78" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F78" s="2">
-        <v>43613</v>
+        <v>43678</v>
       </c>
       <c r="G78" s="2">
-        <v>43620</v>
+        <v>43686</v>
       </c>
       <c r="H78" t="s">
-        <v>425</v>
+        <v>281</v>
       </c>
       <c r="I78" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="79" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="1">
-        <v>132</v>
+        <v>166</v>
       </c>
       <c r="B79" s="2">
-        <v>43271</v>
+        <v>43619</v>
       </c>
       <c r="C79" t="s">
         <v>81</v>
@@ -3939,27 +3942,27 @@
         <v>282</v>
       </c>
       <c r="E79" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="F79" s="2">
-        <v>43266</v>
+        <v>43613</v>
       </c>
       <c r="G79" s="2">
-        <v>43271</v>
+        <v>43620</v>
       </c>
       <c r="H79" t="s">
-        <v>282</v>
+        <v>428</v>
       </c>
       <c r="I79" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="80" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="1">
-        <v>0</v>
+        <v>132</v>
       </c>
       <c r="B80" s="2">
-        <v>42374</v>
+        <v>43271</v>
       </c>
       <c r="C80" t="s">
         <v>82</v>
@@ -3971,42 +3974,48 @@
         <v>401</v>
       </c>
       <c r="F80" s="2">
-        <v>42366</v>
+        <v>43266</v>
       </c>
       <c r="G80" s="2">
-        <v>42373</v>
+        <v>43271</v>
       </c>
       <c r="H80" t="s">
         <v>283</v>
       </c>
       <c r="I80" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="81" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="1">
-        <v>200</v>
+        <v>0</v>
+      </c>
+      <c r="B81" s="2">
+        <v>42374</v>
       </c>
       <c r="C81" t="s">
         <v>83</v>
       </c>
+      <c r="D81" t="s">
+        <v>284</v>
+      </c>
       <c r="E81" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F81" s="2">
-        <v>43538</v>
+        <v>42366</v>
       </c>
       <c r="G81" s="2">
-        <v>43544</v>
+        <v>42373</v>
       </c>
       <c r="H81" t="s">
-        <v>426</v>
+        <v>284</v>
       </c>
       <c r="I81" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="1">
         <v>199</v>
       </c>
@@ -4014,56 +4023,50 @@
         <v>84</v>
       </c>
       <c r="E82" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="F82" s="2">
         <v>43538</v>
       </c>
       <c r="G82" s="2">
-        <v>43543</v>
+        <v>43544</v>
       </c>
       <c r="H82" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="I82" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="1">
-        <v>155</v>
-      </c>
-      <c r="B83" s="2">
-        <v>43467</v>
+        <v>198</v>
       </c>
       <c r="C83" t="s">
         <v>85</v>
       </c>
-      <c r="D83" t="s">
-        <v>284</v>
-      </c>
       <c r="E83" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F83" s="2">
-        <v>43461</v>
+        <v>43538</v>
       </c>
       <c r="G83" s="2">
-        <v>43467</v>
+        <v>43543</v>
       </c>
       <c r="H83" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="I83" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
     </row>
     <row r="84" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="1">
-        <v>4</v>
+        <v>155</v>
       </c>
       <c r="B84" s="2">
-        <v>42401</v>
+        <v>43467</v>
       </c>
       <c r="C84" t="s">
         <v>86</v>
@@ -4072,27 +4075,27 @@
         <v>285</v>
       </c>
       <c r="E84" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F84" s="2">
-        <v>42391</v>
+        <v>43461</v>
       </c>
       <c r="G84" s="2">
-        <v>42398</v>
+        <v>43467</v>
       </c>
       <c r="H84" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="I84" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="1">
-        <v>69</v>
+        <v>4</v>
       </c>
       <c r="B85" s="2">
-        <v>42814</v>
+        <v>42401</v>
       </c>
       <c r="C85" t="s">
         <v>87</v>
@@ -4104,15 +4107,15 @@
         <v>401</v>
       </c>
       <c r="I85" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="1">
-        <v>141</v>
+        <v>69</v>
       </c>
       <c r="B86" s="2">
-        <v>43384</v>
+        <v>42814</v>
       </c>
       <c r="C86" t="s">
         <v>88</v>
@@ -4121,27 +4124,18 @@
         <v>287</v>
       </c>
       <c r="E86" t="s">
-        <v>400</v>
-      </c>
-      <c r="F86" s="2">
-        <v>43377</v>
-      </c>
-      <c r="G86" s="2">
+        <v>402</v>
+      </c>
+      <c r="I86" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A87" s="1">
+        <v>141</v>
+      </c>
+      <c r="B87" s="2">
         <v>43384</v>
-      </c>
-      <c r="H86" t="s">
-        <v>287</v>
-      </c>
-      <c r="I86" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A87" s="1">
-        <v>70</v>
-      </c>
-      <c r="B87" s="2">
-        <v>42814</v>
       </c>
       <c r="C87" t="s">
         <v>89</v>
@@ -4152,16 +4146,25 @@
       <c r="E87" t="s">
         <v>401</v>
       </c>
+      <c r="F87" s="2">
+        <v>43377</v>
+      </c>
+      <c r="G87" s="2">
+        <v>43384</v>
+      </c>
+      <c r="H87" t="s">
+        <v>288</v>
+      </c>
       <c r="I87" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="88" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="1">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="B88" s="2">
-        <v>42556</v>
+        <v>42814</v>
       </c>
       <c r="C88" t="s">
         <v>90</v>
@@ -4170,27 +4173,18 @@
         <v>289</v>
       </c>
       <c r="E88" t="s">
-        <v>400</v>
-      </c>
-      <c r="F88" s="2">
-        <v>42544</v>
-      </c>
-      <c r="G88" s="2">
-        <v>42552</v>
-      </c>
-      <c r="H88" t="s">
-        <v>430</v>
+        <v>402</v>
       </c>
       <c r="I88" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="89" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="1">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B89" s="2">
-        <v>42552</v>
+        <v>42556</v>
       </c>
       <c r="C89" t="s">
         <v>91</v>
@@ -4202,76 +4196,76 @@
         <v>401</v>
       </c>
       <c r="F89" s="2">
-        <v>42550</v>
+        <v>42544</v>
       </c>
       <c r="G89" s="2">
-        <v>42551</v>
+        <v>42552</v>
       </c>
       <c r="H89" t="s">
-        <v>290</v>
+        <v>432</v>
       </c>
       <c r="I89" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="90" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="1">
-        <v>204</v>
+        <v>41</v>
+      </c>
+      <c r="B90" s="2">
+        <v>42552</v>
       </c>
       <c r="C90" t="s">
         <v>92</v>
       </c>
+      <c r="D90" t="s">
+        <v>291</v>
+      </c>
       <c r="E90" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="F90" s="2">
-        <v>43888</v>
+        <v>42550</v>
       </c>
       <c r="G90" s="2">
-        <v>43893</v>
+        <v>42551</v>
       </c>
       <c r="H90" t="s">
-        <v>431</v>
+        <v>291</v>
       </c>
       <c r="I90" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="1">
-        <v>135</v>
-      </c>
-      <c r="B91" s="2">
-        <v>43340</v>
+        <v>202</v>
       </c>
       <c r="C91" t="s">
         <v>93</v>
       </c>
-      <c r="D91" t="s">
-        <v>291</v>
-      </c>
       <c r="E91" t="s">
         <v>401</v>
       </c>
       <c r="F91" s="2">
-        <v>43335</v>
+        <v>43888</v>
       </c>
       <c r="G91" s="2">
-        <v>43340</v>
+        <v>43893</v>
       </c>
       <c r="H91" t="s">
-        <v>93</v>
+        <v>433</v>
       </c>
       <c r="I91" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
     </row>
     <row r="92" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="1">
-        <v>12</v>
+        <v>135</v>
       </c>
       <c r="B92" s="2">
-        <v>42436</v>
+        <v>43340</v>
       </c>
       <c r="C92" t="s">
         <v>94</v>
@@ -4280,27 +4274,27 @@
         <v>292</v>
       </c>
       <c r="E92" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F92" s="2">
-        <v>42432</v>
+        <v>43335</v>
       </c>
       <c r="G92" s="2">
-        <v>42433</v>
+        <v>43340</v>
       </c>
       <c r="H92" t="s">
-        <v>292</v>
+        <v>94</v>
       </c>
       <c r="I92" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="93" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="1">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B93" s="2">
-        <v>42485</v>
+        <v>42436</v>
       </c>
       <c r="C93" t="s">
         <v>95</v>
@@ -4309,24 +4303,24 @@
         <v>293</v>
       </c>
       <c r="E93" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F93" s="2">
-        <v>42479</v>
+        <v>42432</v>
       </c>
       <c r="G93" s="2">
-        <v>42482</v>
+        <v>42433</v>
       </c>
       <c r="H93" t="s">
         <v>293</v>
       </c>
       <c r="I93" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="94" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B94" s="2">
         <v>42485</v>
@@ -4338,7 +4332,7 @@
         <v>294</v>
       </c>
       <c r="E94" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="F94" s="2">
         <v>42479</v>
@@ -4347,18 +4341,18 @@
         <v>42482</v>
       </c>
       <c r="H94" t="s">
-        <v>432</v>
+        <v>294</v>
       </c>
       <c r="I94" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="95" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="1">
-        <v>162</v>
+        <v>24</v>
       </c>
       <c r="B95" s="2">
-        <v>43523</v>
+        <v>42485</v>
       </c>
       <c r="C95" t="s">
         <v>97</v>
@@ -4370,24 +4364,24 @@
         <v>401</v>
       </c>
       <c r="F95" s="2">
-        <v>43517</v>
+        <v>42479</v>
       </c>
       <c r="G95" s="2">
+        <v>42482</v>
+      </c>
+      <c r="H95" t="s">
+        <v>434</v>
+      </c>
+      <c r="I95" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A96" s="1">
+        <v>162</v>
+      </c>
+      <c r="B96" s="2">
         <v>43523</v>
-      </c>
-      <c r="H95" t="s">
-        <v>433</v>
-      </c>
-      <c r="I95" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A96" s="1">
-        <v>67</v>
-      </c>
-      <c r="B96" s="2">
-        <v>42810</v>
       </c>
       <c r="C96" t="s">
         <v>98</v>
@@ -4396,18 +4390,27 @@
         <v>296</v>
       </c>
       <c r="E96" t="s">
-        <v>401</v>
+        <v>402</v>
+      </c>
+      <c r="F96" s="2">
+        <v>43517</v>
+      </c>
+      <c r="G96" s="2">
+        <v>43523</v>
+      </c>
+      <c r="H96" t="s">
+        <v>435</v>
       </c>
       <c r="I96" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="97" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="1">
-        <v>129</v>
+        <v>67</v>
       </c>
       <c r="B97" s="2">
-        <v>43269</v>
+        <v>42810</v>
       </c>
       <c r="C97" t="s">
         <v>99</v>
@@ -4416,27 +4419,18 @@
         <v>297</v>
       </c>
       <c r="E97" t="s">
-        <v>400</v>
-      </c>
-      <c r="F97" s="2">
-        <v>43259</v>
-      </c>
-      <c r="G97" s="2">
-        <v>43269</v>
-      </c>
-      <c r="H97" t="s">
-        <v>297</v>
+        <v>402</v>
       </c>
       <c r="I97" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="98" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="1">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="B98" s="2">
-        <v>43103</v>
+        <v>43269</v>
       </c>
       <c r="C98" t="s">
         <v>100</v>
@@ -4445,27 +4439,33 @@
         <v>298</v>
       </c>
       <c r="E98" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F98" s="2">
-        <v>43097</v>
+        <v>43259</v>
       </c>
       <c r="G98" s="2">
-        <v>43103</v>
+        <v>43269</v>
       </c>
       <c r="H98" t="s">
         <v>298</v>
       </c>
       <c r="I98" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="99" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="1">
-        <v>198</v>
+        <v>110</v>
+      </c>
+      <c r="B99" s="2">
+        <v>43103</v>
       </c>
       <c r="C99" t="s">
-        <v>100</v>
+        <v>101</v>
+      </c>
+      <c r="D99" t="s">
+        <v>299</v>
       </c>
       <c r="E99" t="s">
         <v>401</v>
@@ -4477,10 +4477,10 @@
         <v>43103</v>
       </c>
       <c r="H99" t="s">
-        <v>434</v>
+        <v>299</v>
       </c>
       <c r="I99" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="100" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -4491,13 +4491,13 @@
         <v>42905</v>
       </c>
       <c r="C100" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D100" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E100" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F100" s="2">
         <v>42895</v>
@@ -4506,10 +4506,10 @@
         <v>42905</v>
       </c>
       <c r="H100" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="I100" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -4520,16 +4520,16 @@
         <v>42459</v>
       </c>
       <c r="C101" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D101" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E101" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="I101" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -4540,16 +4540,16 @@
         <v>42635</v>
       </c>
       <c r="C102" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D102" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E102" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="I102" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="103" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -4560,13 +4560,13 @@
         <v>42740</v>
       </c>
       <c r="C103" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D103" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E103" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F103" s="2">
         <v>42738</v>
@@ -4575,79 +4575,85 @@
         <v>42739</v>
       </c>
       <c r="H103" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="I103" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="104" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="1">
-        <v>196</v>
+        <v>176</v>
+      </c>
+      <c r="B104" s="2">
+        <v>43686</v>
       </c>
       <c r="C104" t="s">
-        <v>104</v>
+        <v>106</v>
+      </c>
+      <c r="D104" t="s">
+        <v>304</v>
       </c>
       <c r="E104" t="s">
         <v>401</v>
       </c>
       <c r="F104" s="2">
-        <v>42738</v>
+        <v>43678</v>
       </c>
       <c r="G104" s="2">
-        <v>42739</v>
+        <v>43686</v>
       </c>
       <c r="H104" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="I104" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A105" s="1">
+        <v>59</v>
+      </c>
+      <c r="B105" s="2">
+        <v>42794</v>
+      </c>
+      <c r="C105" t="s">
+        <v>107</v>
+      </c>
+      <c r="D105" t="s">
+        <v>305</v>
+      </c>
+      <c r="E105" t="s">
+        <v>401</v>
+      </c>
+      <c r="I105" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="105" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A105" s="1">
-        <v>176</v>
-      </c>
-      <c r="B105" s="2">
-        <v>43686</v>
-      </c>
-      <c r="C105" t="s">
-        <v>105</v>
-      </c>
-      <c r="D105" t="s">
-        <v>303</v>
-      </c>
-      <c r="E105" t="s">
-        <v>400</v>
-      </c>
-      <c r="F105" s="2">
-        <v>43678</v>
-      </c>
-      <c r="G105" s="2">
-        <v>43686</v>
-      </c>
-      <c r="H105" t="s">
-        <v>438</v>
-      </c>
-      <c r="I105" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="1">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="B106" s="2">
-        <v>42794</v>
+        <v>42888</v>
       </c>
       <c r="C106" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D106" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="E106" t="s">
-        <v>400</v>
+        <v>401</v>
+      </c>
+      <c r="F106" s="2">
+        <v>42879</v>
+      </c>
+      <c r="G106" s="2">
+        <v>42888</v>
+      </c>
+      <c r="H106" t="s">
+        <v>439</v>
       </c>
       <c r="I106" t="s">
         <v>475</v>
@@ -4655,329 +4661,338 @@
     </row>
     <row r="107" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="1">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="B107" s="2">
-        <v>42888</v>
+        <v>43166</v>
       </c>
       <c r="C107" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D107" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="E107" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F107" s="2">
-        <v>42879</v>
+        <v>43161</v>
       </c>
       <c r="G107" s="2">
-        <v>42888</v>
+        <v>43166</v>
       </c>
       <c r="H107" t="s">
-        <v>439</v>
+        <v>307</v>
       </c>
       <c r="I107" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="108" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="1">
-        <v>112</v>
+        <v>77</v>
       </c>
       <c r="B108" s="2">
-        <v>43166</v>
+        <v>42830</v>
       </c>
       <c r="C108" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D108" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="E108" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F108" s="2">
-        <v>43161</v>
+        <v>42823</v>
       </c>
       <c r="G108" s="2">
-        <v>43166</v>
+        <v>42830</v>
       </c>
       <c r="H108" t="s">
-        <v>306</v>
+        <v>440</v>
       </c>
       <c r="I108" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="109" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="1">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="B109" s="2">
-        <v>42830</v>
+        <v>42619</v>
       </c>
       <c r="C109" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D109" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="E109" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="F109" s="2">
-        <v>42823</v>
+        <v>42607</v>
       </c>
       <c r="G109" s="2">
-        <v>42830</v>
+        <v>42615</v>
       </c>
       <c r="H109" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="I109" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="110" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="1">
-        <v>46</v>
+        <v>180</v>
       </c>
       <c r="B110" s="2">
-        <v>42619</v>
+        <v>43734</v>
       </c>
       <c r="C110" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D110" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="E110" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F110" s="2">
-        <v>42607</v>
+        <v>43728</v>
       </c>
       <c r="G110" s="2">
-        <v>42615</v>
+        <v>43734</v>
       </c>
       <c r="H110" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="I110" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="111" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="1">
-        <v>180</v>
+        <v>146</v>
       </c>
       <c r="B111" s="2">
-        <v>43734</v>
+        <v>43417</v>
       </c>
       <c r="C111" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D111" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="E111" t="s">
         <v>401</v>
       </c>
       <c r="F111" s="2">
-        <v>43728</v>
+        <v>43411</v>
       </c>
       <c r="G111" s="2">
-        <v>43734</v>
+        <v>43417</v>
       </c>
       <c r="H111" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="I111" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="112" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="1">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B112" s="2">
-        <v>43417</v>
+        <v>43410</v>
       </c>
       <c r="C112" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D112" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="E112" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F112" s="2">
-        <v>43411</v>
+        <v>43403</v>
       </c>
       <c r="G112" s="2">
-        <v>43417</v>
+        <v>43410</v>
       </c>
       <c r="H112" t="s">
-        <v>443</v>
+        <v>312</v>
       </c>
       <c r="I112" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="113" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="1">
-        <v>143</v>
+        <v>174</v>
       </c>
       <c r="B113" s="2">
-        <v>43410</v>
+        <v>43686</v>
       </c>
       <c r="C113" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D113" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="E113" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F113" s="2">
-        <v>43403</v>
+        <v>43678</v>
       </c>
       <c r="G113" s="2">
-        <v>43410</v>
+        <v>43686</v>
       </c>
       <c r="H113" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="I113" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="114" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="1">
-        <v>174</v>
+        <v>32</v>
       </c>
       <c r="B114" s="2">
-        <v>43686</v>
+        <v>42513</v>
       </c>
       <c r="C114" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D114" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="E114" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F114" s="2">
-        <v>43678</v>
+        <v>42508</v>
       </c>
       <c r="G114" s="2">
-        <v>43686</v>
+        <v>42510</v>
       </c>
       <c r="H114" t="s">
-        <v>312</v>
+        <v>116</v>
       </c>
       <c r="I114" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="115" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="1">
-        <v>32</v>
+        <v>170</v>
       </c>
       <c r="B115" s="2">
-        <v>42513</v>
+        <v>43647</v>
       </c>
       <c r="C115" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D115" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="E115" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="F115" s="2">
-        <v>42508</v>
+        <v>43640</v>
       </c>
       <c r="G115" s="2">
-        <v>42510</v>
+        <v>43647</v>
       </c>
       <c r="H115" t="s">
-        <v>115</v>
+        <v>315</v>
       </c>
       <c r="I115" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="1">
-        <v>170</v>
+        <v>66</v>
       </c>
       <c r="B116" s="2">
-        <v>43647</v>
+        <v>42807</v>
       </c>
       <c r="C116" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D116" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="E116" t="s">
-        <v>401</v>
+        <v>402</v>
+      </c>
+      <c r="F116" s="2">
+        <v>42800</v>
+      </c>
+      <c r="G116" s="2">
+        <v>42807</v>
+      </c>
+      <c r="H116" t="s">
+        <v>316</v>
       </c>
       <c r="I116" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="117" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="1">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="B117" s="2">
-        <v>42807</v>
+        <v>42706</v>
       </c>
       <c r="C117" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D117" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="E117" t="s">
-        <v>401</v>
-      </c>
-      <c r="F117" s="2">
-        <v>42800</v>
-      </c>
-      <c r="G117" s="2">
-        <v>42807</v>
-      </c>
-      <c r="H117" t="s">
-        <v>315</v>
+        <v>402</v>
       </c>
       <c r="I117" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="1">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="B118" s="2">
-        <v>42706</v>
+        <v>42552</v>
       </c>
       <c r="C118" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D118" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="E118" t="s">
         <v>401</v>
+      </c>
+      <c r="F118" s="2">
+        <v>42550</v>
+      </c>
+      <c r="G118" s="2">
+        <v>42551</v>
+      </c>
+      <c r="H118" t="s">
+        <v>444</v>
       </c>
       <c r="I118" t="s">
         <v>475</v>
@@ -4985,187 +5000,187 @@
     </row>
     <row r="119" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="1">
-        <v>39</v>
+        <v>108</v>
       </c>
       <c r="B119" s="2">
-        <v>42552</v>
+        <v>43021</v>
       </c>
       <c r="C119" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D119" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E119" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="F119" s="2">
-        <v>42550</v>
+        <v>43012</v>
       </c>
       <c r="G119" s="2">
-        <v>42551</v>
+        <v>43021</v>
       </c>
       <c r="H119" t="s">
-        <v>444</v>
+        <v>319</v>
       </c>
       <c r="I119" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="120" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="1">
-        <v>108</v>
+        <v>181</v>
       </c>
       <c r="B120" s="2">
-        <v>43021</v>
+        <v>43741</v>
       </c>
       <c r="C120" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D120" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="E120" t="s">
         <v>401</v>
       </c>
       <c r="F120" s="2">
-        <v>43012</v>
+        <v>43734</v>
       </c>
       <c r="G120" s="2">
-        <v>43021</v>
+        <v>43741</v>
       </c>
       <c r="H120" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="I120" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="121" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="1">
-        <v>181</v>
+        <v>148</v>
       </c>
       <c r="B121" s="2">
-        <v>43741</v>
+        <v>43437</v>
       </c>
       <c r="C121" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D121" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="E121" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F121" s="2">
-        <v>43734</v>
+        <v>43430</v>
       </c>
       <c r="G121" s="2">
-        <v>43741</v>
+        <v>43437</v>
       </c>
       <c r="H121" t="s">
-        <v>319</v>
+        <v>445</v>
       </c>
       <c r="I121" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="122" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="1">
-        <v>148</v>
+        <v>190</v>
       </c>
       <c r="B122" s="2">
-        <v>43437</v>
+        <v>43822</v>
       </c>
       <c r="C122" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D122" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="E122" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F122" s="2">
-        <v>43430</v>
+        <v>43812</v>
       </c>
       <c r="G122" s="2">
-        <v>43437</v>
+        <v>43822</v>
       </c>
       <c r="H122" t="s">
-        <v>445</v>
+        <v>322</v>
       </c>
       <c r="I122" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="1">
-        <v>190</v>
-      </c>
-      <c r="B123" s="2">
-        <v>43822</v>
+        <v>207</v>
       </c>
       <c r="C123" t="s">
-        <v>123</v>
-      </c>
-      <c r="D123" t="s">
-        <v>321</v>
+        <v>125</v>
       </c>
       <c r="E123" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="F123" s="2">
-        <v>43812</v>
+        <v>43921</v>
       </c>
       <c r="G123" s="2">
-        <v>43822</v>
+        <v>43927</v>
       </c>
       <c r="H123" t="s">
-        <v>321</v>
+        <v>446</v>
       </c>
       <c r="I123" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="1">
-        <v>209</v>
+        <v>54</v>
+      </c>
+      <c r="B124" s="2">
+        <v>42706</v>
       </c>
       <c r="C124" t="s">
-        <v>124</v>
+        <v>126</v>
+      </c>
+      <c r="D124" t="s">
+        <v>323</v>
       </c>
       <c r="E124" t="s">
         <v>401</v>
-      </c>
-      <c r="F124" s="2">
-        <v>43921</v>
-      </c>
-      <c r="G124" s="2">
-        <v>43927</v>
-      </c>
-      <c r="H124" t="s">
-        <v>446</v>
       </c>
       <c r="I124" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="1">
-        <v>54</v>
+        <v>191</v>
       </c>
       <c r="B125" s="2">
-        <v>42706</v>
+        <v>43822</v>
       </c>
       <c r="C125" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D125" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="E125" t="s">
-        <v>400</v>
+        <v>402</v>
+      </c>
+      <c r="F125" s="2">
+        <v>43812</v>
+      </c>
+      <c r="G125" s="2">
+        <v>43822</v>
+      </c>
+      <c r="H125" t="s">
+        <v>324</v>
       </c>
       <c r="I125" t="s">
         <v>475</v>
@@ -5173,77 +5188,77 @@
     </row>
     <row r="126" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="1">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="B126" s="2">
-        <v>43822</v>
+        <v>43623</v>
       </c>
       <c r="C126" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D126" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="E126" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F126" s="2">
-        <v>43812</v>
+        <v>43619</v>
       </c>
       <c r="G126" s="2">
-        <v>43822</v>
+        <v>43623</v>
       </c>
       <c r="H126" t="s">
-        <v>323</v>
+        <v>447</v>
       </c>
       <c r="I126" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="1">
-        <v>168</v>
+        <v>92</v>
       </c>
       <c r="B127" s="2">
-        <v>43623</v>
+        <v>42942</v>
       </c>
       <c r="C127" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D127" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="E127" t="s">
         <v>401</v>
       </c>
-      <c r="F127" s="2">
-        <v>43619</v>
-      </c>
-      <c r="G127" s="2">
-        <v>43623</v>
-      </c>
-      <c r="H127" t="s">
-        <v>447</v>
-      </c>
       <c r="I127" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="1">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="B128" s="2">
-        <v>42942</v>
+        <v>42905</v>
       </c>
       <c r="C128" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D128" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="E128" t="s">
-        <v>400</v>
+        <v>402</v>
+      </c>
+      <c r="F128" s="2">
+        <v>42898</v>
+      </c>
+      <c r="G128" s="2">
+        <v>42905</v>
+      </c>
+      <c r="H128" t="s">
+        <v>327</v>
       </c>
       <c r="I128" t="s">
         <v>475</v>
@@ -5251,247 +5266,253 @@
     </row>
     <row r="129" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="1">
-        <v>81</v>
+        <v>169</v>
       </c>
       <c r="B129" s="2">
-        <v>42905</v>
+        <v>43647</v>
       </c>
       <c r="C129" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D129" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="E129" t="s">
         <v>401</v>
       </c>
       <c r="F129" s="2">
-        <v>42898</v>
+        <v>43640</v>
       </c>
       <c r="G129" s="2">
-        <v>42905</v>
+        <v>43647</v>
       </c>
       <c r="H129" t="s">
-        <v>326</v>
+        <v>448</v>
       </c>
       <c r="I129" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="1">
-        <v>169</v>
+        <v>91</v>
       </c>
       <c r="B130" s="2">
-        <v>43647</v>
+        <v>42942</v>
       </c>
       <c r="C130" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D130" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="E130" t="s">
-        <v>400</v>
-      </c>
-      <c r="F130" s="2">
-        <v>43640</v>
-      </c>
-      <c r="G130" s="2">
-        <v>43647</v>
-      </c>
-      <c r="H130" t="s">
-        <v>448</v>
+        <v>402</v>
       </c>
       <c r="I130" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="131" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="1">
-        <v>201</v>
+        <v>125</v>
+      </c>
+      <c r="B131" s="2">
+        <v>43258</v>
       </c>
       <c r="C131" t="s">
-        <v>130</v>
+        <v>133</v>
+      </c>
+      <c r="D131" t="s">
+        <v>330</v>
       </c>
       <c r="E131" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F131" s="2">
-        <v>43640</v>
+        <v>43255</v>
       </c>
       <c r="G131" s="2">
-        <v>43647</v>
+        <v>43258</v>
       </c>
       <c r="H131" t="s">
-        <v>314</v>
+        <v>330</v>
       </c>
       <c r="I131" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="1">
-        <v>91</v>
+        <v>120</v>
       </c>
       <c r="B132" s="2">
-        <v>42942</v>
+        <v>43194</v>
       </c>
       <c r="C132" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D132" t="s">
-        <v>328</v>
+        <v>134</v>
       </c>
       <c r="E132" t="s">
         <v>401</v>
       </c>
       <c r="I132" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="133" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="1">
-        <v>125</v>
+        <v>45</v>
       </c>
       <c r="B133" s="2">
-        <v>43258</v>
+        <v>42619</v>
       </c>
       <c r="C133" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D133" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="E133" t="s">
         <v>401</v>
       </c>
       <c r="F133" s="2">
-        <v>43255</v>
+        <v>42607</v>
       </c>
       <c r="G133" s="2">
-        <v>43258</v>
+        <v>42615</v>
       </c>
       <c r="H133" t="s">
-        <v>329</v>
+        <v>449</v>
       </c>
       <c r="I133" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="1">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="B134" s="2">
-        <v>43194</v>
+        <v>42942</v>
       </c>
       <c r="C134" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D134" t="s">
-        <v>133</v>
+        <v>332</v>
       </c>
       <c r="E134" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="I134" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="135" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="1">
-        <v>45</v>
+        <v>149</v>
       </c>
       <c r="B135" s="2">
-        <v>42619</v>
+        <v>43437</v>
       </c>
       <c r="C135" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D135" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="E135" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F135" s="2">
-        <v>42607</v>
+        <v>43430</v>
       </c>
       <c r="G135" s="2">
-        <v>42615</v>
+        <v>43437</v>
       </c>
       <c r="H135" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="I135" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="1">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c r="B136" s="2">
-        <v>42942</v>
+        <v>43256</v>
       </c>
       <c r="C136" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D136" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="E136" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="I136" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="137" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" s="1">
-        <v>149</v>
+        <v>107</v>
       </c>
       <c r="B137" s="2">
-        <v>43437</v>
+        <v>43021</v>
       </c>
       <c r="C137" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D137" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="E137" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F137" s="2">
-        <v>43430</v>
+        <v>43012</v>
       </c>
       <c r="G137" s="2">
-        <v>43437</v>
+        <v>43021</v>
       </c>
       <c r="H137" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="I137" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="1">
-        <v>124</v>
+        <v>159</v>
       </c>
       <c r="B138" s="2">
-        <v>43256</v>
+        <v>43511</v>
       </c>
       <c r="C138" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D138" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="E138" t="s">
-        <v>401</v>
+        <v>402</v>
+      </c>
+      <c r="F138" s="2">
+        <v>43504</v>
+      </c>
+      <c r="G138" s="2">
+        <v>43511</v>
+      </c>
+      <c r="H138" t="s">
+        <v>336</v>
       </c>
       <c r="I138" t="s">
         <v>475</v>
@@ -5499,236 +5520,221 @@
     </row>
     <row r="139" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="1">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="B139" s="2">
-        <v>43021</v>
+        <v>43178</v>
       </c>
       <c r="C139" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D139" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="E139" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F139" s="2">
-        <v>43012</v>
+        <v>43168</v>
       </c>
       <c r="G139" s="2">
-        <v>43021</v>
+        <v>43178</v>
       </c>
       <c r="H139" t="s">
-        <v>451</v>
+        <v>337</v>
       </c>
       <c r="I139" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="140" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" s="1">
-        <v>159</v>
+        <v>182</v>
       </c>
       <c r="B140" s="2">
-        <v>43511</v>
+        <v>43741</v>
       </c>
       <c r="C140" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D140" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="E140" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F140" s="2">
-        <v>43504</v>
+        <v>43734</v>
       </c>
       <c r="G140" s="2">
-        <v>43511</v>
+        <v>43741</v>
       </c>
       <c r="H140" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="I140" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" s="1">
-        <v>118</v>
+        <v>183</v>
       </c>
       <c r="B141" s="2">
-        <v>43178</v>
+        <v>43790</v>
       </c>
       <c r="C141" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D141" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="E141" t="s">
-        <v>400</v>
-      </c>
-      <c r="F141" s="2">
-        <v>43168</v>
-      </c>
-      <c r="G141" s="2">
-        <v>43178</v>
-      </c>
-      <c r="H141" t="s">
-        <v>336</v>
+        <v>401</v>
       </c>
       <c r="I141" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="142" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="1">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B142" s="2">
-        <v>43741</v>
+        <v>43734</v>
       </c>
       <c r="C142" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D142" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="E142" t="s">
         <v>401</v>
       </c>
       <c r="F142" s="2">
+        <v>43728</v>
+      </c>
+      <c r="G142" s="2">
         <v>43734</v>
       </c>
-      <c r="G142" s="2">
-        <v>43741</v>
-      </c>
       <c r="H142" t="s">
-        <v>336</v>
+        <v>143</v>
       </c>
       <c r="I142" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" s="1">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B143" s="2">
-        <v>43790</v>
+        <v>43808</v>
       </c>
       <c r="C143" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D143" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="E143" t="s">
-        <v>400</v>
+        <v>401</v>
+      </c>
+      <c r="F143" s="2">
+        <v>43801</v>
+      </c>
+      <c r="G143" s="2">
+        <v>43808</v>
+      </c>
+      <c r="H143" t="s">
+        <v>340</v>
       </c>
       <c r="I143" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="144" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" s="1">
-        <v>179</v>
+        <v>55</v>
       </c>
       <c r="B144" s="2">
-        <v>43734</v>
+        <v>42706</v>
       </c>
       <c r="C144" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D144" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="E144" t="s">
-        <v>400</v>
-      </c>
-      <c r="F144" s="2">
-        <v>43728</v>
-      </c>
-      <c r="G144" s="2">
-        <v>43734</v>
-      </c>
-      <c r="H144" t="s">
-        <v>142</v>
+        <v>402</v>
       </c>
       <c r="I144" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" s="1">
-        <v>187</v>
-      </c>
-      <c r="B145" s="2">
-        <v>43808</v>
+        <v>204</v>
       </c>
       <c r="C145" t="s">
-        <v>143</v>
-      </c>
-      <c r="D145" t="s">
-        <v>339</v>
+        <v>146</v>
       </c>
       <c r="E145" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F145" s="2">
-        <v>43801</v>
+        <v>43921</v>
       </c>
       <c r="G145" s="2">
-        <v>43808</v>
+        <v>43924</v>
       </c>
       <c r="H145" t="s">
-        <v>339</v>
+        <v>452</v>
       </c>
       <c r="I145" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" s="1">
-        <v>55</v>
-      </c>
-      <c r="B146" s="2">
-        <v>42706</v>
+        <v>200</v>
       </c>
       <c r="C146" t="s">
-        <v>144</v>
-      </c>
-      <c r="D146" t="s">
-        <v>340</v>
+        <v>147</v>
       </c>
       <c r="E146" t="s">
         <v>401</v>
       </c>
+      <c r="F146" s="2">
+        <v>43852</v>
+      </c>
+      <c r="G146" s="2">
+        <v>43858</v>
+      </c>
+      <c r="H146" t="s">
+        <v>453</v>
+      </c>
       <c r="I146" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" s="1">
-        <v>206</v>
+        <v>62</v>
+      </c>
+      <c r="B147" s="2">
+        <v>42795</v>
       </c>
       <c r="C147" t="s">
-        <v>145</v>
+        <v>148</v>
+      </c>
+      <c r="D147" t="s">
+        <v>342</v>
       </c>
       <c r="E147" t="s">
-        <v>400</v>
-      </c>
-      <c r="F147" s="2">
-        <v>43921</v>
-      </c>
-      <c r="G147" s="2">
-        <v>43924</v>
-      </c>
-      <c r="H147" t="s">
-        <v>452</v>
+        <v>402</v>
       </c>
       <c r="I147" t="s">
         <v>476</v>
@@ -5736,42 +5742,57 @@
     </row>
     <row r="148" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" s="1">
-        <v>202</v>
+        <v>158</v>
+      </c>
+      <c r="B148" s="2">
+        <v>43483</v>
       </c>
       <c r="C148" t="s">
-        <v>146</v>
+        <v>149</v>
+      </c>
+      <c r="D148" t="s">
+        <v>343</v>
       </c>
       <c r="E148" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="F148" s="2">
-        <v>43852</v>
+        <v>43480</v>
       </c>
       <c r="G148" s="2">
-        <v>43858</v>
+        <v>43483</v>
       </c>
       <c r="H148" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="I148" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" s="1">
-        <v>62</v>
+        <v>9</v>
       </c>
       <c r="B149" s="2">
-        <v>42795</v>
+        <v>42422</v>
       </c>
       <c r="C149" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D149" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="E149" t="s">
-        <v>401</v>
+        <v>402</v>
+      </c>
+      <c r="F149" s="2">
+        <v>42416</v>
+      </c>
+      <c r="G149" s="2">
+        <v>42419</v>
+      </c>
+      <c r="H149" t="s">
+        <v>344</v>
       </c>
       <c r="I149" t="s">
         <v>475</v>
@@ -5779,530 +5800,530 @@
     </row>
     <row r="150" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" s="1">
-        <v>158</v>
+        <v>6</v>
       </c>
       <c r="B150" s="2">
-        <v>43483</v>
+        <v>42401</v>
       </c>
       <c r="C150" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D150" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="E150" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F150" s="2">
-        <v>43480</v>
+        <v>42395</v>
       </c>
       <c r="G150" s="2">
-        <v>43483</v>
+        <v>42398</v>
       </c>
       <c r="H150" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="I150" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="151" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" s="1">
-        <v>9</v>
+        <v>114</v>
       </c>
       <c r="B151" s="2">
-        <v>42422</v>
+        <v>43178</v>
       </c>
       <c r="C151" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D151" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="E151" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F151" s="2">
-        <v>42416</v>
+        <v>43168</v>
       </c>
       <c r="G151" s="2">
-        <v>42419</v>
+        <v>43178</v>
       </c>
       <c r="H151" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="I151" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" s="1">
-        <v>6</v>
+        <v>96</v>
       </c>
       <c r="B152" s="2">
-        <v>42401</v>
+        <v>42942</v>
       </c>
       <c r="C152" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D152" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="E152" t="s">
         <v>401</v>
       </c>
-      <c r="F152" s="2">
-        <v>42395</v>
-      </c>
-      <c r="G152" s="2">
-        <v>42398</v>
-      </c>
-      <c r="H152" t="s">
-        <v>455</v>
-      </c>
       <c r="I152" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" s="1">
-        <v>114</v>
+        <v>15</v>
       </c>
       <c r="B153" s="2">
-        <v>43178</v>
+        <v>42459</v>
       </c>
       <c r="C153" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D153" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="E153" t="s">
-        <v>401</v>
-      </c>
-      <c r="F153" s="2">
-        <v>43168</v>
-      </c>
-      <c r="G153" s="2">
-        <v>43178</v>
-      </c>
-      <c r="H153" t="s">
-        <v>345</v>
+        <v>402</v>
       </c>
       <c r="I153" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" s="1">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="B154" s="2">
+        <v>42976</v>
+      </c>
+      <c r="C154" t="s">
+        <v>155</v>
+      </c>
+      <c r="D154" t="s">
+        <v>349</v>
+      </c>
+      <c r="E154" t="s">
+        <v>401</v>
+      </c>
+      <c r="F154" s="2">
+        <v>42971</v>
+      </c>
+      <c r="G154" s="2">
+        <v>42976</v>
+      </c>
+      <c r="H154" t="s">
+        <v>456</v>
+      </c>
+      <c r="I154" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A155" s="1">
+        <v>82</v>
+      </c>
+      <c r="B155" s="2">
+        <v>42905</v>
+      </c>
+      <c r="C155" t="s">
+        <v>156</v>
+      </c>
+      <c r="D155" t="s">
+        <v>350</v>
+      </c>
+      <c r="E155" t="s">
+        <v>402</v>
+      </c>
+      <c r="F155" s="2">
+        <v>42895</v>
+      </c>
+      <c r="G155" s="2">
+        <v>42905</v>
+      </c>
+      <c r="H155" t="s">
+        <v>457</v>
+      </c>
+      <c r="I155" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A156" s="1">
+        <v>89</v>
+      </c>
+      <c r="B156" s="2">
         <v>42942</v>
       </c>
-      <c r="C154" t="s">
-        <v>152</v>
-      </c>
-      <c r="D154" t="s">
-        <v>346</v>
-      </c>
-      <c r="E154" t="s">
-        <v>400</v>
-      </c>
-      <c r="I154" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A155" s="1">
-        <v>15</v>
-      </c>
-      <c r="B155" s="2">
-        <v>42459</v>
-      </c>
-      <c r="C155" t="s">
-        <v>153</v>
-      </c>
-      <c r="D155" t="s">
-        <v>347</v>
-      </c>
-      <c r="E155" t="s">
-        <v>401</v>
-      </c>
-      <c r="I155" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A156" s="1">
-        <v>102</v>
-      </c>
-      <c r="B156" s="2">
-        <v>42976</v>
-      </c>
       <c r="C156" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D156" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="E156" t="s">
-        <v>400</v>
-      </c>
-      <c r="F156" s="2">
-        <v>42971</v>
-      </c>
-      <c r="G156" s="2">
-        <v>42976</v>
-      </c>
-      <c r="H156" t="s">
-        <v>456</v>
+        <v>402</v>
       </c>
       <c r="I156" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="157" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" s="1">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B157" s="2">
         <v>42905</v>
       </c>
       <c r="C157" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D157" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="E157" t="s">
         <v>401</v>
       </c>
       <c r="F157" s="2">
-        <v>42895</v>
+        <v>42898</v>
       </c>
       <c r="G157" s="2">
         <v>42905</v>
       </c>
       <c r="H157" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="I157" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" s="1">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="B158" s="2">
-        <v>42942</v>
+        <v>42796</v>
       </c>
       <c r="C158" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D158" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="E158" t="s">
         <v>401</v>
       </c>
       <c r="I158" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="159" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" s="1">
-        <v>83</v>
+        <v>172</v>
       </c>
       <c r="B159" s="2">
-        <v>42905</v>
+        <v>43661</v>
       </c>
       <c r="C159" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D159" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="E159" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="F159" s="2">
-        <v>42898</v>
+        <v>43655</v>
       </c>
       <c r="G159" s="2">
-        <v>42905</v>
+        <v>43661</v>
       </c>
       <c r="H159" t="s">
-        <v>458</v>
+        <v>354</v>
       </c>
       <c r="I159" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" s="1">
-        <v>64</v>
+        <v>93</v>
       </c>
       <c r="B160" s="2">
-        <v>42796</v>
+        <v>42942</v>
       </c>
       <c r="C160" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D160" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="E160" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="I160" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" s="1">
-        <v>172</v>
+        <v>72</v>
       </c>
       <c r="B161" s="2">
-        <v>43661</v>
+        <v>42814</v>
       </c>
       <c r="C161" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D161" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="E161" t="s">
         <v>401</v>
       </c>
-      <c r="F161" s="2">
-        <v>43655</v>
-      </c>
-      <c r="G161" s="2">
-        <v>43661</v>
-      </c>
-      <c r="H161" t="s">
-        <v>353</v>
-      </c>
       <c r="I161" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" s="1">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B162" s="2">
         <v>42942</v>
       </c>
       <c r="C162" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D162" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="E162" t="s">
         <v>401</v>
       </c>
       <c r="I162" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" s="1">
-        <v>72</v>
+        <v>140</v>
       </c>
       <c r="B163" s="2">
-        <v>42814</v>
+        <v>43374</v>
       </c>
       <c r="C163" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D163" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="E163" t="s">
-        <v>400</v>
+        <v>401</v>
+      </c>
+      <c r="F163" s="2">
+        <v>43368</v>
+      </c>
+      <c r="G163" s="2">
+        <v>43374</v>
+      </c>
+      <c r="H163" t="s">
+        <v>459</v>
       </c>
       <c r="I163" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" s="1">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="B164" s="2">
-        <v>42942</v>
+        <v>43269</v>
       </c>
       <c r="C164" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D164" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="E164" t="s">
-        <v>400</v>
+        <v>402</v>
+      </c>
+      <c r="F164" s="2">
+        <v>43259</v>
+      </c>
+      <c r="G164" s="2">
+        <v>43269</v>
+      </c>
+      <c r="H164" t="s">
+        <v>359</v>
       </c>
       <c r="I164" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="165" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" s="1">
-        <v>140</v>
-      </c>
-      <c r="B165" s="2">
-        <v>43374</v>
+        <v>206</v>
       </c>
       <c r="C165" t="s">
-        <v>163</v>
-      </c>
-      <c r="D165" t="s">
-        <v>357</v>
+        <v>166</v>
       </c>
       <c r="E165" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="F165" s="2">
-        <v>43368</v>
+        <v>43921</v>
       </c>
       <c r="G165" s="2">
-        <v>43374</v>
+        <v>43927</v>
       </c>
       <c r="H165" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="I165" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
     </row>
     <row r="166" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" s="1">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="B166" s="2">
-        <v>43269</v>
+        <v>42979</v>
       </c>
       <c r="C166" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D166" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="E166" t="s">
         <v>401</v>
       </c>
       <c r="F166" s="2">
-        <v>43259</v>
+        <v>42971</v>
       </c>
       <c r="G166" s="2">
-        <v>43269</v>
+        <v>42979</v>
       </c>
       <c r="H166" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="I166" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="167" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" s="1">
-        <v>208</v>
+        <v>156</v>
+      </c>
+      <c r="B167" s="2">
+        <v>43467</v>
       </c>
       <c r="C167" t="s">
-        <v>165</v>
+        <v>168</v>
+      </c>
+      <c r="D167" t="s">
+        <v>361</v>
       </c>
       <c r="E167" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F167" s="2">
-        <v>43921</v>
+        <v>43461</v>
       </c>
       <c r="G167" s="2">
-        <v>43927</v>
+        <v>43467</v>
       </c>
       <c r="H167" t="s">
-        <v>460</v>
+        <v>361</v>
       </c>
       <c r="I167" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A168" s="1">
+        <v>60</v>
+      </c>
+      <c r="B168" s="2">
+        <v>42794</v>
+      </c>
+      <c r="C168" t="s">
+        <v>169</v>
+      </c>
+      <c r="D168" t="s">
+        <v>362</v>
+      </c>
+      <c r="E168" t="s">
+        <v>402</v>
+      </c>
+      <c r="I168" t="s">
         <v>476</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A168" s="1">
-        <v>104</v>
-      </c>
-      <c r="B168" s="2">
-        <v>42979</v>
-      </c>
-      <c r="C168" t="s">
-        <v>166</v>
-      </c>
-      <c r="D168" t="s">
-        <v>359</v>
-      </c>
-      <c r="E168" t="s">
-        <v>400</v>
-      </c>
-      <c r="F168" s="2">
-        <v>42971</v>
-      </c>
-      <c r="G168" s="2">
-        <v>42979</v>
-      </c>
-      <c r="H168" t="s">
-        <v>359</v>
-      </c>
-      <c r="I168" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="169" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" s="1">
-        <v>156</v>
+        <v>115</v>
       </c>
       <c r="B169" s="2">
-        <v>43467</v>
+        <v>43178</v>
       </c>
       <c r="C169" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D169" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="E169" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F169" s="2">
-        <v>43461</v>
+        <v>43168</v>
       </c>
       <c r="G169" s="2">
-        <v>43467</v>
+        <v>43178</v>
       </c>
       <c r="H169" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="I169" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" s="1">
-        <v>60</v>
+        <v>117</v>
       </c>
       <c r="B170" s="2">
-        <v>42794</v>
+        <v>43178</v>
       </c>
       <c r="C170" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="D170" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="E170" t="s">
         <v>401</v>
+      </c>
+      <c r="F170" s="2">
+        <v>43168</v>
+      </c>
+      <c r="G170" s="2">
+        <v>43178</v>
+      </c>
+      <c r="H170" t="s">
+        <v>461</v>
       </c>
       <c r="I170" t="s">
         <v>475</v>
@@ -6310,135 +6331,135 @@
     </row>
     <row r="171" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" s="1">
-        <v>115</v>
+        <v>28</v>
       </c>
       <c r="B171" s="2">
-        <v>43178</v>
+        <v>42503</v>
       </c>
       <c r="C171" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="D171" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="E171" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F171" s="2">
-        <v>43168</v>
+        <v>42500</v>
       </c>
       <c r="G171" s="2">
-        <v>43178</v>
+        <v>42502</v>
       </c>
       <c r="H171" t="s">
-        <v>362</v>
+        <v>462</v>
       </c>
       <c r="I171" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="172" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" s="1">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="B172" s="2">
-        <v>43178</v>
+        <v>43166</v>
       </c>
       <c r="C172" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D172" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="E172" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="F172" s="2">
-        <v>43168</v>
+        <v>43161</v>
       </c>
       <c r="G172" s="2">
-        <v>43178</v>
+        <v>43166</v>
       </c>
       <c r="H172" t="s">
-        <v>461</v>
+        <v>366</v>
       </c>
       <c r="I172" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" s="1">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="B173" s="2">
-        <v>42503</v>
+        <v>42810</v>
       </c>
       <c r="C173" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D173" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="E173" t="s">
         <v>401</v>
       </c>
-      <c r="F173" s="2">
-        <v>42500</v>
-      </c>
-      <c r="G173" s="2">
-        <v>42502</v>
-      </c>
-      <c r="H173" t="s">
-        <v>462</v>
-      </c>
       <c r="I173" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="174" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" s="1">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B174" s="2">
-        <v>43166</v>
+        <v>42996</v>
       </c>
       <c r="C174" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D174" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="E174" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F174" s="2">
-        <v>43161</v>
+        <v>42986</v>
       </c>
       <c r="G174" s="2">
-        <v>43166</v>
+        <v>42996</v>
       </c>
       <c r="H174" t="s">
-        <v>365</v>
+        <v>463</v>
       </c>
       <c r="I174" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" s="1">
-        <v>68</v>
+        <v>151</v>
       </c>
       <c r="B175" s="2">
-        <v>42810</v>
+        <v>43437</v>
       </c>
       <c r="C175" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D175" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="E175" t="s">
-        <v>400</v>
+        <v>402</v>
+      </c>
+      <c r="F175" s="2">
+        <v>43430</v>
+      </c>
+      <c r="G175" s="2">
+        <v>43437</v>
+      </c>
+      <c r="H175" t="s">
+        <v>369</v>
       </c>
       <c r="I175" t="s">
         <v>475</v>
@@ -6446,213 +6467,222 @@
     </row>
     <row r="176" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A176" s="1">
-        <v>106</v>
+        <v>194</v>
       </c>
       <c r="B176" s="2">
-        <v>42996</v>
+        <v>43822</v>
       </c>
       <c r="C176" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D176" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="E176" t="s">
         <v>401</v>
       </c>
       <c r="F176" s="2">
-        <v>42986</v>
+        <v>43812</v>
       </c>
       <c r="G176" s="2">
-        <v>42996</v>
+        <v>43822</v>
       </c>
       <c r="H176" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="I176" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="177" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" s="1">
-        <v>151</v>
+        <v>188</v>
       </c>
       <c r="B177" s="2">
-        <v>43437</v>
+        <v>43808</v>
       </c>
       <c r="C177" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D177" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="E177" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F177" s="2">
-        <v>43430</v>
+        <v>43801</v>
       </c>
       <c r="G177" s="2">
-        <v>43437</v>
+        <v>43808</v>
       </c>
       <c r="H177" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="I177" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="178" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" s="1">
-        <v>194</v>
+        <v>58</v>
       </c>
       <c r="B178" s="2">
-        <v>43822</v>
+        <v>42740</v>
       </c>
       <c r="C178" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D178" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="E178" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="F178" s="2">
-        <v>43812</v>
+        <v>42738</v>
       </c>
       <c r="G178" s="2">
-        <v>43822</v>
+        <v>42739</v>
       </c>
       <c r="H178" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="I178" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="179" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" s="1">
-        <v>188</v>
+        <v>76</v>
       </c>
       <c r="B179" s="2">
-        <v>43808</v>
+        <v>42829</v>
       </c>
       <c r="C179" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D179" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="E179" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F179" s="2">
-        <v>43801</v>
+        <v>42822</v>
       </c>
       <c r="G179" s="2">
-        <v>43808</v>
+        <v>42829</v>
       </c>
       <c r="H179" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="I179" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A180" s="1">
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="B180" s="2">
-        <v>42740</v>
+        <v>42905</v>
       </c>
       <c r="C180" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D180" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="E180" t="s">
-        <v>401</v>
+        <v>402</v>
+      </c>
+      <c r="F180" s="2">
+        <v>42895</v>
+      </c>
+      <c r="G180" s="2">
+        <v>42905</v>
+      </c>
+      <c r="H180" t="s">
+        <v>466</v>
       </c>
       <c r="I180" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="181" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" s="1">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="B181" s="2">
-        <v>42829</v>
+        <v>42524</v>
       </c>
       <c r="C181" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D181" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="E181" t="s">
         <v>401</v>
       </c>
-      <c r="F181" s="2">
-        <v>42822</v>
-      </c>
-      <c r="G181" s="2">
-        <v>42829</v>
-      </c>
-      <c r="H181" t="s">
-        <v>372</v>
-      </c>
       <c r="I181" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="182" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" s="1">
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="B182" s="2">
-        <v>42905</v>
+        <v>42552</v>
       </c>
       <c r="C182" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="D182" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="E182" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F182" s="2">
-        <v>42895</v>
+        <v>42544</v>
       </c>
       <c r="G182" s="2">
-        <v>42905</v>
+        <v>42551</v>
       </c>
       <c r="H182" t="s">
-        <v>465</v>
+        <v>376</v>
       </c>
       <c r="I182" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A183" s="1">
-        <v>36</v>
+        <v>157</v>
       </c>
       <c r="B183" s="2">
-        <v>42524</v>
+        <v>43483</v>
       </c>
       <c r="C183" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D183" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="E183" t="s">
-        <v>400</v>
+        <v>401</v>
+      </c>
+      <c r="F183" s="2">
+        <v>43480</v>
+      </c>
+      <c r="G183" s="2">
+        <v>43483</v>
+      </c>
+      <c r="H183" t="s">
+        <v>377</v>
       </c>
       <c r="I183" t="s">
         <v>475</v>
@@ -6660,329 +6690,323 @@
     </row>
     <row r="184" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A184" s="1">
-        <v>40</v>
+        <v>79</v>
       </c>
       <c r="B184" s="2">
-        <v>42552</v>
+        <v>42888</v>
       </c>
       <c r="C184" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="D184" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="E184" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F184" s="2">
-        <v>42544</v>
+        <v>42879</v>
       </c>
       <c r="G184" s="2">
-        <v>42551</v>
+        <v>42888</v>
       </c>
       <c r="H184" t="s">
-        <v>375</v>
+        <v>467</v>
       </c>
       <c r="I184" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="185" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A185" s="1">
-        <v>157</v>
+        <v>21</v>
       </c>
       <c r="B185" s="2">
-        <v>43483</v>
+        <v>42478</v>
       </c>
       <c r="C185" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="D185" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="E185" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="F185" s="2">
-        <v>43480</v>
+        <v>42467</v>
       </c>
       <c r="G185" s="2">
-        <v>43483</v>
+        <v>42475</v>
       </c>
       <c r="H185" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="I185" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="186" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A186" s="1">
-        <v>79</v>
+        <v>171</v>
       </c>
       <c r="B186" s="2">
-        <v>42888</v>
+        <v>43661</v>
       </c>
       <c r="C186" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D186" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="E186" t="s">
         <v>401</v>
       </c>
       <c r="F186" s="2">
-        <v>42879</v>
+        <v>43655</v>
       </c>
       <c r="G186" s="2">
-        <v>42888</v>
+        <v>43661</v>
       </c>
       <c r="H186" t="s">
-        <v>466</v>
+        <v>380</v>
       </c>
       <c r="I186" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="187" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A187" s="1">
-        <v>21</v>
+        <v>192</v>
       </c>
       <c r="B187" s="2">
-        <v>42478</v>
+        <v>43822</v>
       </c>
       <c r="C187" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="D187" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="E187" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F187" s="2">
-        <v>42467</v>
+        <v>43812</v>
       </c>
       <c r="G187" s="2">
-        <v>42475</v>
+        <v>43822</v>
       </c>
       <c r="H187" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="I187" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A188" s="1">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="B188" s="2">
-        <v>43661</v>
+        <v>43731</v>
       </c>
       <c r="C188" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D188" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="E188" t="s">
-        <v>400</v>
-      </c>
-      <c r="F188" s="2">
-        <v>43655</v>
-      </c>
-      <c r="G188" s="2">
-        <v>43661</v>
-      </c>
-      <c r="H188" t="s">
-        <v>379</v>
+        <v>402</v>
       </c>
       <c r="I188" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="189" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A189" s="1">
-        <v>192</v>
+        <v>116</v>
       </c>
       <c r="B189" s="2">
-        <v>43822</v>
+        <v>43178</v>
       </c>
       <c r="C189" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="D189" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="E189" t="s">
         <v>401</v>
       </c>
       <c r="F189" s="2">
-        <v>43812</v>
+        <v>43168</v>
       </c>
       <c r="G189" s="2">
-        <v>43822</v>
+        <v>43178</v>
       </c>
       <c r="H189" t="s">
-        <v>380</v>
+        <v>468</v>
       </c>
       <c r="I189" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A190" s="1">
-        <v>178</v>
-      </c>
-      <c r="B190" s="2">
-        <v>43731</v>
+        <v>195</v>
       </c>
       <c r="C190" t="s">
-        <v>188</v>
-      </c>
-      <c r="D190" t="s">
-        <v>381</v>
+        <v>191</v>
       </c>
       <c r="E190" t="s">
         <v>401</v>
       </c>
+      <c r="F190" s="2">
+        <v>42366</v>
+      </c>
+      <c r="G190" s="2">
+        <v>42373</v>
+      </c>
+      <c r="H190" t="s">
+        <v>395</v>
+      </c>
       <c r="I190" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row r="191" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A191" s="1">
-        <v>116</v>
+        <v>30</v>
       </c>
       <c r="B191" s="2">
-        <v>43178</v>
+        <v>42508</v>
       </c>
       <c r="C191" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D191" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="E191" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="F191" s="2">
-        <v>43168</v>
+        <v>42503</v>
       </c>
       <c r="G191" s="2">
-        <v>43178</v>
+        <v>42507</v>
       </c>
       <c r="H191" t="s">
-        <v>467</v>
+        <v>384</v>
       </c>
       <c r="I191" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="192" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A192" s="1">
-        <v>30</v>
+        <v>126</v>
       </c>
       <c r="B192" s="2">
-        <v>42508</v>
+        <v>43258</v>
       </c>
       <c r="C192" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="D192" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="E192" t="s">
         <v>401</v>
       </c>
       <c r="F192" s="2">
-        <v>42503</v>
+        <v>43255</v>
       </c>
       <c r="G192" s="2">
-        <v>42507</v>
+        <v>43258</v>
       </c>
       <c r="H192" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="I192" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="193" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A193" s="1">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="B193" s="2">
-        <v>43258</v>
+        <v>43271</v>
       </c>
       <c r="C193" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="D193" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="E193" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="F193" s="2">
-        <v>43255</v>
+        <v>43266</v>
       </c>
       <c r="G193" s="2">
-        <v>43258</v>
+        <v>43271</v>
       </c>
       <c r="H193" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="I193" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="194" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A194" s="1">
-        <v>131</v>
+        <v>20</v>
       </c>
       <c r="B194" s="2">
-        <v>43271</v>
+        <v>42468</v>
       </c>
       <c r="C194" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="D194" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="E194" t="s">
         <v>401</v>
       </c>
-      <c r="F194" s="2">
-        <v>43266</v>
-      </c>
-      <c r="G194" s="2">
-        <v>43271</v>
-      </c>
-      <c r="H194" t="s">
-        <v>385</v>
-      </c>
       <c r="I194" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A195" s="1">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B195" s="2">
-        <v>42468</v>
+        <v>42436</v>
       </c>
       <c r="C195" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="D195" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="E195" t="s">
-        <v>400</v>
+        <v>401</v>
+      </c>
+      <c r="F195" s="2">
+        <v>42432</v>
+      </c>
+      <c r="G195" s="2">
+        <v>42433</v>
+      </c>
+      <c r="H195" t="s">
+        <v>196</v>
       </c>
       <c r="I195" t="s">
         <v>475</v>
@@ -6990,77 +7014,77 @@
     </row>
     <row r="196" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A196" s="1">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B196" s="2">
-        <v>42436</v>
+        <v>42478</v>
       </c>
       <c r="C196" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="D196" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="E196" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F196" s="2">
-        <v>42432</v>
+        <v>42467</v>
       </c>
       <c r="G196" s="2">
-        <v>42433</v>
+        <v>42475</v>
       </c>
       <c r="H196" t="s">
-        <v>194</v>
+        <v>469</v>
       </c>
       <c r="I196" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="197" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A197" s="1">
-        <v>22</v>
+        <v>74</v>
       </c>
       <c r="B197" s="2">
-        <v>42478</v>
+        <v>42814</v>
       </c>
       <c r="C197" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D197" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="E197" t="s">
-        <v>400</v>
-      </c>
-      <c r="F197" s="2">
-        <v>42467</v>
-      </c>
-      <c r="G197" s="2">
-        <v>42475</v>
-      </c>
-      <c r="H197" t="s">
-        <v>468</v>
+        <v>402</v>
       </c>
       <c r="I197" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A198" s="1">
-        <v>74</v>
+        <v>185</v>
       </c>
       <c r="B198" s="2">
-        <v>42814</v>
+        <v>43804</v>
       </c>
       <c r="C198" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="D198" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="E198" t="s">
-        <v>401</v>
+        <v>402</v>
+      </c>
+      <c r="F198" s="2">
+        <v>43796</v>
+      </c>
+      <c r="G198" s="2">
+        <v>43804</v>
+      </c>
+      <c r="H198" t="s">
+        <v>391</v>
       </c>
       <c r="I198" t="s">
         <v>475</v>
@@ -7068,158 +7092,158 @@
     </row>
     <row r="199" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A199" s="1">
-        <v>185</v>
+        <v>161</v>
       </c>
       <c r="B199" s="2">
-        <v>43804</v>
+        <v>43523</v>
       </c>
       <c r="C199" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="D199" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="E199" t="s">
         <v>401</v>
       </c>
       <c r="F199" s="2">
-        <v>43796</v>
+        <v>43517</v>
       </c>
       <c r="G199" s="2">
-        <v>43804</v>
+        <v>43523</v>
       </c>
       <c r="H199" t="s">
-        <v>390</v>
+        <v>470</v>
       </c>
       <c r="I199" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="200" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A200" s="1">
-        <v>161</v>
+        <v>138</v>
       </c>
       <c r="B200" s="2">
-        <v>43523</v>
+        <v>43357</v>
       </c>
       <c r="C200" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D200" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="E200" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F200" s="2">
-        <v>43517</v>
+        <v>43354</v>
       </c>
       <c r="G200" s="2">
-        <v>43523</v>
+        <v>43360</v>
       </c>
       <c r="H200" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="I200" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="201" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A201" s="1">
-        <v>138</v>
-      </c>
-      <c r="B201" s="2">
-        <v>43357</v>
+        <v>201</v>
       </c>
       <c r="C201" t="s">
-        <v>199</v>
-      </c>
-      <c r="D201" t="s">
-        <v>392</v>
+        <v>201</v>
       </c>
       <c r="E201" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="F201" s="2">
-        <v>43354</v>
+        <v>43852</v>
       </c>
       <c r="G201" s="2">
-        <v>43360</v>
+        <v>43858</v>
       </c>
       <c r="H201" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="I201" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
     </row>
     <row r="202" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A202" s="1">
+        <v>101</v>
+      </c>
+      <c r="B202" s="2">
+        <v>42976</v>
+      </c>
+      <c r="C202" t="s">
+        <v>202</v>
+      </c>
+      <c r="D202" t="s">
+        <v>394</v>
+      </c>
+      <c r="E202" t="s">
+        <v>402</v>
+      </c>
+      <c r="F202" s="2">
+        <v>42971</v>
+      </c>
+      <c r="G202" s="2">
+        <v>42976</v>
+      </c>
+      <c r="H202" t="s">
+        <v>394</v>
+      </c>
+      <c r="I202" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A203" s="1">
+        <v>1</v>
+      </c>
+      <c r="B203" s="2">
+        <v>42374</v>
+      </c>
+      <c r="C203" t="s">
         <v>203</v>
       </c>
-      <c r="C202" t="s">
-        <v>199</v>
-      </c>
-      <c r="E202" t="s">
-        <v>401</v>
-      </c>
-      <c r="F202" s="2">
-        <v>43852</v>
-      </c>
-      <c r="G202" s="2">
-        <v>43858</v>
-      </c>
-      <c r="H202" t="s">
-        <v>470</v>
-      </c>
-      <c r="I202" t="s">
+      <c r="D203" t="s">
+        <v>395</v>
+      </c>
+      <c r="E203" t="s">
+        <v>401</v>
+      </c>
+      <c r="I203" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="203" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A203" s="1">
-        <v>101</v>
-      </c>
-      <c r="B203" s="2">
-        <v>42976</v>
-      </c>
-      <c r="C203" t="s">
-        <v>200</v>
-      </c>
-      <c r="D203" t="s">
-        <v>393</v>
-      </c>
-      <c r="E203" t="s">
-        <v>401</v>
-      </c>
-      <c r="F203" s="2">
-        <v>42971</v>
-      </c>
-      <c r="G203" s="2">
-        <v>42976</v>
-      </c>
-      <c r="H203" t="s">
-        <v>393</v>
-      </c>
-      <c r="I203" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="204" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A204" s="1">
-        <v>1</v>
+        <v>186</v>
       </c>
       <c r="B204" s="2">
-        <v>42374</v>
+        <v>43804</v>
       </c>
       <c r="C204" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D204" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="E204" t="s">
-        <v>400</v>
+        <v>401</v>
+      </c>
+      <c r="F204" s="2">
+        <v>43796</v>
+      </c>
+      <c r="G204" s="2">
+        <v>43804</v>
+      </c>
+      <c r="H204" t="s">
+        <v>472</v>
       </c>
       <c r="I204" t="s">
         <v>475</v>
@@ -7227,200 +7251,149 @@
     </row>
     <row r="205" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A205" s="1">
-        <v>186</v>
+        <v>122</v>
       </c>
       <c r="B205" s="2">
-        <v>43804</v>
+        <v>43251</v>
       </c>
       <c r="C205" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D205" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="E205" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="F205" s="2">
-        <v>43796</v>
+        <v>43245</v>
       </c>
       <c r="G205" s="2">
-        <v>43804</v>
+        <v>43251</v>
       </c>
       <c r="H205" t="s">
-        <v>471</v>
+        <v>397</v>
       </c>
       <c r="I205" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="206" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A206" s="1">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="C206" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="E206" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="F206" s="2">
-        <v>42366</v>
+        <v>43888</v>
       </c>
       <c r="G206" s="2">
-        <v>42373</v>
+        <v>43893</v>
       </c>
       <c r="H206" t="s">
-        <v>394</v>
+        <v>473</v>
       </c>
       <c r="I206" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="207" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A207" s="1">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="B207" s="2">
-        <v>43251</v>
+        <v>43357</v>
       </c>
       <c r="C207" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D207" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="E207" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F207" s="2">
-        <v>43245</v>
+        <v>43354</v>
       </c>
       <c r="G207" s="2">
-        <v>43251</v>
+        <v>43360</v>
       </c>
       <c r="H207" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="I207" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="208" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A208" s="1">
-        <v>205</v>
+        <v>86</v>
+      </c>
+      <c r="B208" s="2">
+        <v>42905</v>
       </c>
       <c r="C208" t="s">
-        <v>205</v>
+        <v>208</v>
+      </c>
+      <c r="D208" t="s">
+        <v>399</v>
       </c>
       <c r="E208" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F208" s="2">
-        <v>43888</v>
+        <v>42895</v>
       </c>
       <c r="G208" s="2">
-        <v>43893</v>
+        <v>42905</v>
       </c>
       <c r="H208" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="I208" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="209" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A209" s="1">
-        <v>137</v>
+        <v>193</v>
       </c>
       <c r="B209" s="2">
-        <v>43357</v>
+        <v>43822</v>
       </c>
       <c r="C209" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D209" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="E209" t="s">
         <v>401</v>
       </c>
       <c r="F209" s="2">
-        <v>43354</v>
+        <v>43812</v>
       </c>
       <c r="G209" s="2">
-        <v>43360</v>
+        <v>43822</v>
       </c>
       <c r="H209" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="I209" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="210" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A210" s="1">
-        <v>86</v>
-      </c>
-      <c r="B210" s="2">
-        <v>42905</v>
-      </c>
-      <c r="C210" t="s">
-        <v>207</v>
-      </c>
-      <c r="D210" t="s">
-        <v>398</v>
-      </c>
-      <c r="E210" t="s">
-        <v>401</v>
-      </c>
-      <c r="F210" s="2">
-        <v>42895</v>
-      </c>
-      <c r="G210" s="2">
-        <v>42905</v>
-      </c>
-      <c r="H210" t="s">
-        <v>473</v>
-      </c>
-      <c r="I210" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="211" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A211" s="1">
-        <v>193</v>
-      </c>
-      <c r="B211" s="2">
-        <v>43822</v>
-      </c>
-      <c r="C211" t="s">
-        <v>208</v>
-      </c>
-      <c r="D211" t="s">
-        <v>399</v>
-      </c>
-      <c r="E211" t="s">
-        <v>400</v>
-      </c>
-      <c r="F211" s="2">
-        <v>43812</v>
-      </c>
-      <c r="G211" s="2">
-        <v>43822</v>
-      </c>
-      <c r="H211" t="s">
-        <v>399</v>
-      </c>
-      <c r="I211" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I211" xr:uid="{50F160A5-CD43-4417-99AD-E894BADFB156}">
+  <autoFilter ref="A1:I209" xr:uid="{2727319D-1493-4119-9E13-1ACCB9CBC3C7}">
     <filterColumn colId="8">
       <filters>
         <filter val="left_only"/>
+        <filter val="right_only"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/sp500-historical-components-and-changes/outer_join.xlsx
+++ b/sp500-historical-components-and-changes/outer_join.xlsx
@@ -1,29 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22624"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yingchen\Documents\GitHub\analyzingalpha\sp500-historical-components-and-changes\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B34A7A6-DE22-4164-A612-D74182EAA9BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="18276" windowHeight="10992" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$209</definedName>
-  </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="983" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="477">
   <si>
     <t>effective_date_x</t>
   </si>
@@ -190,9 +181,6 @@
     <t>CPRT</t>
   </si>
   <si>
-    <t>CRAY</t>
-  </si>
-  <si>
     <t>CSC</t>
   </si>
   <si>
@@ -1288,37 +1276,37 @@
     <t>Coty</t>
   </si>
   <si>
+    <t>Computer Sciences</t>
+  </si>
+  <si>
+    <t>DISH Network</t>
+  </si>
+  <si>
+    <t>Digital Realty Trust</t>
+  </si>
+  <si>
+    <t>Dow</t>
+  </si>
+  <si>
+    <t>Dr Pepper Snapple</t>
+  </si>
+  <si>
+    <t>Express Scripts Holding</t>
+  </si>
+  <si>
+    <t>Fluor</t>
+  </si>
+  <si>
+    <t>Twenty-First Century Fox</t>
+  </si>
+  <si>
+    <t>Fox</t>
+  </si>
+  <si>
+    <t>First Republic</t>
+  </si>
+  <si>
     <t>Federal Realty Trust</t>
-  </si>
-  <si>
-    <t>Computer Sciences</t>
-  </si>
-  <si>
-    <t>DISH Network</t>
-  </si>
-  <si>
-    <t>Digital Realty Trust</t>
-  </si>
-  <si>
-    <t>Dow</t>
-  </si>
-  <si>
-    <t>Dr Pepper Snapple</t>
-  </si>
-  <si>
-    <t>Express Scripts Holding</t>
-  </si>
-  <si>
-    <t>Fluor</t>
-  </si>
-  <si>
-    <t>Twenty-First Century Fox</t>
-  </si>
-  <si>
-    <t>Fox</t>
-  </si>
-  <si>
-    <t>First Republic</t>
   </si>
   <si>
     <t>Fortive</t>
@@ -1462,11 +1450,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1530,14 +1518,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1584,7 +1564,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1616,27 +1596,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1668,24 +1630,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1861,22 +1805,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:I209"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I208"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <cols>
-    <col min="2" max="2" width="17.41796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.83984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.41796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.5234375" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1902,7 +1838,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:9">
       <c r="A2" s="1">
         <v>121</v>
       </c>
@@ -1913,10 +1849,10 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F2" s="2">
         <v>43245</v>
@@ -1925,13 +1861,13 @@
         <v>43251</v>
       </c>
       <c r="H2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="I2" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1">
         <v>26</v>
       </c>
@@ -1942,16 +1878,16 @@
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="I3" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1">
         <v>147</v>
       </c>
@@ -1962,10 +1898,10 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E4" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F4" s="2">
         <v>43430</v>
@@ -1974,13 +1910,13 @@
         <v>43437</v>
       </c>
       <c r="H4" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I4" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1">
         <v>34</v>
       </c>
@@ -1991,10 +1927,10 @@
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E5" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F5" s="2">
         <v>42514</v>
@@ -2003,13 +1939,13 @@
         <v>42517</v>
       </c>
       <c r="H5" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="I5" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1">
         <v>42</v>
       </c>
@@ -2020,10 +1956,10 @@
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F6" s="2">
         <v>42544</v>
@@ -2032,13 +1968,13 @@
         <v>42551</v>
       </c>
       <c r="H6" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="I6" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1">
         <v>84</v>
       </c>
@@ -2049,10 +1985,10 @@
         <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E7" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F7" s="2">
         <v>42895</v>
@@ -2061,13 +1997,13 @@
         <v>42905</v>
       </c>
       <c r="H7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I7" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1">
         <v>27</v>
       </c>
@@ -2078,10 +2014,10 @@
         <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E8" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F8" s="2">
         <v>42500</v>
@@ -2090,13 +2026,13 @@
         <v>42502</v>
       </c>
       <c r="H8" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="I8" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1">
         <v>73</v>
       </c>
@@ -2107,16 +2043,16 @@
         <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E9" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="I9" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1">
         <v>189</v>
       </c>
@@ -2127,10 +2063,10 @@
         <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E10" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F10" s="2">
         <v>43812</v>
@@ -2139,13 +2075,13 @@
         <v>43822</v>
       </c>
       <c r="H10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I10" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1">
         <v>99</v>
       </c>
@@ -2156,10 +2092,10 @@
         <v>17</v>
       </c>
       <c r="D11" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F11" s="2">
         <v>42947</v>
@@ -2168,13 +2104,13 @@
         <v>42955</v>
       </c>
       <c r="H11" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="I11" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1">
         <v>139</v>
       </c>
@@ -2185,10 +2121,10 @@
         <v>18</v>
       </c>
       <c r="D12" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E12" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F12" s="2">
         <v>43368</v>
@@ -2197,13 +2133,13 @@
         <v>43374</v>
       </c>
       <c r="H12" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I12" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1">
         <v>136</v>
       </c>
@@ -2214,10 +2150,10 @@
         <v>19</v>
       </c>
       <c r="D13" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E13" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F13" s="2">
         <v>43335</v>
@@ -2226,13 +2162,13 @@
         <v>43340</v>
       </c>
       <c r="H13" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I13" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1">
         <v>85</v>
       </c>
@@ -2243,10 +2179,10 @@
         <v>20</v>
       </c>
       <c r="D14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E14" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F14" s="2">
         <v>42895</v>
@@ -2255,13 +2191,13 @@
         <v>42905</v>
       </c>
       <c r="H14" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="I14" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1">
         <v>97</v>
       </c>
@@ -2272,16 +2208,16 @@
         <v>21</v>
       </c>
       <c r="D15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E15" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="I15" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1">
         <v>175</v>
       </c>
@@ -2292,10 +2228,10 @@
         <v>22</v>
       </c>
       <c r="D16" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E16" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F16" s="2">
         <v>43678</v>
@@ -2304,13 +2240,13 @@
         <v>43686</v>
       </c>
       <c r="H16" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I16" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1">
         <v>71</v>
       </c>
@@ -2321,16 +2257,16 @@
         <v>23</v>
       </c>
       <c r="D17" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E17" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="I17" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1">
         <v>31</v>
       </c>
@@ -2341,10 +2277,10 @@
         <v>24</v>
       </c>
       <c r="D18" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E18" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F18" s="2">
         <v>42508</v>
@@ -2353,13 +2289,13 @@
         <v>42510</v>
       </c>
       <c r="H18" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="I18" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1">
         <v>160</v>
       </c>
@@ -2370,10 +2306,10 @@
         <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E19" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F19" s="2">
         <v>43504</v>
@@ -2382,13 +2318,13 @@
         <v>43511</v>
       </c>
       <c r="H19" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="I19" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1">
         <v>10</v>
       </c>
@@ -2399,10 +2335,10 @@
         <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E20" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F20" s="2">
         <v>42430</v>
@@ -2411,13 +2347,13 @@
         <v>42432</v>
       </c>
       <c r="H20" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="I20" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1">
         <v>25</v>
       </c>
@@ -2428,16 +2364,16 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E21" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="I21" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1">
         <v>128</v>
       </c>
@@ -2448,10 +2384,10 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E22" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F22" s="2">
         <v>43259</v>
@@ -2460,13 +2396,13 @@
         <v>43269</v>
       </c>
       <c r="H22" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I22" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1">
         <v>94</v>
       </c>
@@ -2477,16 +2413,16 @@
         <v>28</v>
       </c>
       <c r="D23" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E23" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="I23" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1">
         <v>109</v>
       </c>
@@ -2497,10 +2433,10 @@
         <v>29</v>
       </c>
       <c r="D24" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E24" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F24" s="2">
         <v>43097</v>
@@ -2509,13 +2445,13 @@
         <v>43103</v>
       </c>
       <c r="H24" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="I24" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1">
         <v>100</v>
       </c>
@@ -2526,10 +2462,10 @@
         <v>30</v>
       </c>
       <c r="D25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E25" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F25" s="2">
         <v>42947</v>
@@ -2538,13 +2474,13 @@
         <v>42954</v>
       </c>
       <c r="H25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I25" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1">
         <v>164</v>
       </c>
@@ -2555,10 +2491,10 @@
         <v>30</v>
       </c>
       <c r="D26" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E26" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F26" s="2">
         <v>43550</v>
@@ -2567,13 +2503,13 @@
         <v>43558</v>
       </c>
       <c r="H26" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I26" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1">
         <v>167</v>
       </c>
@@ -2584,10 +2520,10 @@
         <v>31</v>
       </c>
       <c r="D27" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E27" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F27" s="2">
         <v>43619</v>
@@ -2596,13 +2532,13 @@
         <v>43623</v>
       </c>
       <c r="H27" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="I27" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1">
         <v>130</v>
       </c>
@@ -2613,10 +2549,10 @@
         <v>32</v>
       </c>
       <c r="D28" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E28" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F28" s="2">
         <v>43259</v>
@@ -2625,13 +2561,13 @@
         <v>43269</v>
       </c>
       <c r="H28" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I28" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1">
         <v>5</v>
       </c>
@@ -2642,10 +2578,10 @@
         <v>33</v>
       </c>
       <c r="D29" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E29" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F29" s="2">
         <v>42391</v>
@@ -2654,13 +2590,13 @@
         <v>42398</v>
       </c>
       <c r="H29" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="I29" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1">
         <v>35</v>
       </c>
@@ -2671,16 +2607,16 @@
         <v>34</v>
       </c>
       <c r="D30" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E30" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="I30" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1">
         <v>144</v>
       </c>
@@ -2691,10 +2627,10 @@
         <v>35</v>
       </c>
       <c r="D31" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E31" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F31" s="2">
         <v>43403</v>
@@ -2706,10 +2642,10 @@
         <v>35</v>
       </c>
       <c r="I31" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1">
         <v>18</v>
       </c>
@@ -2720,10 +2656,10 @@
         <v>36</v>
       </c>
       <c r="D32" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E32" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F32" s="2">
         <v>42457</v>
@@ -2732,21 +2668,21 @@
         <v>42461</v>
       </c>
       <c r="H32" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I32" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C33" t="s">
         <v>37</v>
       </c>
       <c r="E33" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F33" s="2">
         <v>43921</v>
@@ -2755,13 +2691,13 @@
         <v>43924</v>
       </c>
       <c r="H33" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="I33" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1">
         <v>3</v>
       </c>
@@ -2772,10 +2708,10 @@
         <v>38</v>
       </c>
       <c r="D34" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E34" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F34" s="2">
         <v>42382</v>
@@ -2784,13 +2720,13 @@
         <v>42384</v>
       </c>
       <c r="H34" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="I34" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1">
         <v>61</v>
       </c>
@@ -2801,16 +2737,16 @@
         <v>39</v>
       </c>
       <c r="D35" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E35" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="I35" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1">
         <v>33</v>
       </c>
@@ -2821,10 +2757,10 @@
         <v>40</v>
       </c>
       <c r="D36" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E36" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F36" s="2">
         <v>42514</v>
@@ -2833,13 +2769,13 @@
         <v>42517</v>
       </c>
       <c r="H36" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I36" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1">
         <v>105</v>
       </c>
@@ -2850,10 +2786,10 @@
         <v>41</v>
       </c>
       <c r="D37" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E37" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F37" s="2">
         <v>42986</v>
@@ -2862,13 +2798,13 @@
         <v>42996</v>
       </c>
       <c r="H37" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I37" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1">
         <v>177</v>
       </c>
@@ -2882,13 +2818,13 @@
         <v>42</v>
       </c>
       <c r="E38" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="I38" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1">
         <v>154</v>
       </c>
@@ -2899,10 +2835,10 @@
         <v>43</v>
       </c>
       <c r="D39" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E39" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F39" s="2">
         <v>43453</v>
@@ -2911,13 +2847,13 @@
         <v>43458</v>
       </c>
       <c r="H39" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I39" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1">
         <v>184</v>
       </c>
@@ -2928,16 +2864,16 @@
         <v>44</v>
       </c>
       <c r="D40" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E40" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="I40" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1">
         <v>7</v>
       </c>
@@ -2948,10 +2884,10 @@
         <v>45</v>
       </c>
       <c r="D41" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E41" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F41" s="2">
         <v>42395</v>
@@ -2960,13 +2896,13 @@
         <v>42398</v>
       </c>
       <c r="H41" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I41" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1">
         <v>113</v>
       </c>
@@ -2977,10 +2913,10 @@
         <v>46</v>
       </c>
       <c r="D42" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E42" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F42" s="2">
         <v>43168</v>
@@ -2989,13 +2925,13 @@
         <v>43178</v>
       </c>
       <c r="H42" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I42" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1">
         <v>48</v>
       </c>
@@ -3006,16 +2942,16 @@
         <v>47</v>
       </c>
       <c r="D43" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E43" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="I43" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1">
         <v>17</v>
       </c>
@@ -3026,16 +2962,16 @@
         <v>48</v>
       </c>
       <c r="D44" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E44" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="I44" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1">
         <v>11</v>
       </c>
@@ -3046,10 +2982,10 @@
         <v>49</v>
       </c>
       <c r="D45" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E45" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F45" s="2">
         <v>42430</v>
@@ -3058,13 +2994,13 @@
         <v>42432</v>
       </c>
       <c r="H45" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="I45" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1">
         <v>152</v>
       </c>
@@ -3075,10 +3011,10 @@
         <v>50</v>
       </c>
       <c r="D46" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E46" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F46" s="2">
         <v>43430</v>
@@ -3087,13 +3023,13 @@
         <v>43437</v>
       </c>
       <c r="H46" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I46" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1">
         <v>49</v>
       </c>
@@ -3104,16 +3040,16 @@
         <v>51</v>
       </c>
       <c r="D47" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E47" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="I47" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1">
         <v>51</v>
       </c>
@@ -3124,10 +3060,10 @@
         <v>52</v>
       </c>
       <c r="D48" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E48" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F48" s="2">
         <v>42640</v>
@@ -3136,13 +3072,13 @@
         <v>42643</v>
       </c>
       <c r="H48" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="I48" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1">
         <v>43</v>
       </c>
@@ -3153,10 +3089,10 @@
         <v>53</v>
       </c>
       <c r="D49" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E49" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F49" s="2">
         <v>42544</v>
@@ -3165,13 +3101,13 @@
         <v>42556</v>
       </c>
       <c r="H49" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I49" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1">
         <v>134</v>
       </c>
@@ -3182,10 +3118,10 @@
         <v>54</v>
       </c>
       <c r="D50" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E50" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F50" s="2">
         <v>43276</v>
@@ -3194,13 +3130,13 @@
         <v>43283</v>
       </c>
       <c r="H50" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I50" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1">
         <v>196</v>
       </c>
@@ -3208,50 +3144,47 @@
         <v>55</v>
       </c>
       <c r="E51" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F51" s="2">
-        <v>42391</v>
+        <v>42822</v>
       </c>
       <c r="G51" s="2">
-        <v>42398</v>
+        <v>42829</v>
       </c>
       <c r="H51" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="I51" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1">
-        <v>197</v>
+        <v>119</v>
+      </c>
+      <c r="B52" s="2">
+        <v>43194</v>
       </c>
       <c r="C52" t="s">
         <v>56</v>
       </c>
+      <c r="D52" t="s">
+        <v>256</v>
+      </c>
       <c r="E52" t="s">
         <v>401</v>
       </c>
-      <c r="F52" s="2">
-        <v>42822</v>
-      </c>
-      <c r="G52" s="2">
-        <v>42829</v>
-      </c>
-      <c r="H52" t="s">
-        <v>422</v>
-      </c>
       <c r="I52" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1">
-        <v>119</v>
+        <v>165</v>
       </c>
       <c r="B53" s="2">
-        <v>43194</v>
+        <v>43619</v>
       </c>
       <c r="C53" t="s">
         <v>57</v>
@@ -3260,18 +3193,27 @@
         <v>257</v>
       </c>
       <c r="E53" t="s">
-        <v>402</v>
+        <v>400</v>
+      </c>
+      <c r="F53" s="2">
+        <v>43613</v>
+      </c>
+      <c r="G53" s="2">
+        <v>43619</v>
+      </c>
+      <c r="H53" t="s">
+        <v>257</v>
       </c>
       <c r="I53" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1">
-        <v>165</v>
+        <v>38</v>
       </c>
       <c r="B54" s="2">
-        <v>43619</v>
+        <v>42543</v>
       </c>
       <c r="C54" t="s">
         <v>58</v>
@@ -3283,24 +3225,24 @@
         <v>401</v>
       </c>
       <c r="F54" s="2">
-        <v>43613</v>
+        <v>42542</v>
       </c>
       <c r="G54" s="2">
-        <v>43619</v>
+        <v>42544</v>
       </c>
       <c r="H54" t="s">
         <v>258</v>
       </c>
       <c r="I54" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="B55" s="2">
-        <v>42543</v>
+        <v>42422</v>
       </c>
       <c r="C55" t="s">
         <v>59</v>
@@ -3309,27 +3251,27 @@
         <v>259</v>
       </c>
       <c r="E55" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F55" s="2">
-        <v>42542</v>
+        <v>42416</v>
       </c>
       <c r="G55" s="2">
-        <v>42544</v>
+        <v>42419</v>
       </c>
       <c r="H55" t="s">
         <v>259</v>
       </c>
       <c r="I55" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1">
-        <v>8</v>
+        <v>103</v>
       </c>
       <c r="B56" s="2">
-        <v>42422</v>
+        <v>42979</v>
       </c>
       <c r="C56" t="s">
         <v>60</v>
@@ -3341,24 +3283,24 @@
         <v>401</v>
       </c>
       <c r="F56" s="2">
-        <v>42416</v>
+        <v>42971</v>
       </c>
       <c r="G56" s="2">
-        <v>42419</v>
+        <v>42979</v>
       </c>
       <c r="H56" t="s">
         <v>260</v>
       </c>
       <c r="I56" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1">
-        <v>103</v>
+        <v>65</v>
       </c>
       <c r="B57" s="2">
-        <v>42979</v>
+        <v>42807</v>
       </c>
       <c r="C57" t="s">
         <v>61</v>
@@ -3367,27 +3309,27 @@
         <v>261</v>
       </c>
       <c r="E57" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F57" s="2">
-        <v>42971</v>
+        <v>42800</v>
       </c>
       <c r="G57" s="2">
-        <v>42979</v>
+        <v>42807</v>
       </c>
       <c r="H57" t="s">
-        <v>261</v>
+        <v>421</v>
       </c>
       <c r="I57" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="B58" s="2">
-        <v>42807</v>
+        <v>42508</v>
       </c>
       <c r="C58" t="s">
         <v>62</v>
@@ -3396,27 +3338,27 @@
         <v>262</v>
       </c>
       <c r="E58" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F58" s="2">
-        <v>42800</v>
+        <v>42503</v>
       </c>
       <c r="G58" s="2">
-        <v>42807</v>
+        <v>42507</v>
       </c>
       <c r="H58" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="I58" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1">
-        <v>29</v>
+        <v>78</v>
       </c>
       <c r="B59" s="2">
-        <v>42508</v>
+        <v>42830</v>
       </c>
       <c r="C59" t="s">
         <v>63</v>
@@ -3428,24 +3370,24 @@
         <v>401</v>
       </c>
       <c r="F59" s="2">
-        <v>42503</v>
+        <v>42823</v>
       </c>
       <c r="G59" s="2">
-        <v>42507</v>
+        <v>42830</v>
       </c>
       <c r="H59" t="s">
-        <v>424</v>
+        <v>263</v>
       </c>
       <c r="I59" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="B60" s="2">
-        <v>42830</v>
+        <v>42643</v>
       </c>
       <c r="C60" t="s">
         <v>64</v>
@@ -3454,27 +3396,27 @@
         <v>264</v>
       </c>
       <c r="E60" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F60" s="2">
-        <v>42823</v>
+        <v>42640</v>
       </c>
       <c r="G60" s="2">
-        <v>42830</v>
+        <v>42643</v>
       </c>
       <c r="H60" t="s">
         <v>264</v>
       </c>
       <c r="I60" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1">
-        <v>52</v>
+        <v>163</v>
       </c>
       <c r="B61" s="2">
-        <v>42643</v>
+        <v>43557</v>
       </c>
       <c r="C61" t="s">
         <v>65</v>
@@ -3483,27 +3425,27 @@
         <v>265</v>
       </c>
       <c r="E61" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F61" s="2">
-        <v>42640</v>
+        <v>43550</v>
       </c>
       <c r="G61" s="2">
-        <v>42643</v>
+        <v>43557</v>
       </c>
       <c r="H61" t="s">
-        <v>265</v>
+        <v>423</v>
       </c>
       <c r="I61" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1">
-        <v>163</v>
+        <v>133</v>
       </c>
       <c r="B62" s="2">
-        <v>43557</v>
+        <v>43283</v>
       </c>
       <c r="C62" t="s">
         <v>66</v>
@@ -3515,24 +3457,24 @@
         <v>401</v>
       </c>
       <c r="F62" s="2">
-        <v>43550</v>
+        <v>43276</v>
       </c>
       <c r="G62" s="2">
-        <v>43557</v>
+        <v>43283</v>
       </c>
       <c r="H62" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="I62" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1">
-        <v>133</v>
+        <v>98</v>
       </c>
       <c r="B63" s="2">
-        <v>43283</v>
+        <v>42942</v>
       </c>
       <c r="C63" t="s">
         <v>67</v>
@@ -3541,27 +3483,18 @@
         <v>267</v>
       </c>
       <c r="E63" t="s">
-        <v>402</v>
-      </c>
-      <c r="F63" s="2">
-        <v>43276</v>
-      </c>
-      <c r="G63" s="2">
-        <v>43283</v>
-      </c>
-      <c r="H63" t="s">
-        <v>426</v>
+        <v>400</v>
       </c>
       <c r="I63" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:9">
       <c r="A64" s="1">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="B64" s="2">
-        <v>42942</v>
+        <v>42829</v>
       </c>
       <c r="C64" t="s">
         <v>68</v>
@@ -3570,18 +3503,18 @@
         <v>268</v>
       </c>
       <c r="E64" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="I64" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="B65" s="2">
-        <v>42829</v>
+        <v>42621</v>
       </c>
       <c r="C65" t="s">
         <v>69</v>
@@ -3593,15 +3526,15 @@
         <v>401</v>
       </c>
       <c r="I65" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="B66" s="2">
-        <v>42621</v>
+        <v>42796</v>
       </c>
       <c r="C66" t="s">
         <v>70</v>
@@ -3610,18 +3543,18 @@
         <v>270</v>
       </c>
       <c r="E66" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="I66" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1">
-        <v>63</v>
+        <v>145</v>
       </c>
       <c r="B67" s="2">
-        <v>42796</v>
+        <v>43417</v>
       </c>
       <c r="C67" t="s">
         <v>71</v>
@@ -3630,18 +3563,27 @@
         <v>271</v>
       </c>
       <c r="E67" t="s">
-        <v>402</v>
+        <v>401</v>
+      </c>
+      <c r="F67" s="2">
+        <v>43411</v>
+      </c>
+      <c r="G67" s="2">
+        <v>43417</v>
+      </c>
+      <c r="H67" t="s">
+        <v>71</v>
       </c>
       <c r="I67" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="B68" s="2">
-        <v>43417</v>
+        <v>43458</v>
       </c>
       <c r="C68" t="s">
         <v>72</v>
@@ -3650,27 +3592,27 @@
         <v>272</v>
       </c>
       <c r="E68" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F68" s="2">
-        <v>43411</v>
+        <v>43453</v>
       </c>
       <c r="G68" s="2">
-        <v>43417</v>
+        <v>43458</v>
       </c>
       <c r="H68" t="s">
-        <v>72</v>
+        <v>425</v>
       </c>
       <c r="I68" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1">
-        <v>153</v>
+        <v>14</v>
       </c>
       <c r="B69" s="2">
-        <v>43458</v>
+        <v>42459</v>
       </c>
       <c r="C69" t="s">
         <v>73</v>
@@ -3679,27 +3621,18 @@
         <v>273</v>
       </c>
       <c r="E69" t="s">
-        <v>402</v>
-      </c>
-      <c r="F69" s="2">
-        <v>43453</v>
-      </c>
-      <c r="G69" s="2">
-        <v>43458</v>
-      </c>
-      <c r="H69" t="s">
-        <v>427</v>
+        <v>401</v>
       </c>
       <c r="I69" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:9">
       <c r="A70" s="1">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="B70" s="2">
-        <v>42459</v>
+        <v>42706</v>
       </c>
       <c r="C70" t="s">
         <v>74</v>
@@ -3708,38 +3641,47 @@
         <v>274</v>
       </c>
       <c r="E70" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="I70" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1">
-        <v>53</v>
+        <v>142</v>
       </c>
       <c r="B71" s="2">
-        <v>42706</v>
+        <v>43384</v>
       </c>
       <c r="C71" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D71" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E71" t="s">
         <v>401</v>
       </c>
+      <c r="F71" s="2">
+        <v>43377</v>
+      </c>
+      <c r="G71" s="2">
+        <v>43384</v>
+      </c>
+      <c r="H71" t="s">
+        <v>274</v>
+      </c>
       <c r="I71" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="B72" s="2">
-        <v>43384</v>
+        <v>43256</v>
       </c>
       <c r="C72" t="s">
         <v>75</v>
@@ -3748,27 +3690,18 @@
         <v>275</v>
       </c>
       <c r="E72" t="s">
-        <v>402</v>
-      </c>
-      <c r="F72" s="2">
-        <v>43377</v>
-      </c>
-      <c r="G72" s="2">
-        <v>43384</v>
-      </c>
-      <c r="H72" t="s">
-        <v>275</v>
+        <v>400</v>
       </c>
       <c r="I72" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:9">
       <c r="A73" s="1">
-        <v>123</v>
+        <v>2</v>
       </c>
       <c r="B73" s="2">
-        <v>43256</v>
+        <v>42388</v>
       </c>
       <c r="C73" t="s">
         <v>76</v>
@@ -3777,18 +3710,27 @@
         <v>276</v>
       </c>
       <c r="E73" t="s">
-        <v>401</v>
+        <v>400</v>
+      </c>
+      <c r="F73" s="2">
+        <v>42382</v>
+      </c>
+      <c r="G73" s="2">
+        <v>42384</v>
+      </c>
+      <c r="H73" t="s">
+        <v>276</v>
       </c>
       <c r="I73" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1">
-        <v>2</v>
+        <v>150</v>
       </c>
       <c r="B74" s="2">
-        <v>42388</v>
+        <v>43437</v>
       </c>
       <c r="C74" t="s">
         <v>77</v>
@@ -3797,27 +3739,27 @@
         <v>277</v>
       </c>
       <c r="E74" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F74" s="2">
-        <v>42382</v>
+        <v>43430</v>
       </c>
       <c r="G74" s="2">
-        <v>42384</v>
+        <v>43437</v>
       </c>
       <c r="H74" t="s">
         <v>277</v>
       </c>
       <c r="I74" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1">
-        <v>150</v>
+        <v>37</v>
       </c>
       <c r="B75" s="2">
-        <v>43437</v>
+        <v>42543</v>
       </c>
       <c r="C75" t="s">
         <v>78</v>
@@ -3826,27 +3768,27 @@
         <v>278</v>
       </c>
       <c r="E75" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F75" s="2">
-        <v>43430</v>
+        <v>42542</v>
       </c>
       <c r="G75" s="2">
-        <v>43437</v>
+        <v>42544</v>
       </c>
       <c r="H75" t="s">
         <v>278</v>
       </c>
       <c r="I75" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="B76" s="2">
-        <v>42543</v>
+        <v>42464</v>
       </c>
       <c r="C76" t="s">
         <v>79</v>
@@ -3855,30 +3797,30 @@
         <v>279</v>
       </c>
       <c r="E76" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F76" s="2">
-        <v>42542</v>
+        <v>42457</v>
       </c>
       <c r="G76" s="2">
-        <v>42544</v>
+        <v>42461</v>
       </c>
       <c r="H76" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="I76" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1">
-        <v>19</v>
+        <v>173</v>
       </c>
       <c r="B77" s="2">
-        <v>42464</v>
+        <v>43686</v>
       </c>
       <c r="C77" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D77" t="s">
         <v>280</v>
@@ -3887,24 +3829,24 @@
         <v>401</v>
       </c>
       <c r="F77" s="2">
-        <v>42457</v>
+        <v>43678</v>
       </c>
       <c r="G77" s="2">
-        <v>42461</v>
+        <v>43686</v>
       </c>
       <c r="H77" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I77" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B78" s="2">
-        <v>43686</v>
+        <v>43619</v>
       </c>
       <c r="C78" t="s">
         <v>80</v>
@@ -3913,27 +3855,27 @@
         <v>281</v>
       </c>
       <c r="E78" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F78" s="2">
-        <v>43678</v>
+        <v>43613</v>
       </c>
       <c r="G78" s="2">
-        <v>43686</v>
+        <v>43620</v>
       </c>
       <c r="H78" t="s">
-        <v>281</v>
+        <v>426</v>
       </c>
       <c r="I78" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1">
-        <v>166</v>
+        <v>132</v>
       </c>
       <c r="B79" s="2">
-        <v>43619</v>
+        <v>43271</v>
       </c>
       <c r="C79" t="s">
         <v>81</v>
@@ -3942,27 +3884,27 @@
         <v>282</v>
       </c>
       <c r="E79" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F79" s="2">
-        <v>43613</v>
+        <v>43266</v>
       </c>
       <c r="G79" s="2">
-        <v>43620</v>
+        <v>43271</v>
       </c>
       <c r="H79" t="s">
-        <v>428</v>
+        <v>282</v>
       </c>
       <c r="I79" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1">
-        <v>132</v>
+        <v>0</v>
       </c>
       <c r="B80" s="2">
-        <v>43271</v>
+        <v>42374</v>
       </c>
       <c r="C80" t="s">
         <v>82</v>
@@ -3974,99 +3916,99 @@
         <v>401</v>
       </c>
       <c r="F80" s="2">
-        <v>43266</v>
+        <v>42366</v>
       </c>
       <c r="G80" s="2">
-        <v>43271</v>
+        <v>42373</v>
       </c>
       <c r="H80" t="s">
         <v>283</v>
       </c>
       <c r="I80" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1">
-        <v>0</v>
-      </c>
-      <c r="B81" s="2">
-        <v>42374</v>
+        <v>198</v>
       </c>
       <c r="C81" t="s">
         <v>83</v>
       </c>
-      <c r="D81" t="s">
-        <v>284</v>
-      </c>
       <c r="E81" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F81" s="2">
-        <v>42366</v>
+        <v>43538</v>
       </c>
       <c r="G81" s="2">
-        <v>42373</v>
+        <v>43544</v>
       </c>
       <c r="H81" t="s">
-        <v>284</v>
+        <v>427</v>
       </c>
       <c r="I81" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C82" t="s">
         <v>84</v>
       </c>
       <c r="E82" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F82" s="2">
         <v>43538</v>
       </c>
       <c r="G82" s="2">
-        <v>43544</v>
+        <v>43543</v>
       </c>
       <c r="H82" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I82" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1">
-        <v>198</v>
+        <v>155</v>
+      </c>
+      <c r="B83" s="2">
+        <v>43467</v>
       </c>
       <c r="C83" t="s">
         <v>85</v>
       </c>
+      <c r="D83" t="s">
+        <v>284</v>
+      </c>
       <c r="E83" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F83" s="2">
-        <v>43538</v>
+        <v>43461</v>
       </c>
       <c r="G83" s="2">
-        <v>43543</v>
+        <v>43467</v>
       </c>
       <c r="H83" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="I83" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1">
-        <v>155</v>
+        <v>4</v>
       </c>
       <c r="B84" s="2">
-        <v>43467</v>
+        <v>42401</v>
       </c>
       <c r="C84" t="s">
         <v>86</v>
@@ -4075,27 +4017,27 @@
         <v>285</v>
       </c>
       <c r="E84" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F84" s="2">
-        <v>43461</v>
+        <v>42391</v>
       </c>
       <c r="G84" s="2">
-        <v>43467</v>
+        <v>42398</v>
       </c>
       <c r="H84" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="I84" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1">
-        <v>4</v>
+        <v>69</v>
       </c>
       <c r="B85" s="2">
-        <v>42401</v>
+        <v>42814</v>
       </c>
       <c r="C85" t="s">
         <v>87</v>
@@ -4107,15 +4049,15 @@
         <v>401</v>
       </c>
       <c r="I85" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1">
-        <v>69</v>
+        <v>141</v>
       </c>
       <c r="B86" s="2">
-        <v>42814</v>
+        <v>43384</v>
       </c>
       <c r="C86" t="s">
         <v>88</v>
@@ -4124,18 +4066,27 @@
         <v>287</v>
       </c>
       <c r="E86" t="s">
-        <v>402</v>
+        <v>400</v>
+      </c>
+      <c r="F86" s="2">
+        <v>43377</v>
+      </c>
+      <c r="G86" s="2">
+        <v>43384</v>
+      </c>
+      <c r="H86" t="s">
+        <v>287</v>
       </c>
       <c r="I86" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1">
-        <v>141</v>
+        <v>70</v>
       </c>
       <c r="B87" s="2">
-        <v>43384</v>
+        <v>42814</v>
       </c>
       <c r="C87" t="s">
         <v>89</v>
@@ -4146,25 +4097,16 @@
       <c r="E87" t="s">
         <v>401</v>
       </c>
-      <c r="F87" s="2">
-        <v>43377</v>
-      </c>
-      <c r="G87" s="2">
-        <v>43384</v>
-      </c>
-      <c r="H87" t="s">
-        <v>288</v>
-      </c>
       <c r="I87" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:9">
       <c r="A88" s="1">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="B88" s="2">
-        <v>42814</v>
+        <v>42556</v>
       </c>
       <c r="C88" t="s">
         <v>90</v>
@@ -4173,18 +4115,27 @@
         <v>289</v>
       </c>
       <c r="E88" t="s">
-        <v>402</v>
+        <v>400</v>
+      </c>
+      <c r="F88" s="2">
+        <v>42544</v>
+      </c>
+      <c r="G88" s="2">
+        <v>42552</v>
+      </c>
+      <c r="H88" t="s">
+        <v>431</v>
       </c>
       <c r="I88" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B89" s="2">
-        <v>42556</v>
+        <v>42552</v>
       </c>
       <c r="C89" t="s">
         <v>91</v>
@@ -4196,76 +4147,76 @@
         <v>401</v>
       </c>
       <c r="F89" s="2">
-        <v>42544</v>
+        <v>42550</v>
       </c>
       <c r="G89" s="2">
-        <v>42552</v>
+        <v>42551</v>
       </c>
       <c r="H89" t="s">
-        <v>432</v>
+        <v>290</v>
       </c>
       <c r="I89" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1">
-        <v>41</v>
-      </c>
-      <c r="B90" s="2">
-        <v>42552</v>
+        <v>201</v>
       </c>
       <c r="C90" t="s">
         <v>92</v>
       </c>
-      <c r="D90" t="s">
-        <v>291</v>
-      </c>
       <c r="E90" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F90" s="2">
-        <v>42550</v>
+        <v>43888</v>
       </c>
       <c r="G90" s="2">
-        <v>42551</v>
+        <v>43893</v>
       </c>
       <c r="H90" t="s">
-        <v>291</v>
+        <v>432</v>
       </c>
       <c r="I90" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1">
-        <v>202</v>
+        <v>135</v>
+      </c>
+      <c r="B91" s="2">
+        <v>43340</v>
       </c>
       <c r="C91" t="s">
         <v>93</v>
       </c>
+      <c r="D91" t="s">
+        <v>291</v>
+      </c>
       <c r="E91" t="s">
         <v>401</v>
       </c>
       <c r="F91" s="2">
-        <v>43888</v>
+        <v>43335</v>
       </c>
       <c r="G91" s="2">
-        <v>43893</v>
+        <v>43340</v>
       </c>
       <c r="H91" t="s">
-        <v>433</v>
+        <v>93</v>
       </c>
       <c r="I91" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1">
-        <v>135</v>
+        <v>12</v>
       </c>
       <c r="B92" s="2">
-        <v>43340</v>
+        <v>42436</v>
       </c>
       <c r="C92" t="s">
         <v>94</v>
@@ -4274,27 +4225,27 @@
         <v>292</v>
       </c>
       <c r="E92" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F92" s="2">
-        <v>43335</v>
+        <v>42432</v>
       </c>
       <c r="G92" s="2">
-        <v>43340</v>
+        <v>42433</v>
       </c>
       <c r="H92" t="s">
-        <v>94</v>
+        <v>292</v>
       </c>
       <c r="I92" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B93" s="2">
-        <v>42436</v>
+        <v>42485</v>
       </c>
       <c r="C93" t="s">
         <v>95</v>
@@ -4303,24 +4254,24 @@
         <v>293</v>
       </c>
       <c r="E93" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F93" s="2">
-        <v>42432</v>
+        <v>42479</v>
       </c>
       <c r="G93" s="2">
-        <v>42433</v>
+        <v>42482</v>
       </c>
       <c r="H93" t="s">
         <v>293</v>
       </c>
       <c r="I93" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B94" s="2">
         <v>42485</v>
@@ -4332,7 +4283,7 @@
         <v>294</v>
       </c>
       <c r="E94" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F94" s="2">
         <v>42479</v>
@@ -4341,18 +4292,18 @@
         <v>42482</v>
       </c>
       <c r="H94" t="s">
-        <v>294</v>
+        <v>433</v>
       </c>
       <c r="I94" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1">
-        <v>24</v>
+        <v>162</v>
       </c>
       <c r="B95" s="2">
-        <v>42485</v>
+        <v>43523</v>
       </c>
       <c r="C95" t="s">
         <v>97</v>
@@ -4364,24 +4315,24 @@
         <v>401</v>
       </c>
       <c r="F95" s="2">
-        <v>42479</v>
+        <v>43517</v>
       </c>
       <c r="G95" s="2">
-        <v>42482</v>
+        <v>43523</v>
       </c>
       <c r="H95" t="s">
         <v>434</v>
       </c>
       <c r="I95" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1">
-        <v>162</v>
+        <v>67</v>
       </c>
       <c r="B96" s="2">
-        <v>43523</v>
+        <v>42810</v>
       </c>
       <c r="C96" t="s">
         <v>98</v>
@@ -4390,27 +4341,18 @@
         <v>296</v>
       </c>
       <c r="E96" t="s">
-        <v>402</v>
-      </c>
-      <c r="F96" s="2">
-        <v>43517</v>
-      </c>
-      <c r="G96" s="2">
-        <v>43523</v>
-      </c>
-      <c r="H96" t="s">
-        <v>435</v>
+        <v>401</v>
       </c>
       <c r="I96" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:9">
       <c r="A97" s="1">
-        <v>67</v>
+        <v>129</v>
       </c>
       <c r="B97" s="2">
-        <v>42810</v>
+        <v>43269</v>
       </c>
       <c r="C97" t="s">
         <v>99</v>
@@ -4419,18 +4361,27 @@
         <v>297</v>
       </c>
       <c r="E97" t="s">
-        <v>402</v>
+        <v>400</v>
+      </c>
+      <c r="F97" s="2">
+        <v>43259</v>
+      </c>
+      <c r="G97" s="2">
+        <v>43269</v>
+      </c>
+      <c r="H97" t="s">
+        <v>297</v>
       </c>
       <c r="I97" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="B98" s="2">
-        <v>43269</v>
+        <v>43103</v>
       </c>
       <c r="C98" t="s">
         <v>100</v>
@@ -4439,27 +4390,27 @@
         <v>298</v>
       </c>
       <c r="E98" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F98" s="2">
-        <v>43259</v>
+        <v>43097</v>
       </c>
       <c r="G98" s="2">
-        <v>43269</v>
+        <v>43103</v>
       </c>
       <c r="H98" t="s">
         <v>298</v>
       </c>
       <c r="I98" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="B99" s="2">
-        <v>43103</v>
+        <v>42905</v>
       </c>
       <c r="C99" t="s">
         <v>101</v>
@@ -4468,27 +4419,27 @@
         <v>299</v>
       </c>
       <c r="E99" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F99" s="2">
-        <v>43097</v>
+        <v>42895</v>
       </c>
       <c r="G99" s="2">
-        <v>43103</v>
+        <v>42905</v>
       </c>
       <c r="H99" t="s">
-        <v>299</v>
+        <v>435</v>
       </c>
       <c r="I99" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1">
-        <v>87</v>
+        <v>16</v>
       </c>
       <c r="B100" s="2">
-        <v>42905</v>
+        <v>42459</v>
       </c>
       <c r="C100" t="s">
         <v>102</v>
@@ -4497,27 +4448,18 @@
         <v>300</v>
       </c>
       <c r="E100" t="s">
-        <v>401</v>
-      </c>
-      <c r="F100" s="2">
-        <v>42895</v>
-      </c>
-      <c r="G100" s="2">
-        <v>42905</v>
-      </c>
-      <c r="H100" t="s">
-        <v>436</v>
+        <v>400</v>
       </c>
       <c r="I100" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:9">
       <c r="A101" s="1">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="B101" s="2">
-        <v>42459</v>
+        <v>42635</v>
       </c>
       <c r="C101" t="s">
         <v>103</v>
@@ -4529,15 +4471,15 @@
         <v>401</v>
       </c>
       <c r="I101" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B102" s="2">
-        <v>42635</v>
+        <v>42740</v>
       </c>
       <c r="C102" t="s">
         <v>104</v>
@@ -4546,18 +4488,27 @@
         <v>302</v>
       </c>
       <c r="E102" t="s">
-        <v>402</v>
+        <v>400</v>
+      </c>
+      <c r="F102" s="2">
+        <v>42738</v>
+      </c>
+      <c r="G102" s="2">
+        <v>42739</v>
+      </c>
+      <c r="H102" t="s">
+        <v>436</v>
       </c>
       <c r="I102" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1">
-        <v>57</v>
+        <v>176</v>
       </c>
       <c r="B103" s="2">
-        <v>42740</v>
+        <v>43686</v>
       </c>
       <c r="C103" t="s">
         <v>105</v>
@@ -4566,27 +4517,27 @@
         <v>303</v>
       </c>
       <c r="E103" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F103" s="2">
-        <v>42738</v>
+        <v>43678</v>
       </c>
       <c r="G103" s="2">
-        <v>42739</v>
+        <v>43686</v>
       </c>
       <c r="H103" t="s">
         <v>437</v>
       </c>
       <c r="I103" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1">
-        <v>176</v>
+        <v>59</v>
       </c>
       <c r="B104" s="2">
-        <v>43686</v>
+        <v>42794</v>
       </c>
       <c r="C104" t="s">
         <v>106</v>
@@ -4595,27 +4546,18 @@
         <v>304</v>
       </c>
       <c r="E104" t="s">
-        <v>401</v>
-      </c>
-      <c r="F104" s="2">
-        <v>43678</v>
-      </c>
-      <c r="G104" s="2">
-        <v>43686</v>
-      </c>
-      <c r="H104" t="s">
-        <v>438</v>
+        <v>400</v>
       </c>
       <c r="I104" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:9">
       <c r="A105" s="1">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="B105" s="2">
-        <v>42794</v>
+        <v>42888</v>
       </c>
       <c r="C105" t="s">
         <v>107</v>
@@ -4624,18 +4566,27 @@
         <v>305</v>
       </c>
       <c r="E105" t="s">
-        <v>401</v>
+        <v>400</v>
+      </c>
+      <c r="F105" s="2">
+        <v>42879</v>
+      </c>
+      <c r="G105" s="2">
+        <v>42888</v>
+      </c>
+      <c r="H105" t="s">
+        <v>438</v>
       </c>
       <c r="I105" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="B106" s="2">
-        <v>42888</v>
+        <v>43166</v>
       </c>
       <c r="C106" t="s">
         <v>108</v>
@@ -4644,27 +4595,27 @@
         <v>306</v>
       </c>
       <c r="E106" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F106" s="2">
-        <v>42879</v>
+        <v>43161</v>
       </c>
       <c r="G106" s="2">
-        <v>42888</v>
+        <v>43166</v>
       </c>
       <c r="H106" t="s">
-        <v>439</v>
+        <v>306</v>
       </c>
       <c r="I106" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1">
-        <v>112</v>
+        <v>77</v>
       </c>
       <c r="B107" s="2">
-        <v>43166</v>
+        <v>42830</v>
       </c>
       <c r="C107" t="s">
         <v>109</v>
@@ -4673,27 +4624,27 @@
         <v>307</v>
       </c>
       <c r="E107" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F107" s="2">
-        <v>43161</v>
+        <v>42823</v>
       </c>
       <c r="G107" s="2">
-        <v>43166</v>
+        <v>42830</v>
       </c>
       <c r="H107" t="s">
-        <v>307</v>
+        <v>439</v>
       </c>
       <c r="I107" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="B108" s="2">
-        <v>42830</v>
+        <v>42619</v>
       </c>
       <c r="C108" t="s">
         <v>110</v>
@@ -4705,24 +4656,24 @@
         <v>401</v>
       </c>
       <c r="F108" s="2">
-        <v>42823</v>
+        <v>42607</v>
       </c>
       <c r="G108" s="2">
-        <v>42830</v>
+        <v>42615</v>
       </c>
       <c r="H108" t="s">
         <v>440</v>
       </c>
       <c r="I108" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1">
-        <v>46</v>
+        <v>180</v>
       </c>
       <c r="B109" s="2">
-        <v>42619</v>
+        <v>43734</v>
       </c>
       <c r="C109" t="s">
         <v>111</v>
@@ -4731,27 +4682,27 @@
         <v>309</v>
       </c>
       <c r="E109" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F109" s="2">
-        <v>42607</v>
+        <v>43728</v>
       </c>
       <c r="G109" s="2">
-        <v>42615</v>
+        <v>43734</v>
       </c>
       <c r="H109" t="s">
         <v>441</v>
       </c>
       <c r="I109" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1">
-        <v>180</v>
+        <v>146</v>
       </c>
       <c r="B110" s="2">
-        <v>43734</v>
+        <v>43417</v>
       </c>
       <c r="C110" t="s">
         <v>112</v>
@@ -4760,27 +4711,27 @@
         <v>310</v>
       </c>
       <c r="E110" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F110" s="2">
-        <v>43728</v>
+        <v>43411</v>
       </c>
       <c r="G110" s="2">
-        <v>43734</v>
+        <v>43417</v>
       </c>
       <c r="H110" t="s">
         <v>442</v>
       </c>
       <c r="I110" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="1">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B111" s="2">
-        <v>43417</v>
+        <v>43410</v>
       </c>
       <c r="C111" t="s">
         <v>113</v>
@@ -4789,27 +4740,27 @@
         <v>311</v>
       </c>
       <c r="E111" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F111" s="2">
-        <v>43411</v>
+        <v>43403</v>
       </c>
       <c r="G111" s="2">
-        <v>43417</v>
+        <v>43410</v>
       </c>
       <c r="H111" t="s">
-        <v>443</v>
+        <v>311</v>
       </c>
       <c r="I111" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="1">
-        <v>143</v>
+        <v>174</v>
       </c>
       <c r="B112" s="2">
-        <v>43410</v>
+        <v>43686</v>
       </c>
       <c r="C112" t="s">
         <v>114</v>
@@ -4818,27 +4769,27 @@
         <v>312</v>
       </c>
       <c r="E112" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F112" s="2">
-        <v>43403</v>
+        <v>43678</v>
       </c>
       <c r="G112" s="2">
-        <v>43410</v>
+        <v>43686</v>
       </c>
       <c r="H112" t="s">
         <v>312</v>
       </c>
       <c r="I112" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="1">
-        <v>174</v>
+        <v>32</v>
       </c>
       <c r="B113" s="2">
-        <v>43686</v>
+        <v>42513</v>
       </c>
       <c r="C113" t="s">
         <v>115</v>
@@ -4847,27 +4798,27 @@
         <v>313</v>
       </c>
       <c r="E113" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F113" s="2">
-        <v>43678</v>
+        <v>42508</v>
       </c>
       <c r="G113" s="2">
-        <v>43686</v>
+        <v>42510</v>
       </c>
       <c r="H113" t="s">
-        <v>313</v>
+        <v>115</v>
       </c>
       <c r="I113" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="1">
-        <v>32</v>
+        <v>170</v>
       </c>
       <c r="B114" s="2">
-        <v>42513</v>
+        <v>43647</v>
       </c>
       <c r="C114" t="s">
         <v>116</v>
@@ -4879,24 +4830,24 @@
         <v>401</v>
       </c>
       <c r="F114" s="2">
-        <v>42508</v>
+        <v>43640</v>
       </c>
       <c r="G114" s="2">
-        <v>42510</v>
+        <v>43647</v>
       </c>
       <c r="H114" t="s">
-        <v>116</v>
+        <v>314</v>
       </c>
       <c r="I114" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="1">
-        <v>170</v>
+        <v>66</v>
       </c>
       <c r="B115" s="2">
-        <v>43647</v>
+        <v>42807</v>
       </c>
       <c r="C115" t="s">
         <v>117</v>
@@ -4905,27 +4856,27 @@
         <v>315</v>
       </c>
       <c r="E115" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F115" s="2">
-        <v>43640</v>
+        <v>42800</v>
       </c>
       <c r="G115" s="2">
-        <v>43647</v>
+        <v>42807</v>
       </c>
       <c r="H115" t="s">
         <v>315</v>
       </c>
       <c r="I115" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="1">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="B116" s="2">
-        <v>42807</v>
+        <v>42706</v>
       </c>
       <c r="C116" t="s">
         <v>118</v>
@@ -4934,27 +4885,18 @@
         <v>316</v>
       </c>
       <c r="E116" t="s">
-        <v>402</v>
-      </c>
-      <c r="F116" s="2">
-        <v>42800</v>
-      </c>
-      <c r="G116" s="2">
-        <v>42807</v>
-      </c>
-      <c r="H116" t="s">
-        <v>316</v>
+        <v>401</v>
       </c>
       <c r="I116" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:9">
       <c r="A117" s="1">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="B117" s="2">
-        <v>42706</v>
+        <v>42552</v>
       </c>
       <c r="C117" t="s">
         <v>119</v>
@@ -4963,18 +4905,27 @@
         <v>317</v>
       </c>
       <c r="E117" t="s">
-        <v>402</v>
+        <v>400</v>
+      </c>
+      <c r="F117" s="2">
+        <v>42550</v>
+      </c>
+      <c r="G117" s="2">
+        <v>42551</v>
+      </c>
+      <c r="H117" t="s">
+        <v>443</v>
       </c>
       <c r="I117" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="1">
-        <v>39</v>
+        <v>108</v>
       </c>
       <c r="B118" s="2">
-        <v>42552</v>
+        <v>43021</v>
       </c>
       <c r="C118" t="s">
         <v>120</v>
@@ -4986,24 +4937,24 @@
         <v>401</v>
       </c>
       <c r="F118" s="2">
-        <v>42550</v>
+        <v>43012</v>
       </c>
       <c r="G118" s="2">
-        <v>42551</v>
+        <v>43021</v>
       </c>
       <c r="H118" t="s">
-        <v>444</v>
+        <v>318</v>
       </c>
       <c r="I118" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="1">
-        <v>108</v>
+        <v>181</v>
       </c>
       <c r="B119" s="2">
-        <v>43021</v>
+        <v>43741</v>
       </c>
       <c r="C119" t="s">
         <v>121</v>
@@ -5012,27 +4963,27 @@
         <v>319</v>
       </c>
       <c r="E119" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F119" s="2">
-        <v>43012</v>
+        <v>43734</v>
       </c>
       <c r="G119" s="2">
-        <v>43021</v>
+        <v>43741</v>
       </c>
       <c r="H119" t="s">
         <v>319</v>
       </c>
       <c r="I119" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="1">
-        <v>181</v>
+        <v>148</v>
       </c>
       <c r="B120" s="2">
-        <v>43741</v>
+        <v>43437</v>
       </c>
       <c r="C120" t="s">
         <v>122</v>
@@ -5041,27 +4992,27 @@
         <v>320</v>
       </c>
       <c r="E120" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F120" s="2">
-        <v>43734</v>
+        <v>43430</v>
       </c>
       <c r="G120" s="2">
-        <v>43741</v>
+        <v>43437</v>
       </c>
       <c r="H120" t="s">
-        <v>320</v>
+        <v>444</v>
       </c>
       <c r="I120" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" s="1">
-        <v>148</v>
+        <v>190</v>
       </c>
       <c r="B121" s="2">
-        <v>43437</v>
+        <v>43822</v>
       </c>
       <c r="C121" t="s">
         <v>123</v>
@@ -5070,79 +5021,70 @@
         <v>321</v>
       </c>
       <c r="E121" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F121" s="2">
-        <v>43430</v>
+        <v>43812</v>
       </c>
       <c r="G121" s="2">
-        <v>43437</v>
+        <v>43822</v>
       </c>
       <c r="H121" t="s">
-        <v>445</v>
+        <v>321</v>
       </c>
       <c r="I121" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" s="1">
-        <v>190</v>
-      </c>
-      <c r="B122" s="2">
-        <v>43822</v>
+        <v>206</v>
       </c>
       <c r="C122" t="s">
         <v>124</v>
       </c>
-      <c r="D122" t="s">
-        <v>322</v>
-      </c>
       <c r="E122" t="s">
         <v>401</v>
       </c>
       <c r="F122" s="2">
-        <v>43812</v>
+        <v>43921</v>
       </c>
       <c r="G122" s="2">
-        <v>43822</v>
+        <v>43927</v>
       </c>
       <c r="H122" t="s">
-        <v>322</v>
+        <v>445</v>
       </c>
       <c r="I122" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" s="1">
-        <v>207</v>
+        <v>54</v>
+      </c>
+      <c r="B123" s="2">
+        <v>42706</v>
       </c>
       <c r="C123" t="s">
         <v>125</v>
       </c>
+      <c r="D123" t="s">
+        <v>322</v>
+      </c>
       <c r="E123" t="s">
-        <v>402</v>
-      </c>
-      <c r="F123" s="2">
-        <v>43921</v>
-      </c>
-      <c r="G123" s="2">
-        <v>43927</v>
-      </c>
-      <c r="H123" t="s">
-        <v>446</v>
+        <v>400</v>
       </c>
       <c r="I123" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" s="1">
-        <v>54</v>
+        <v>191</v>
       </c>
       <c r="B124" s="2">
-        <v>42706</v>
+        <v>43822</v>
       </c>
       <c r="C124" t="s">
         <v>126</v>
@@ -5153,16 +5095,25 @@
       <c r="E124" t="s">
         <v>401</v>
       </c>
+      <c r="F124" s="2">
+        <v>43812</v>
+      </c>
+      <c r="G124" s="2">
+        <v>43822</v>
+      </c>
+      <c r="H124" t="s">
+        <v>323</v>
+      </c>
       <c r="I124" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" s="1">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="B125" s="2">
-        <v>43822</v>
+        <v>43623</v>
       </c>
       <c r="C125" t="s">
         <v>127</v>
@@ -5171,27 +5122,27 @@
         <v>324</v>
       </c>
       <c r="E125" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F125" s="2">
-        <v>43812</v>
+        <v>43619</v>
       </c>
       <c r="G125" s="2">
-        <v>43822</v>
+        <v>43623</v>
       </c>
       <c r="H125" t="s">
-        <v>324</v>
+        <v>446</v>
       </c>
       <c r="I125" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" s="1">
-        <v>168</v>
+        <v>92</v>
       </c>
       <c r="B126" s="2">
-        <v>43623</v>
+        <v>42942</v>
       </c>
       <c r="C126" t="s">
         <v>128</v>
@@ -5200,27 +5151,18 @@
         <v>325</v>
       </c>
       <c r="E126" t="s">
-        <v>402</v>
-      </c>
-      <c r="F126" s="2">
-        <v>43619</v>
-      </c>
-      <c r="G126" s="2">
-        <v>43623</v>
-      </c>
-      <c r="H126" t="s">
-        <v>447</v>
+        <v>400</v>
       </c>
       <c r="I126" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:9">
       <c r="A127" s="1">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="B127" s="2">
-        <v>42942</v>
+        <v>42905</v>
       </c>
       <c r="C127" t="s">
         <v>129</v>
@@ -5231,16 +5173,25 @@
       <c r="E127" t="s">
         <v>401</v>
       </c>
+      <c r="F127" s="2">
+        <v>42898</v>
+      </c>
+      <c r="G127" s="2">
+        <v>42905</v>
+      </c>
+      <c r="H127" t="s">
+        <v>326</v>
+      </c>
       <c r="I127" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" s="1">
-        <v>81</v>
+        <v>169</v>
       </c>
       <c r="B128" s="2">
-        <v>42905</v>
+        <v>43647</v>
       </c>
       <c r="C128" t="s">
         <v>130</v>
@@ -5249,27 +5200,27 @@
         <v>327</v>
       </c>
       <c r="E128" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F128" s="2">
-        <v>42898</v>
+        <v>43640</v>
       </c>
       <c r="G128" s="2">
-        <v>42905</v>
+        <v>43647</v>
       </c>
       <c r="H128" t="s">
-        <v>327</v>
+        <v>447</v>
       </c>
       <c r="I128" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" s="1">
-        <v>169</v>
+        <v>91</v>
       </c>
       <c r="B129" s="2">
-        <v>43647</v>
+        <v>42942</v>
       </c>
       <c r="C129" t="s">
         <v>131</v>
@@ -5280,25 +5231,16 @@
       <c r="E129" t="s">
         <v>401</v>
       </c>
-      <c r="F129" s="2">
-        <v>43640</v>
-      </c>
-      <c r="G129" s="2">
-        <v>43647</v>
-      </c>
-      <c r="H129" t="s">
-        <v>448</v>
-      </c>
       <c r="I129" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:9">
       <c r="A130" s="1">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="B130" s="2">
-        <v>42942</v>
+        <v>43258</v>
       </c>
       <c r="C130" t="s">
         <v>132</v>
@@ -5307,67 +5249,76 @@
         <v>329</v>
       </c>
       <c r="E130" t="s">
-        <v>402</v>
+        <v>401</v>
+      </c>
+      <c r="F130" s="2">
+        <v>43255</v>
+      </c>
+      <c r="G130" s="2">
+        <v>43258</v>
+      </c>
+      <c r="H130" t="s">
+        <v>329</v>
       </c>
       <c r="I130" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" s="1">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B131" s="2">
-        <v>43258</v>
+        <v>43194</v>
       </c>
       <c r="C131" t="s">
         <v>133</v>
       </c>
       <c r="D131" t="s">
-        <v>330</v>
+        <v>133</v>
       </c>
       <c r="E131" t="s">
-        <v>402</v>
-      </c>
-      <c r="F131" s="2">
-        <v>43255</v>
-      </c>
-      <c r="G131" s="2">
-        <v>43258</v>
-      </c>
-      <c r="H131" t="s">
-        <v>330</v>
+        <v>400</v>
       </c>
       <c r="I131" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:9">
       <c r="A132" s="1">
-        <v>120</v>
+        <v>45</v>
       </c>
       <c r="B132" s="2">
-        <v>43194</v>
+        <v>42619</v>
       </c>
       <c r="C132" t="s">
         <v>134</v>
       </c>
       <c r="D132" t="s">
-        <v>134</v>
+        <v>330</v>
       </c>
       <c r="E132" t="s">
-        <v>401</v>
+        <v>400</v>
+      </c>
+      <c r="F132" s="2">
+        <v>42607</v>
+      </c>
+      <c r="G132" s="2">
+        <v>42615</v>
+      </c>
+      <c r="H132" t="s">
+        <v>448</v>
       </c>
       <c r="I132" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" s="1">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="B133" s="2">
-        <v>42619</v>
+        <v>42942</v>
       </c>
       <c r="C133" t="s">
         <v>135</v>
@@ -5378,25 +5329,16 @@
       <c r="E133" t="s">
         <v>401</v>
       </c>
-      <c r="F133" s="2">
-        <v>42607</v>
-      </c>
-      <c r="G133" s="2">
-        <v>42615</v>
-      </c>
-      <c r="H133" t="s">
-        <v>449</v>
-      </c>
       <c r="I133" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:9">
       <c r="A134" s="1">
-        <v>95</v>
+        <v>149</v>
       </c>
       <c r="B134" s="2">
-        <v>42942</v>
+        <v>43437</v>
       </c>
       <c r="C134" t="s">
         <v>136</v>
@@ -5405,18 +5347,27 @@
         <v>332</v>
       </c>
       <c r="E134" t="s">
-        <v>402</v>
+        <v>400</v>
+      </c>
+      <c r="F134" s="2">
+        <v>43430</v>
+      </c>
+      <c r="G134" s="2">
+        <v>43437</v>
+      </c>
+      <c r="H134" t="s">
+        <v>449</v>
       </c>
       <c r="I134" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" s="1">
-        <v>149</v>
+        <v>124</v>
       </c>
       <c r="B135" s="2">
-        <v>43437</v>
+        <v>43256</v>
       </c>
       <c r="C135" t="s">
         <v>137</v>
@@ -5427,25 +5378,16 @@
       <c r="E135" t="s">
         <v>401</v>
       </c>
-      <c r="F135" s="2">
-        <v>43430</v>
-      </c>
-      <c r="G135" s="2">
-        <v>43437</v>
-      </c>
-      <c r="H135" t="s">
-        <v>450</v>
-      </c>
       <c r="I135" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:9">
       <c r="A136" s="1">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="B136" s="2">
-        <v>43256</v>
+        <v>43021</v>
       </c>
       <c r="C136" t="s">
         <v>138</v>
@@ -5454,18 +5396,27 @@
         <v>334</v>
       </c>
       <c r="E136" t="s">
-        <v>402</v>
+        <v>400</v>
+      </c>
+      <c r="F136" s="2">
+        <v>43012</v>
+      </c>
+      <c r="G136" s="2">
+        <v>43021</v>
+      </c>
+      <c r="H136" t="s">
+        <v>450</v>
       </c>
       <c r="I136" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137" s="1">
-        <v>107</v>
+        <v>159</v>
       </c>
       <c r="B137" s="2">
-        <v>43021</v>
+        <v>43511</v>
       </c>
       <c r="C137" t="s">
         <v>139</v>
@@ -5477,24 +5428,24 @@
         <v>401</v>
       </c>
       <c r="F137" s="2">
-        <v>43012</v>
+        <v>43504</v>
       </c>
       <c r="G137" s="2">
-        <v>43021</v>
+        <v>43511</v>
       </c>
       <c r="H137" t="s">
-        <v>451</v>
+        <v>335</v>
       </c>
       <c r="I137" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138" s="1">
-        <v>159</v>
+        <v>118</v>
       </c>
       <c r="B138" s="2">
-        <v>43511</v>
+        <v>43178</v>
       </c>
       <c r="C138" t="s">
         <v>140</v>
@@ -5503,56 +5454,56 @@
         <v>336</v>
       </c>
       <c r="E138" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F138" s="2">
-        <v>43504</v>
+        <v>43168</v>
       </c>
       <c r="G138" s="2">
-        <v>43511</v>
+        <v>43178</v>
       </c>
       <c r="H138" t="s">
         <v>336</v>
       </c>
       <c r="I138" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139" s="1">
-        <v>118</v>
+        <v>182</v>
       </c>
       <c r="B139" s="2">
-        <v>43178</v>
+        <v>43741</v>
       </c>
       <c r="C139" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D139" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E139" t="s">
         <v>401</v>
       </c>
       <c r="F139" s="2">
-        <v>43168</v>
+        <v>43734</v>
       </c>
       <c r="G139" s="2">
-        <v>43178</v>
+        <v>43741</v>
       </c>
       <c r="H139" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="I139" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140" s="1">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B140" s="2">
-        <v>43741</v>
+        <v>43790</v>
       </c>
       <c r="C140" t="s">
         <v>141</v>
@@ -5561,27 +5512,18 @@
         <v>337</v>
       </c>
       <c r="E140" t="s">
-        <v>402</v>
-      </c>
-      <c r="F140" s="2">
-        <v>43734</v>
-      </c>
-      <c r="G140" s="2">
-        <v>43741</v>
-      </c>
-      <c r="H140" t="s">
-        <v>337</v>
+        <v>400</v>
       </c>
       <c r="I140" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:9">
       <c r="A141" s="1">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B141" s="2">
-        <v>43790</v>
+        <v>43734</v>
       </c>
       <c r="C141" t="s">
         <v>142</v>
@@ -5590,18 +5532,27 @@
         <v>338</v>
       </c>
       <c r="E141" t="s">
-        <v>401</v>
+        <v>400</v>
+      </c>
+      <c r="F141" s="2">
+        <v>43728</v>
+      </c>
+      <c r="G141" s="2">
+        <v>43734</v>
+      </c>
+      <c r="H141" t="s">
+        <v>142</v>
       </c>
       <c r="I141" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="A142" s="1">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="B142" s="2">
-        <v>43734</v>
+        <v>43808</v>
       </c>
       <c r="C142" t="s">
         <v>143</v>
@@ -5610,27 +5561,27 @@
         <v>339</v>
       </c>
       <c r="E142" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F142" s="2">
-        <v>43728</v>
+        <v>43801</v>
       </c>
       <c r="G142" s="2">
-        <v>43734</v>
+        <v>43808</v>
       </c>
       <c r="H142" t="s">
-        <v>143</v>
+        <v>339</v>
       </c>
       <c r="I142" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="A143" s="1">
-        <v>187</v>
+        <v>55</v>
       </c>
       <c r="B143" s="2">
-        <v>43808</v>
+        <v>42706</v>
       </c>
       <c r="C143" t="s">
         <v>144</v>
@@ -5641,91 +5592,82 @@
       <c r="E143" t="s">
         <v>401</v>
       </c>
-      <c r="F143" s="2">
-        <v>43801</v>
-      </c>
-      <c r="G143" s="2">
-        <v>43808</v>
-      </c>
-      <c r="H143" t="s">
-        <v>340</v>
-      </c>
       <c r="I143" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:9">
       <c r="A144" s="1">
-        <v>55</v>
-      </c>
-      <c r="B144" s="2">
-        <v>42706</v>
+        <v>203</v>
       </c>
       <c r="C144" t="s">
         <v>145</v>
       </c>
-      <c r="D144" t="s">
-        <v>341</v>
-      </c>
       <c r="E144" t="s">
-        <v>402</v>
+        <v>400</v>
+      </c>
+      <c r="F144" s="2">
+        <v>43921</v>
+      </c>
+      <c r="G144" s="2">
+        <v>43924</v>
+      </c>
+      <c r="H144" t="s">
+        <v>451</v>
       </c>
       <c r="I144" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="1:9">
       <c r="A145" s="1">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C145" t="s">
         <v>146</v>
       </c>
       <c r="E145" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F145" s="2">
-        <v>43921</v>
+        <v>43852</v>
       </c>
       <c r="G145" s="2">
-        <v>43924</v>
+        <v>43858</v>
       </c>
       <c r="H145" t="s">
         <v>452</v>
       </c>
       <c r="I145" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="A146" s="1">
-        <v>200</v>
+        <v>62</v>
+      </c>
+      <c r="B146" s="2">
+        <v>42795</v>
       </c>
       <c r="C146" t="s">
         <v>147</v>
       </c>
+      <c r="D146" t="s">
+        <v>341</v>
+      </c>
       <c r="E146" t="s">
         <v>401</v>
       </c>
-      <c r="F146" s="2">
-        <v>43852</v>
-      </c>
-      <c r="G146" s="2">
-        <v>43858</v>
-      </c>
-      <c r="H146" t="s">
-        <v>453</v>
-      </c>
       <c r="I146" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
       <c r="A147" s="1">
-        <v>62</v>
+        <v>158</v>
       </c>
       <c r="B147" s="2">
-        <v>42795</v>
+        <v>43483</v>
       </c>
       <c r="C147" t="s">
         <v>148</v>
@@ -5734,18 +5676,27 @@
         <v>342</v>
       </c>
       <c r="E147" t="s">
-        <v>402</v>
+        <v>401</v>
+      </c>
+      <c r="F147" s="2">
+        <v>43480</v>
+      </c>
+      <c r="G147" s="2">
+        <v>43483</v>
+      </c>
+      <c r="H147" t="s">
+        <v>453</v>
       </c>
       <c r="I147" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
       <c r="A148" s="1">
-        <v>158</v>
+        <v>9</v>
       </c>
       <c r="B148" s="2">
-        <v>43483</v>
+        <v>42422</v>
       </c>
       <c r="C148" t="s">
         <v>149</v>
@@ -5754,27 +5705,27 @@
         <v>343</v>
       </c>
       <c r="E148" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F148" s="2">
-        <v>43480</v>
+        <v>42416</v>
       </c>
       <c r="G148" s="2">
-        <v>43483</v>
+        <v>42419</v>
       </c>
       <c r="H148" t="s">
-        <v>454</v>
+        <v>343</v>
       </c>
       <c r="I148" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
       <c r="A149" s="1">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B149" s="2">
-        <v>42422</v>
+        <v>42401</v>
       </c>
       <c r="C149" t="s">
         <v>150</v>
@@ -5783,27 +5734,27 @@
         <v>344</v>
       </c>
       <c r="E149" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F149" s="2">
-        <v>42416</v>
+        <v>42395</v>
       </c>
       <c r="G149" s="2">
-        <v>42419</v>
+        <v>42398</v>
       </c>
       <c r="H149" t="s">
-        <v>344</v>
+        <v>454</v>
       </c>
       <c r="I149" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
       <c r="A150" s="1">
-        <v>6</v>
+        <v>114</v>
       </c>
       <c r="B150" s="2">
-        <v>42401</v>
+        <v>43178</v>
       </c>
       <c r="C150" t="s">
         <v>151</v>
@@ -5812,27 +5763,27 @@
         <v>345</v>
       </c>
       <c r="E150" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F150" s="2">
-        <v>42395</v>
+        <v>43168</v>
       </c>
       <c r="G150" s="2">
-        <v>42398</v>
+        <v>43178</v>
       </c>
       <c r="H150" t="s">
-        <v>455</v>
+        <v>345</v>
       </c>
       <c r="I150" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
       <c r="A151" s="1">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="B151" s="2">
-        <v>43178</v>
+        <v>42942</v>
       </c>
       <c r="C151" t="s">
         <v>152</v>
@@ -5841,27 +5792,18 @@
         <v>346</v>
       </c>
       <c r="E151" t="s">
-        <v>402</v>
-      </c>
-      <c r="F151" s="2">
-        <v>43168</v>
-      </c>
-      <c r="G151" s="2">
-        <v>43178</v>
-      </c>
-      <c r="H151" t="s">
-        <v>346</v>
+        <v>400</v>
       </c>
       <c r="I151" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="1:9">
       <c r="A152" s="1">
-        <v>96</v>
+        <v>15</v>
       </c>
       <c r="B152" s="2">
-        <v>42942</v>
+        <v>42459</v>
       </c>
       <c r="C152" t="s">
         <v>153</v>
@@ -5873,15 +5815,15 @@
         <v>401</v>
       </c>
       <c r="I152" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
       <c r="A153" s="1">
-        <v>15</v>
+        <v>102</v>
       </c>
       <c r="B153" s="2">
-        <v>42459</v>
+        <v>42976</v>
       </c>
       <c r="C153" t="s">
         <v>154</v>
@@ -5890,18 +5832,27 @@
         <v>348</v>
       </c>
       <c r="E153" t="s">
-        <v>402</v>
+        <v>400</v>
+      </c>
+      <c r="F153" s="2">
+        <v>42971</v>
+      </c>
+      <c r="G153" s="2">
+        <v>42976</v>
+      </c>
+      <c r="H153" t="s">
+        <v>455</v>
       </c>
       <c r="I153" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
       <c r="A154" s="1">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="B154" s="2">
-        <v>42976</v>
+        <v>42905</v>
       </c>
       <c r="C154" t="s">
         <v>155</v>
@@ -5913,24 +5864,24 @@
         <v>401</v>
       </c>
       <c r="F154" s="2">
-        <v>42971</v>
+        <v>42895</v>
       </c>
       <c r="G154" s="2">
-        <v>42976</v>
+        <v>42905</v>
       </c>
       <c r="H154" t="s">
         <v>456</v>
       </c>
       <c r="I154" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
       <c r="A155" s="1">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="B155" s="2">
-        <v>42905</v>
+        <v>42942</v>
       </c>
       <c r="C155" t="s">
         <v>156</v>
@@ -5939,27 +5890,18 @@
         <v>350</v>
       </c>
       <c r="E155" t="s">
-        <v>402</v>
-      </c>
-      <c r="F155" s="2">
-        <v>42895</v>
-      </c>
-      <c r="G155" s="2">
-        <v>42905</v>
-      </c>
-      <c r="H155" t="s">
-        <v>457</v>
+        <v>401</v>
       </c>
       <c r="I155" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="1:9">
       <c r="A156" s="1">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B156" s="2">
-        <v>42942</v>
+        <v>42905</v>
       </c>
       <c r="C156" t="s">
         <v>157</v>
@@ -5968,18 +5910,27 @@
         <v>351</v>
       </c>
       <c r="E156" t="s">
-        <v>402</v>
+        <v>400</v>
+      </c>
+      <c r="F156" s="2">
+        <v>42898</v>
+      </c>
+      <c r="G156" s="2">
+        <v>42905</v>
+      </c>
+      <c r="H156" t="s">
+        <v>457</v>
       </c>
       <c r="I156" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
       <c r="A157" s="1">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="B157" s="2">
-        <v>42905</v>
+        <v>42796</v>
       </c>
       <c r="C157" t="s">
         <v>158</v>
@@ -5988,27 +5939,18 @@
         <v>352</v>
       </c>
       <c r="E157" t="s">
-        <v>401</v>
-      </c>
-      <c r="F157" s="2">
-        <v>42898</v>
-      </c>
-      <c r="G157" s="2">
-        <v>42905</v>
-      </c>
-      <c r="H157" t="s">
-        <v>458</v>
+        <v>400</v>
       </c>
       <c r="I157" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="1:9">
       <c r="A158" s="1">
-        <v>64</v>
+        <v>172</v>
       </c>
       <c r="B158" s="2">
-        <v>42796</v>
+        <v>43661</v>
       </c>
       <c r="C158" t="s">
         <v>159</v>
@@ -6019,16 +5961,25 @@
       <c r="E158" t="s">
         <v>401</v>
       </c>
+      <c r="F158" s="2">
+        <v>43655</v>
+      </c>
+      <c r="G158" s="2">
+        <v>43661</v>
+      </c>
+      <c r="H158" t="s">
+        <v>353</v>
+      </c>
       <c r="I158" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
       <c r="A159" s="1">
-        <v>172</v>
+        <v>93</v>
       </c>
       <c r="B159" s="2">
-        <v>43661</v>
+        <v>42942</v>
       </c>
       <c r="C159" t="s">
         <v>160</v>
@@ -6037,27 +5988,18 @@
         <v>354</v>
       </c>
       <c r="E159" t="s">
-        <v>402</v>
-      </c>
-      <c r="F159" s="2">
-        <v>43655</v>
-      </c>
-      <c r="G159" s="2">
-        <v>43661</v>
-      </c>
-      <c r="H159" t="s">
-        <v>354</v>
+        <v>401</v>
       </c>
       <c r="I159" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="1:9">
       <c r="A160" s="1">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="B160" s="2">
-        <v>42942</v>
+        <v>42814</v>
       </c>
       <c r="C160" t="s">
         <v>161</v>
@@ -6066,18 +6008,18 @@
         <v>355</v>
       </c>
       <c r="E160" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="I160" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
       <c r="A161" s="1">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="B161" s="2">
-        <v>42814</v>
+        <v>42942</v>
       </c>
       <c r="C161" t="s">
         <v>162</v>
@@ -6086,18 +6028,18 @@
         <v>356</v>
       </c>
       <c r="E161" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="I161" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
       <c r="A162" s="1">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="B162" s="2">
-        <v>42942</v>
+        <v>43374</v>
       </c>
       <c r="C162" t="s">
         <v>163</v>
@@ -6106,18 +6048,27 @@
         <v>357</v>
       </c>
       <c r="E162" t="s">
-        <v>401</v>
+        <v>400</v>
+      </c>
+      <c r="F162" s="2">
+        <v>43368</v>
+      </c>
+      <c r="G162" s="2">
+        <v>43374</v>
+      </c>
+      <c r="H162" t="s">
+        <v>458</v>
       </c>
       <c r="I162" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
       <c r="A163" s="1">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="B163" s="2">
-        <v>43374</v>
+        <v>43269</v>
       </c>
       <c r="C163" t="s">
         <v>164</v>
@@ -6129,76 +6080,76 @@
         <v>401</v>
       </c>
       <c r="F163" s="2">
-        <v>43368</v>
+        <v>43259</v>
       </c>
       <c r="G163" s="2">
-        <v>43374</v>
+        <v>43269</v>
       </c>
       <c r="H163" t="s">
-        <v>459</v>
+        <v>358</v>
       </c>
       <c r="I163" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
       <c r="A164" s="1">
-        <v>127</v>
-      </c>
-      <c r="B164" s="2">
-        <v>43269</v>
+        <v>205</v>
       </c>
       <c r="C164" t="s">
         <v>165</v>
       </c>
-      <c r="D164" t="s">
-        <v>359</v>
-      </c>
       <c r="E164" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F164" s="2">
-        <v>43259</v>
+        <v>43921</v>
       </c>
       <c r="G164" s="2">
-        <v>43269</v>
+        <v>43927</v>
       </c>
       <c r="H164" t="s">
-        <v>359</v>
+        <v>459</v>
       </c>
       <c r="I164" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
       <c r="A165" s="1">
-        <v>206</v>
+        <v>104</v>
+      </c>
+      <c r="B165" s="2">
+        <v>42979</v>
       </c>
       <c r="C165" t="s">
         <v>166</v>
       </c>
+      <c r="D165" t="s">
+        <v>359</v>
+      </c>
       <c r="E165" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F165" s="2">
-        <v>43921</v>
+        <v>42971</v>
       </c>
       <c r="G165" s="2">
-        <v>43927</v>
+        <v>42979</v>
       </c>
       <c r="H165" t="s">
-        <v>460</v>
+        <v>359</v>
       </c>
       <c r="I165" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
       <c r="A166" s="1">
-        <v>104</v>
+        <v>156</v>
       </c>
       <c r="B166" s="2">
-        <v>42979</v>
+        <v>43467</v>
       </c>
       <c r="C166" t="s">
         <v>167</v>
@@ -6210,24 +6161,24 @@
         <v>401</v>
       </c>
       <c r="F166" s="2">
-        <v>42971</v>
+        <v>43461</v>
       </c>
       <c r="G166" s="2">
-        <v>42979</v>
+        <v>43467</v>
       </c>
       <c r="H166" t="s">
         <v>360</v>
       </c>
       <c r="I166" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
       <c r="A167" s="1">
-        <v>156</v>
+        <v>60</v>
       </c>
       <c r="B167" s="2">
-        <v>43467</v>
+        <v>42794</v>
       </c>
       <c r="C167" t="s">
         <v>168</v>
@@ -6236,27 +6187,18 @@
         <v>361</v>
       </c>
       <c r="E167" t="s">
-        <v>402</v>
-      </c>
-      <c r="F167" s="2">
-        <v>43461</v>
-      </c>
-      <c r="G167" s="2">
-        <v>43467</v>
-      </c>
-      <c r="H167" t="s">
-        <v>361</v>
+        <v>401</v>
       </c>
       <c r="I167" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="168" spans="1:9">
       <c r="A168" s="1">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="B168" s="2">
-        <v>42794</v>
+        <v>43178</v>
       </c>
       <c r="C168" t="s">
         <v>169</v>
@@ -6265,15 +6207,24 @@
         <v>362</v>
       </c>
       <c r="E168" t="s">
-        <v>402</v>
+        <v>401</v>
+      </c>
+      <c r="F168" s="2">
+        <v>43168</v>
+      </c>
+      <c r="G168" s="2">
+        <v>43178</v>
+      </c>
+      <c r="H168" t="s">
+        <v>362</v>
       </c>
       <c r="I168" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
       <c r="A169" s="1">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B169" s="2">
         <v>43178</v>
@@ -6285,7 +6236,7 @@
         <v>363</v>
       </c>
       <c r="E169" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F169" s="2">
         <v>43168</v>
@@ -6294,18 +6245,18 @@
         <v>43178</v>
       </c>
       <c r="H169" t="s">
-        <v>363</v>
+        <v>460</v>
       </c>
       <c r="I169" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
       <c r="A170" s="1">
-        <v>117</v>
+        <v>28</v>
       </c>
       <c r="B170" s="2">
-        <v>43178</v>
+        <v>42503</v>
       </c>
       <c r="C170" t="s">
         <v>171</v>
@@ -6317,24 +6268,24 @@
         <v>401</v>
       </c>
       <c r="F170" s="2">
-        <v>43168</v>
+        <v>42500</v>
       </c>
       <c r="G170" s="2">
-        <v>43178</v>
+        <v>42502</v>
       </c>
       <c r="H170" t="s">
         <v>461</v>
       </c>
       <c r="I170" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
       <c r="A171" s="1">
-        <v>28</v>
+        <v>111</v>
       </c>
       <c r="B171" s="2">
-        <v>42503</v>
+        <v>43166</v>
       </c>
       <c r="C171" t="s">
         <v>172</v>
@@ -6343,27 +6294,27 @@
         <v>365</v>
       </c>
       <c r="E171" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F171" s="2">
-        <v>42500</v>
+        <v>43161</v>
       </c>
       <c r="G171" s="2">
-        <v>42502</v>
+        <v>43166</v>
       </c>
       <c r="H171" t="s">
-        <v>462</v>
+        <v>365</v>
       </c>
       <c r="I171" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
       <c r="A172" s="1">
-        <v>111</v>
+        <v>68</v>
       </c>
       <c r="B172" s="2">
-        <v>43166</v>
+        <v>42810</v>
       </c>
       <c r="C172" t="s">
         <v>173</v>
@@ -6372,27 +6323,18 @@
         <v>366</v>
       </c>
       <c r="E172" t="s">
-        <v>402</v>
-      </c>
-      <c r="F172" s="2">
-        <v>43161</v>
-      </c>
-      <c r="G172" s="2">
-        <v>43166</v>
-      </c>
-      <c r="H172" t="s">
-        <v>366</v>
+        <v>400</v>
       </c>
       <c r="I172" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="173" spans="1:9">
       <c r="A173" s="1">
-        <v>68</v>
+        <v>106</v>
       </c>
       <c r="B173" s="2">
-        <v>42810</v>
+        <v>42996</v>
       </c>
       <c r="C173" t="s">
         <v>174</v>
@@ -6403,16 +6345,25 @@
       <c r="E173" t="s">
         <v>401</v>
       </c>
+      <c r="F173" s="2">
+        <v>42986</v>
+      </c>
+      <c r="G173" s="2">
+        <v>42996</v>
+      </c>
+      <c r="H173" t="s">
+        <v>462</v>
+      </c>
       <c r="I173" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9">
       <c r="A174" s="1">
-        <v>106</v>
+        <v>151</v>
       </c>
       <c r="B174" s="2">
-        <v>42996</v>
+        <v>43437</v>
       </c>
       <c r="C174" t="s">
         <v>175</v>
@@ -6421,27 +6372,27 @@
         <v>368</v>
       </c>
       <c r="E174" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F174" s="2">
-        <v>42986</v>
+        <v>43430</v>
       </c>
       <c r="G174" s="2">
-        <v>42996</v>
+        <v>43437</v>
       </c>
       <c r="H174" t="s">
-        <v>463</v>
+        <v>368</v>
       </c>
       <c r="I174" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
       <c r="A175" s="1">
-        <v>151</v>
+        <v>194</v>
       </c>
       <c r="B175" s="2">
-        <v>43437</v>
+        <v>43822</v>
       </c>
       <c r="C175" t="s">
         <v>176</v>
@@ -6450,27 +6401,27 @@
         <v>369</v>
       </c>
       <c r="E175" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F175" s="2">
-        <v>43430</v>
+        <v>43812</v>
       </c>
       <c r="G175" s="2">
-        <v>43437</v>
+        <v>43822</v>
       </c>
       <c r="H175" t="s">
-        <v>369</v>
+        <v>463</v>
       </c>
       <c r="I175" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9">
       <c r="A176" s="1">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="B176" s="2">
-        <v>43822</v>
+        <v>43808</v>
       </c>
       <c r="C176" t="s">
         <v>177</v>
@@ -6482,24 +6433,24 @@
         <v>401</v>
       </c>
       <c r="F176" s="2">
-        <v>43812</v>
+        <v>43801</v>
       </c>
       <c r="G176" s="2">
-        <v>43822</v>
+        <v>43808</v>
       </c>
       <c r="H176" t="s">
-        <v>464</v>
+        <v>370</v>
       </c>
       <c r="I176" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9">
       <c r="A177" s="1">
-        <v>188</v>
+        <v>58</v>
       </c>
       <c r="B177" s="2">
-        <v>43808</v>
+        <v>42740</v>
       </c>
       <c r="C177" t="s">
         <v>178</v>
@@ -6508,27 +6459,27 @@
         <v>371</v>
       </c>
       <c r="E177" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F177" s="2">
-        <v>43801</v>
+        <v>42738</v>
       </c>
       <c r="G177" s="2">
-        <v>43808</v>
+        <v>42739</v>
       </c>
       <c r="H177" t="s">
-        <v>371</v>
+        <v>464</v>
       </c>
       <c r="I177" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9">
       <c r="A178" s="1">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="B178" s="2">
-        <v>42740</v>
+        <v>42829</v>
       </c>
       <c r="C178" t="s">
         <v>179</v>
@@ -6537,27 +6488,27 @@
         <v>372</v>
       </c>
       <c r="E178" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F178" s="2">
-        <v>42738</v>
+        <v>42822</v>
       </c>
       <c r="G178" s="2">
-        <v>42739</v>
+        <v>42829</v>
       </c>
       <c r="H178" t="s">
-        <v>465</v>
+        <v>372</v>
       </c>
       <c r="I178" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9">
       <c r="A179" s="1">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="B179" s="2">
-        <v>42829</v>
+        <v>42905</v>
       </c>
       <c r="C179" t="s">
         <v>180</v>
@@ -6566,27 +6517,27 @@
         <v>373</v>
       </c>
       <c r="E179" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F179" s="2">
-        <v>42822</v>
+        <v>42895</v>
       </c>
       <c r="G179" s="2">
-        <v>42829</v>
+        <v>42905</v>
       </c>
       <c r="H179" t="s">
-        <v>373</v>
+        <v>465</v>
       </c>
       <c r="I179" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9">
       <c r="A180" s="1">
-        <v>88</v>
+        <v>36</v>
       </c>
       <c r="B180" s="2">
-        <v>42905</v>
+        <v>42524</v>
       </c>
       <c r="C180" t="s">
         <v>181</v>
@@ -6595,27 +6546,18 @@
         <v>374</v>
       </c>
       <c r="E180" t="s">
-        <v>402</v>
-      </c>
-      <c r="F180" s="2">
-        <v>42895</v>
-      </c>
-      <c r="G180" s="2">
-        <v>42905</v>
-      </c>
-      <c r="H180" t="s">
-        <v>466</v>
+        <v>400</v>
       </c>
       <c r="I180" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="181" spans="1:9">
       <c r="A181" s="1">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B181" s="2">
-        <v>42524</v>
+        <v>42552</v>
       </c>
       <c r="C181" t="s">
         <v>182</v>
@@ -6626,16 +6568,25 @@
       <c r="E181" t="s">
         <v>401</v>
       </c>
+      <c r="F181" s="2">
+        <v>42544</v>
+      </c>
+      <c r="G181" s="2">
+        <v>42551</v>
+      </c>
+      <c r="H181" t="s">
+        <v>375</v>
+      </c>
       <c r="I181" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9">
       <c r="A182" s="1">
-        <v>40</v>
+        <v>157</v>
       </c>
       <c r="B182" s="2">
-        <v>42552</v>
+        <v>43483</v>
       </c>
       <c r="C182" t="s">
         <v>183</v>
@@ -6644,27 +6595,27 @@
         <v>376</v>
       </c>
       <c r="E182" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F182" s="2">
-        <v>42544</v>
+        <v>43480</v>
       </c>
       <c r="G182" s="2">
-        <v>42551</v>
+        <v>43483</v>
       </c>
       <c r="H182" t="s">
         <v>376</v>
       </c>
       <c r="I182" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9">
       <c r="A183" s="1">
-        <v>157</v>
+        <v>79</v>
       </c>
       <c r="B183" s="2">
-        <v>43483</v>
+        <v>42888</v>
       </c>
       <c r="C183" t="s">
         <v>184</v>
@@ -6676,24 +6627,24 @@
         <v>401</v>
       </c>
       <c r="F183" s="2">
-        <v>43480</v>
+        <v>42879</v>
       </c>
       <c r="G183" s="2">
-        <v>43483</v>
+        <v>42888</v>
       </c>
       <c r="H183" t="s">
-        <v>377</v>
+        <v>466</v>
       </c>
       <c r="I183" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9">
       <c r="A184" s="1">
-        <v>79</v>
+        <v>21</v>
       </c>
       <c r="B184" s="2">
-        <v>42888</v>
+        <v>42478</v>
       </c>
       <c r="C184" t="s">
         <v>185</v>
@@ -6702,27 +6653,27 @@
         <v>378</v>
       </c>
       <c r="E184" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F184" s="2">
-        <v>42879</v>
+        <v>42467</v>
       </c>
       <c r="G184" s="2">
-        <v>42888</v>
+        <v>42475</v>
       </c>
       <c r="H184" t="s">
-        <v>467</v>
+        <v>378</v>
       </c>
       <c r="I184" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9">
       <c r="A185" s="1">
-        <v>21</v>
+        <v>171</v>
       </c>
       <c r="B185" s="2">
-        <v>42478</v>
+        <v>43661</v>
       </c>
       <c r="C185" t="s">
         <v>186</v>
@@ -6731,27 +6682,27 @@
         <v>379</v>
       </c>
       <c r="E185" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F185" s="2">
-        <v>42467</v>
+        <v>43655</v>
       </c>
       <c r="G185" s="2">
-        <v>42475</v>
+        <v>43661</v>
       </c>
       <c r="H185" t="s">
         <v>379</v>
       </c>
       <c r="I185" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9">
       <c r="A186" s="1">
-        <v>171</v>
+        <v>192</v>
       </c>
       <c r="B186" s="2">
-        <v>43661</v>
+        <v>43822</v>
       </c>
       <c r="C186" t="s">
         <v>187</v>
@@ -6763,24 +6714,24 @@
         <v>401</v>
       </c>
       <c r="F186" s="2">
-        <v>43655</v>
+        <v>43812</v>
       </c>
       <c r="G186" s="2">
-        <v>43661</v>
+        <v>43822</v>
       </c>
       <c r="H186" t="s">
         <v>380</v>
       </c>
       <c r="I186" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9">
       <c r="A187" s="1">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="B187" s="2">
-        <v>43822</v>
+        <v>43731</v>
       </c>
       <c r="C187" t="s">
         <v>188</v>
@@ -6789,27 +6740,18 @@
         <v>381</v>
       </c>
       <c r="E187" t="s">
-        <v>402</v>
-      </c>
-      <c r="F187" s="2">
-        <v>43812</v>
-      </c>
-      <c r="G187" s="2">
-        <v>43822</v>
-      </c>
-      <c r="H187" t="s">
-        <v>381</v>
+        <v>401</v>
       </c>
       <c r="I187" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="188" spans="1:9">
       <c r="A188" s="1">
-        <v>178</v>
+        <v>116</v>
       </c>
       <c r="B188" s="2">
-        <v>43731</v>
+        <v>43178</v>
       </c>
       <c r="C188" t="s">
         <v>189</v>
@@ -6818,70 +6760,79 @@
         <v>382</v>
       </c>
       <c r="E188" t="s">
-        <v>402</v>
+        <v>400</v>
+      </c>
+      <c r="F188" s="2">
+        <v>43168</v>
+      </c>
+      <c r="G188" s="2">
+        <v>43178</v>
+      </c>
+      <c r="H188" t="s">
+        <v>467</v>
       </c>
       <c r="I188" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9">
       <c r="A189" s="1">
-        <v>116</v>
-      </c>
-      <c r="B189" s="2">
-        <v>43178</v>
+        <v>195</v>
       </c>
       <c r="C189" t="s">
         <v>190</v>
       </c>
-      <c r="D189" t="s">
-        <v>383</v>
-      </c>
       <c r="E189" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F189" s="2">
-        <v>43168</v>
+        <v>42366</v>
       </c>
       <c r="G189" s="2">
-        <v>43178</v>
+        <v>42373</v>
       </c>
       <c r="H189" t="s">
-        <v>468</v>
+        <v>394</v>
       </c>
       <c r="I189" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9">
       <c r="A190" s="1">
-        <v>195</v>
+        <v>30</v>
+      </c>
+      <c r="B190" s="2">
+        <v>42508</v>
       </c>
       <c r="C190" t="s">
         <v>191</v>
       </c>
+      <c r="D190" t="s">
+        <v>383</v>
+      </c>
       <c r="E190" t="s">
         <v>401</v>
       </c>
       <c r="F190" s="2">
-        <v>42366</v>
+        <v>42503</v>
       </c>
       <c r="G190" s="2">
-        <v>42373</v>
+        <v>42507</v>
       </c>
       <c r="H190" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="I190" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9">
       <c r="A191" s="1">
-        <v>30</v>
+        <v>126</v>
       </c>
       <c r="B191" s="2">
-        <v>42508</v>
+        <v>43258</v>
       </c>
       <c r="C191" t="s">
         <v>192</v>
@@ -6890,27 +6841,27 @@
         <v>384</v>
       </c>
       <c r="E191" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F191" s="2">
-        <v>42503</v>
+        <v>43255</v>
       </c>
       <c r="G191" s="2">
-        <v>42507</v>
+        <v>43258</v>
       </c>
       <c r="H191" t="s">
         <v>384</v>
       </c>
       <c r="I191" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9">
       <c r="A192" s="1">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="B192" s="2">
-        <v>43258</v>
+        <v>43271</v>
       </c>
       <c r="C192" t="s">
         <v>193</v>
@@ -6922,24 +6873,24 @@
         <v>401</v>
       </c>
       <c r="F192" s="2">
-        <v>43255</v>
+        <v>43266</v>
       </c>
       <c r="G192" s="2">
-        <v>43258</v>
+        <v>43271</v>
       </c>
       <c r="H192" t="s">
         <v>385</v>
       </c>
       <c r="I192" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9">
       <c r="A193" s="1">
-        <v>131</v>
+        <v>20</v>
       </c>
       <c r="B193" s="2">
-        <v>43271</v>
+        <v>42468</v>
       </c>
       <c r="C193" t="s">
         <v>194</v>
@@ -6948,27 +6899,18 @@
         <v>386</v>
       </c>
       <c r="E193" t="s">
-        <v>402</v>
-      </c>
-      <c r="F193" s="2">
-        <v>43266</v>
-      </c>
-      <c r="G193" s="2">
-        <v>43271</v>
-      </c>
-      <c r="H193" t="s">
-        <v>386</v>
+        <v>400</v>
       </c>
       <c r="I193" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="194" spans="1:9">
       <c r="A194" s="1">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B194" s="2">
-        <v>42468</v>
+        <v>42436</v>
       </c>
       <c r="C194" t="s">
         <v>195</v>
@@ -6977,18 +6919,27 @@
         <v>387</v>
       </c>
       <c r="E194" t="s">
-        <v>401</v>
+        <v>400</v>
+      </c>
+      <c r="F194" s="2">
+        <v>42432</v>
+      </c>
+      <c r="G194" s="2">
+        <v>42433</v>
+      </c>
+      <c r="H194" t="s">
+        <v>195</v>
       </c>
       <c r="I194" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="195" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9">
       <c r="A195" s="1">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B195" s="2">
-        <v>42436</v>
+        <v>42478</v>
       </c>
       <c r="C195" t="s">
         <v>196</v>
@@ -6997,27 +6948,27 @@
         <v>388</v>
       </c>
       <c r="E195" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F195" s="2">
-        <v>42432</v>
+        <v>42467</v>
       </c>
       <c r="G195" s="2">
-        <v>42433</v>
+        <v>42475</v>
       </c>
       <c r="H195" t="s">
-        <v>196</v>
+        <v>468</v>
       </c>
       <c r="I195" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9">
       <c r="A196" s="1">
-        <v>22</v>
+        <v>74</v>
       </c>
       <c r="B196" s="2">
-        <v>42478</v>
+        <v>42814</v>
       </c>
       <c r="C196" t="s">
         <v>197</v>
@@ -7028,25 +6979,16 @@
       <c r="E196" t="s">
         <v>401</v>
       </c>
-      <c r="F196" s="2">
-        <v>42467</v>
-      </c>
-      <c r="G196" s="2">
-        <v>42475</v>
-      </c>
-      <c r="H196" t="s">
-        <v>469</v>
-      </c>
       <c r="I196" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="197" spans="1:9">
       <c r="A197" s="1">
-        <v>74</v>
+        <v>185</v>
       </c>
       <c r="B197" s="2">
-        <v>42814</v>
+        <v>43804</v>
       </c>
       <c r="C197" t="s">
         <v>198</v>
@@ -7055,18 +6997,27 @@
         <v>390</v>
       </c>
       <c r="E197" t="s">
-        <v>402</v>
+        <v>401</v>
+      </c>
+      <c r="F197" s="2">
+        <v>43796</v>
+      </c>
+      <c r="G197" s="2">
+        <v>43804</v>
+      </c>
+      <c r="H197" t="s">
+        <v>390</v>
       </c>
       <c r="I197" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="198" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9">
       <c r="A198" s="1">
-        <v>185</v>
+        <v>161</v>
       </c>
       <c r="B198" s="2">
-        <v>43804</v>
+        <v>43523</v>
       </c>
       <c r="C198" t="s">
         <v>199</v>
@@ -7075,27 +7026,27 @@
         <v>391</v>
       </c>
       <c r="E198" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F198" s="2">
-        <v>43796</v>
+        <v>43517</v>
       </c>
       <c r="G198" s="2">
-        <v>43804</v>
+        <v>43523</v>
       </c>
       <c r="H198" t="s">
-        <v>391</v>
+        <v>469</v>
       </c>
       <c r="I198" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="199" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9">
       <c r="A199" s="1">
-        <v>161</v>
+        <v>138</v>
       </c>
       <c r="B199" s="2">
-        <v>43523</v>
+        <v>43357</v>
       </c>
       <c r="C199" t="s">
         <v>200</v>
@@ -7104,79 +7055,79 @@
         <v>392</v>
       </c>
       <c r="E199" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F199" s="2">
-        <v>43517</v>
+        <v>43354</v>
       </c>
       <c r="G199" s="2">
-        <v>43523</v>
+        <v>43360</v>
       </c>
       <c r="H199" t="s">
         <v>470</v>
       </c>
       <c r="I199" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="200" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9">
       <c r="A200" s="1">
-        <v>138</v>
-      </c>
-      <c r="B200" s="2">
-        <v>43357</v>
+        <v>200</v>
       </c>
       <c r="C200" t="s">
-        <v>201</v>
-      </c>
-      <c r="D200" t="s">
-        <v>393</v>
+        <v>200</v>
       </c>
       <c r="E200" t="s">
         <v>401</v>
       </c>
       <c r="F200" s="2">
-        <v>43354</v>
+        <v>43852</v>
       </c>
       <c r="G200" s="2">
-        <v>43360</v>
+        <v>43858</v>
       </c>
       <c r="H200" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="I200" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9">
       <c r="A201" s="1">
-        <v>201</v>
+        <v>101</v>
+      </c>
+      <c r="B201" s="2">
+        <v>42976</v>
       </c>
       <c r="C201" t="s">
         <v>201</v>
       </c>
+      <c r="D201" t="s">
+        <v>393</v>
+      </c>
       <c r="E201" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F201" s="2">
-        <v>43852</v>
+        <v>42971</v>
       </c>
       <c r="G201" s="2">
-        <v>43858</v>
+        <v>42976</v>
       </c>
       <c r="H201" t="s">
-        <v>471</v>
+        <v>393</v>
       </c>
       <c r="I201" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="202" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9">
       <c r="A202" s="1">
-        <v>101</v>
+        <v>1</v>
       </c>
       <c r="B202" s="2">
-        <v>42976</v>
+        <v>42374</v>
       </c>
       <c r="C202" t="s">
         <v>202</v>
@@ -7185,27 +7136,18 @@
         <v>394</v>
       </c>
       <c r="E202" t="s">
-        <v>402</v>
-      </c>
-      <c r="F202" s="2">
-        <v>42971</v>
-      </c>
-      <c r="G202" s="2">
-        <v>42976</v>
-      </c>
-      <c r="H202" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="I202" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="203" spans="1:9">
       <c r="A203" s="1">
-        <v>1</v>
+        <v>186</v>
       </c>
       <c r="B203" s="2">
-        <v>42374</v>
+        <v>43804</v>
       </c>
       <c r="C203" t="s">
         <v>203</v>
@@ -7214,18 +7156,27 @@
         <v>395</v>
       </c>
       <c r="E203" t="s">
-        <v>401</v>
+        <v>400</v>
+      </c>
+      <c r="F203" s="2">
+        <v>43796</v>
+      </c>
+      <c r="G203" s="2">
+        <v>43804</v>
+      </c>
+      <c r="H203" t="s">
+        <v>471</v>
       </c>
       <c r="I203" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="204" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9">
       <c r="A204" s="1">
-        <v>186</v>
+        <v>122</v>
       </c>
       <c r="B204" s="2">
-        <v>43804</v>
+        <v>43251</v>
       </c>
       <c r="C204" t="s">
         <v>204</v>
@@ -7237,76 +7188,76 @@
         <v>401</v>
       </c>
       <c r="F204" s="2">
-        <v>43796</v>
+        <v>43245</v>
       </c>
       <c r="G204" s="2">
-        <v>43804</v>
+        <v>43251</v>
       </c>
       <c r="H204" t="s">
-        <v>472</v>
+        <v>396</v>
       </c>
       <c r="I204" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="205" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9">
       <c r="A205" s="1">
-        <v>122</v>
-      </c>
-      <c r="B205" s="2">
-        <v>43251</v>
+        <v>202</v>
       </c>
       <c r="C205" t="s">
         <v>205</v>
       </c>
-      <c r="D205" t="s">
-        <v>397</v>
-      </c>
       <c r="E205" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F205" s="2">
-        <v>43245</v>
+        <v>43888</v>
       </c>
       <c r="G205" s="2">
-        <v>43251</v>
+        <v>43893</v>
       </c>
       <c r="H205" t="s">
-        <v>397</v>
+        <v>472</v>
       </c>
       <c r="I205" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9">
       <c r="A206" s="1">
-        <v>203</v>
+        <v>137</v>
+      </c>
+      <c r="B206" s="2">
+        <v>43357</v>
       </c>
       <c r="C206" t="s">
         <v>206</v>
       </c>
+      <c r="D206" t="s">
+        <v>397</v>
+      </c>
       <c r="E206" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F206" s="2">
-        <v>43888</v>
+        <v>43354</v>
       </c>
       <c r="G206" s="2">
-        <v>43893</v>
+        <v>43360</v>
       </c>
       <c r="H206" t="s">
-        <v>473</v>
+        <v>397</v>
       </c>
       <c r="I206" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="207" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9">
       <c r="A207" s="1">
-        <v>137</v>
+        <v>86</v>
       </c>
       <c r="B207" s="2">
-        <v>43357</v>
+        <v>42905</v>
       </c>
       <c r="C207" t="s">
         <v>207</v>
@@ -7315,27 +7266,27 @@
         <v>398</v>
       </c>
       <c r="E207" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F207" s="2">
-        <v>43354</v>
+        <v>42895</v>
       </c>
       <c r="G207" s="2">
-        <v>43360</v>
+        <v>42905</v>
       </c>
       <c r="H207" t="s">
-        <v>398</v>
+        <v>473</v>
       </c>
       <c r="I207" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="208" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9">
       <c r="A208" s="1">
-        <v>86</v>
+        <v>193</v>
       </c>
       <c r="B208" s="2">
-        <v>42905</v>
+        <v>43822</v>
       </c>
       <c r="C208" t="s">
         <v>208</v>
@@ -7344,59 +7295,22 @@
         <v>399</v>
       </c>
       <c r="E208" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F208" s="2">
-        <v>42895</v>
+        <v>43812</v>
       </c>
       <c r="G208" s="2">
-        <v>42905</v>
+        <v>43822</v>
       </c>
       <c r="H208" t="s">
-        <v>474</v>
+        <v>399</v>
       </c>
       <c r="I208" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="209" spans="1:9" hidden="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A209" s="1">
-        <v>193</v>
-      </c>
-      <c r="B209" s="2">
-        <v>43822</v>
-      </c>
-      <c r="C209" t="s">
-        <v>209</v>
-      </c>
-      <c r="D209" t="s">
-        <v>400</v>
-      </c>
-      <c r="E209" t="s">
-        <v>401</v>
-      </c>
-      <c r="F209" s="2">
-        <v>43812</v>
-      </c>
-      <c r="G209" s="2">
-        <v>43822</v>
-      </c>
-      <c r="H209" t="s">
-        <v>400</v>
-      </c>
-      <c r="I209" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I209" xr:uid="{2727319D-1493-4119-9E13-1ACCB9CBC3C7}">
-    <filterColumn colId="8">
-      <filters>
-        <filter val="left_only"/>
-        <filter val="right_only"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/sp500-historical-components-and-changes/outer_join.xlsx
+++ b/sp500-historical-components-and-changes/outer_join.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yingchen\Documents\GitHub\analyzingalpha\sp500-historical-components-and-changes\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06EBB799-2065-4A8D-9289-95D338ED6F36}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="18276" windowHeight="10992" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="981" uniqueCount="478">
   <si>
     <t>effective_date_x</t>
   </si>
@@ -29,6 +35,9 @@
   </si>
   <si>
     <t>announcement_date</t>
+  </si>
+  <si>
+    <t>implementation_date</t>
   </si>
   <si>
     <t>effective_date_y</t>
@@ -1450,11 +1459,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1518,6 +1527,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1564,7 +1581,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1596,9 +1613,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1630,6 +1665,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1805,14 +1858,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I208"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J208"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="2" max="2" width="17.41796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.83984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.5234375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.41796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.5234375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1837,8 +1900,11 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1">
         <v>121</v>
       </c>
@@ -1846,28 +1912,28 @@
         <v>43251</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E2" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F2" s="2">
         <v>43245</v>
       </c>
-      <c r="G2" s="2">
+      <c r="H2" s="2">
         <v>43251</v>
       </c>
-      <c r="H2" t="s">
-        <v>402</v>
-      </c>
       <c r="I2" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>403</v>
+      </c>
+      <c r="J2" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1">
         <v>26</v>
       </c>
@@ -1875,19 +1941,19 @@
         <v>42493</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E3" t="s">
-        <v>401</v>
-      </c>
-      <c r="I3" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>402</v>
+      </c>
+      <c r="J3" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1">
         <v>147</v>
       </c>
@@ -1895,28 +1961,28 @@
         <v>43437</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E4" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F4" s="2">
         <v>43430</v>
       </c>
-      <c r="G4" s="2">
+      <c r="H4" s="2">
         <v>43437</v>
       </c>
-      <c r="H4" t="s">
-        <v>403</v>
-      </c>
       <c r="I4" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>404</v>
+      </c>
+      <c r="J4" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1">
         <v>34</v>
       </c>
@@ -1924,13 +1990,13 @@
         <v>42521</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E5" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F5" s="2">
         <v>42514</v>
@@ -1938,14 +2004,14 @@
       <c r="G5" s="2">
         <v>42517</v>
       </c>
-      <c r="H5" t="s">
-        <v>404</v>
-      </c>
       <c r="I5" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>405</v>
+      </c>
+      <c r="J5" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1">
         <v>42</v>
       </c>
@@ -1953,13 +2019,13 @@
         <v>42552</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E6" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F6" s="2">
         <v>42544</v>
@@ -1967,14 +2033,14 @@
       <c r="G6" s="2">
         <v>42551</v>
       </c>
-      <c r="H6" t="s">
-        <v>405</v>
-      </c>
       <c r="I6" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>406</v>
+      </c>
+      <c r="J6" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1">
         <v>84</v>
       </c>
@@ -1982,28 +2048,28 @@
         <v>42905</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F7" s="2">
         <v>42895</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42905</v>
       </c>
-      <c r="H7" t="s">
-        <v>406</v>
-      </c>
       <c r="I7" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>407</v>
+      </c>
+      <c r="J7" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1">
         <v>27</v>
       </c>
@@ -2011,13 +2077,13 @@
         <v>42503</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E8" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F8" s="2">
         <v>42500</v>
@@ -2025,14 +2091,14 @@
       <c r="G8" s="2">
         <v>42502</v>
       </c>
-      <c r="H8" t="s">
-        <v>407</v>
-      </c>
       <c r="I8" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>408</v>
+      </c>
+      <c r="J8" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1">
         <v>73</v>
       </c>
@@ -2040,19 +2106,19 @@
         <v>42814</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E9" t="s">
-        <v>400</v>
-      </c>
-      <c r="I9" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>401</v>
+      </c>
+      <c r="J9" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1">
         <v>189</v>
       </c>
@@ -2060,28 +2126,28 @@
         <v>43822</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E10" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F10" s="2">
         <v>43812</v>
       </c>
-      <c r="G10" s="2">
+      <c r="H10" s="2">
         <v>43822</v>
       </c>
-      <c r="H10" t="s">
-        <v>217</v>
-      </c>
       <c r="I10" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>218</v>
+      </c>
+      <c r="J10" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1">
         <v>99</v>
       </c>
@@ -2089,28 +2155,28 @@
         <v>42955</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D11" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E11" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F11" s="2">
         <v>42947</v>
       </c>
-      <c r="G11" s="2">
+      <c r="H11" s="2">
         <v>42955</v>
       </c>
-      <c r="H11" t="s">
-        <v>408</v>
-      </c>
       <c r="I11" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>409</v>
+      </c>
+      <c r="J11" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1">
         <v>139</v>
       </c>
@@ -2118,28 +2184,28 @@
         <v>43374</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D12" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E12" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F12" s="2">
         <v>43368</v>
       </c>
-      <c r="G12" s="2">
+      <c r="H12" s="2">
         <v>43374</v>
       </c>
-      <c r="H12" t="s">
-        <v>219</v>
-      </c>
       <c r="I12" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>220</v>
+      </c>
+      <c r="J12" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1">
         <v>136</v>
       </c>
@@ -2147,28 +2213,28 @@
         <v>43340</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D13" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E13" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F13" s="2">
         <v>43335</v>
       </c>
-      <c r="G13" s="2">
+      <c r="H13" s="2">
         <v>43340</v>
       </c>
-      <c r="H13" t="s">
-        <v>220</v>
-      </c>
       <c r="I13" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>221</v>
+      </c>
+      <c r="J13" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1">
         <v>85</v>
       </c>
@@ -2176,28 +2242,28 @@
         <v>42905</v>
       </c>
       <c r="C14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D14" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E14" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F14" s="2">
         <v>42895</v>
       </c>
-      <c r="G14" s="2">
+      <c r="H14" s="2">
         <v>42905</v>
       </c>
-      <c r="H14" t="s">
-        <v>409</v>
-      </c>
       <c r="I14" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>410</v>
+      </c>
+      <c r="J14" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1">
         <v>97</v>
       </c>
@@ -2205,19 +2271,19 @@
         <v>42942</v>
       </c>
       <c r="C15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D15" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E15" t="s">
-        <v>400</v>
-      </c>
-      <c r="I15" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>401</v>
+      </c>
+      <c r="J15" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1">
         <v>175</v>
       </c>
@@ -2225,28 +2291,28 @@
         <v>43686</v>
       </c>
       <c r="C16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D16" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E16" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F16" s="2">
         <v>43678</v>
       </c>
-      <c r="G16" s="2">
+      <c r="H16" s="2">
         <v>43686</v>
       </c>
-      <c r="H16" t="s">
-        <v>223</v>
-      </c>
       <c r="I16" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>224</v>
+      </c>
+      <c r="J16" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1">
         <v>71</v>
       </c>
@@ -2254,19 +2320,19 @@
         <v>42814</v>
       </c>
       <c r="C17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D17" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E17" t="s">
-        <v>400</v>
-      </c>
-      <c r="I17" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>401</v>
+      </c>
+      <c r="J17" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1">
         <v>31</v>
       </c>
@@ -2274,13 +2340,13 @@
         <v>42513</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E18" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F18" s="2">
         <v>42508</v>
@@ -2288,14 +2354,14 @@
       <c r="G18" s="2">
         <v>42510</v>
       </c>
-      <c r="H18" t="s">
-        <v>410</v>
-      </c>
       <c r="I18" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>411</v>
+      </c>
+      <c r="J18" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1">
         <v>160</v>
       </c>
@@ -2303,28 +2369,28 @@
         <v>43511</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E19" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F19" s="2">
         <v>43504</v>
       </c>
-      <c r="G19" s="2">
+      <c r="H19" s="2">
         <v>43511</v>
       </c>
-      <c r="H19" t="s">
-        <v>411</v>
-      </c>
       <c r="I19" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>412</v>
+      </c>
+      <c r="J19" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1">
         <v>10</v>
       </c>
@@ -2332,13 +2398,13 @@
         <v>42433</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E20" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F20" s="2">
         <v>42430</v>
@@ -2346,14 +2412,14 @@
       <c r="G20" s="2">
         <v>42432</v>
       </c>
-      <c r="H20" t="s">
-        <v>412</v>
-      </c>
       <c r="I20" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>413</v>
+      </c>
+      <c r="J20" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1">
         <v>25</v>
       </c>
@@ -2361,19 +2427,19 @@
         <v>42493</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D21" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E21" t="s">
-        <v>400</v>
-      </c>
-      <c r="I21" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>401</v>
+      </c>
+      <c r="J21" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1">
         <v>128</v>
       </c>
@@ -2381,28 +2447,28 @@
         <v>43269</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D22" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E22" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F22" s="2">
         <v>43259</v>
       </c>
-      <c r="G22" s="2">
+      <c r="H22" s="2">
         <v>43269</v>
       </c>
-      <c r="H22" t="s">
-        <v>229</v>
-      </c>
       <c r="I22" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>230</v>
+      </c>
+      <c r="J22" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1">
         <v>94</v>
       </c>
@@ -2410,19 +2476,19 @@
         <v>42942</v>
       </c>
       <c r="C23" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D23" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E23" t="s">
-        <v>401</v>
-      </c>
-      <c r="I23" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>402</v>
+      </c>
+      <c r="J23" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1">
         <v>109</v>
       </c>
@@ -2430,28 +2496,28 @@
         <v>43103</v>
       </c>
       <c r="C24" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D24" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E24" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F24" s="2">
         <v>43097</v>
       </c>
-      <c r="G24" s="2">
+      <c r="H24" s="2">
         <v>43103</v>
       </c>
-      <c r="H24" t="s">
-        <v>413</v>
-      </c>
       <c r="I24" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>414</v>
+      </c>
+      <c r="J24" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1">
         <v>100</v>
       </c>
@@ -2459,28 +2525,28 @@
         <v>42955</v>
       </c>
       <c r="C25" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D25" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E25" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F25" s="2">
         <v>42947</v>
       </c>
-      <c r="G25" s="2">
+      <c r="H25" s="2">
         <v>42954</v>
       </c>
-      <c r="H25" t="s">
-        <v>233</v>
-      </c>
       <c r="I25" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>234</v>
+      </c>
+      <c r="J25" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1">
         <v>164</v>
       </c>
@@ -2488,28 +2554,28 @@
         <v>43557</v>
       </c>
       <c r="C26" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D26" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E26" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F26" s="2">
         <v>43550</v>
       </c>
-      <c r="G26" s="2">
+      <c r="H26" s="2">
         <v>43558</v>
       </c>
-      <c r="H26" t="s">
-        <v>233</v>
-      </c>
       <c r="I26" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>234</v>
+      </c>
+      <c r="J26" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1">
         <v>167</v>
       </c>
@@ -2517,28 +2583,28 @@
         <v>43623</v>
       </c>
       <c r="C27" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D27" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E27" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F27" s="2">
         <v>43619</v>
       </c>
-      <c r="G27" s="2">
+      <c r="H27" s="2">
         <v>43623</v>
       </c>
-      <c r="H27" t="s">
-        <v>414</v>
-      </c>
       <c r="I27" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>415</v>
+      </c>
+      <c r="J27" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1">
         <v>130</v>
       </c>
@@ -2546,28 +2612,28 @@
         <v>43269</v>
       </c>
       <c r="C28" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D28" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E28" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F28" s="2">
         <v>43259</v>
       </c>
-      <c r="G28" s="2">
+      <c r="H28" s="2">
         <v>43269</v>
       </c>
-      <c r="H28" t="s">
-        <v>235</v>
-      </c>
       <c r="I28" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>236</v>
+      </c>
+      <c r="J28" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1">
         <v>5</v>
       </c>
@@ -2575,13 +2641,13 @@
         <v>42401</v>
       </c>
       <c r="C29" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D29" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E29" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F29" s="2">
         <v>42391</v>
@@ -2589,14 +2655,14 @@
       <c r="G29" s="2">
         <v>42398</v>
       </c>
-      <c r="H29" t="s">
-        <v>415</v>
-      </c>
       <c r="I29" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>416</v>
+      </c>
+      <c r="J29" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1">
         <v>35</v>
       </c>
@@ -2604,19 +2670,19 @@
         <v>42524</v>
       </c>
       <c r="C30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D30" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E30" t="s">
-        <v>401</v>
-      </c>
-      <c r="I30" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>402</v>
+      </c>
+      <c r="J30" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1">
         <v>144</v>
       </c>
@@ -2624,28 +2690,28 @@
         <v>43410</v>
       </c>
       <c r="C31" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D31" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E31" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F31" s="2">
         <v>43403</v>
       </c>
-      <c r="G31" s="2">
+      <c r="H31" s="2">
         <v>43410</v>
       </c>
-      <c r="H31" t="s">
-        <v>35</v>
-      </c>
       <c r="I31" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>36</v>
+      </c>
+      <c r="J31" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1">
         <v>18</v>
       </c>
@@ -2653,13 +2719,13 @@
         <v>42464</v>
       </c>
       <c r="C32" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D32" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E32" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F32" s="2">
         <v>42457</v>
@@ -2667,37 +2733,37 @@
       <c r="G32" s="2">
         <v>42461</v>
       </c>
-      <c r="H32" t="s">
-        <v>239</v>
-      </c>
       <c r="I32" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>240</v>
+      </c>
+      <c r="J32" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="1">
         <v>204</v>
       </c>
       <c r="C33" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E33" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F33" s="2">
         <v>43921</v>
       </c>
-      <c r="G33" s="2">
+      <c r="H33" s="2">
         <v>43924</v>
       </c>
-      <c r="H33" t="s">
-        <v>416</v>
-      </c>
       <c r="I33" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>417</v>
+      </c>
+      <c r="J33" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1">
         <v>3</v>
       </c>
@@ -2705,13 +2771,13 @@
         <v>42388</v>
       </c>
       <c r="C34" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D34" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E34" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F34" s="2">
         <v>42382</v>
@@ -2719,14 +2785,14 @@
       <c r="G34" s="2">
         <v>42384</v>
       </c>
-      <c r="H34" t="s">
-        <v>417</v>
-      </c>
       <c r="I34" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>418</v>
+      </c>
+      <c r="J34" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1">
         <v>61</v>
       </c>
@@ -2734,19 +2800,19 @@
         <v>42795</v>
       </c>
       <c r="C35" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D35" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E35" t="s">
-        <v>400</v>
-      </c>
-      <c r="I35" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>401</v>
+      </c>
+      <c r="J35" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1">
         <v>33</v>
       </c>
@@ -2754,13 +2820,13 @@
         <v>42521</v>
       </c>
       <c r="C36" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D36" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E36" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F36" s="2">
         <v>42514</v>
@@ -2768,14 +2834,14 @@
       <c r="G36" s="2">
         <v>42517</v>
       </c>
-      <c r="H36" t="s">
-        <v>242</v>
-      </c>
       <c r="I36" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>243</v>
+      </c>
+      <c r="J36" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1">
         <v>105</v>
       </c>
@@ -2783,28 +2849,28 @@
         <v>42996</v>
       </c>
       <c r="C37" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D37" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E37" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F37" s="2">
         <v>42986</v>
       </c>
-      <c r="G37" s="2">
+      <c r="H37" s="2">
         <v>42996</v>
       </c>
-      <c r="H37" t="s">
-        <v>243</v>
-      </c>
       <c r="I37" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>244</v>
+      </c>
+      <c r="J37" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1">
         <v>177</v>
       </c>
@@ -2812,19 +2878,19 @@
         <v>43731</v>
       </c>
       <c r="C38" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D38" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E38" t="s">
-        <v>400</v>
-      </c>
-      <c r="I38" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>401</v>
+      </c>
+      <c r="J38" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="1">
         <v>154</v>
       </c>
@@ -2832,28 +2898,28 @@
         <v>43458</v>
       </c>
       <c r="C39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D39" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E39" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F39" s="2">
         <v>43453</v>
       </c>
-      <c r="G39" s="2">
+      <c r="H39" s="2">
         <v>43458</v>
       </c>
-      <c r="H39" t="s">
-        <v>244</v>
-      </c>
       <c r="I39" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>245</v>
+      </c>
+      <c r="J39" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="1">
         <v>184</v>
       </c>
@@ -2861,19 +2927,19 @@
         <v>43790</v>
       </c>
       <c r="C40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D40" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E40" t="s">
-        <v>401</v>
-      </c>
-      <c r="I40" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>402</v>
+      </c>
+      <c r="J40" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="1">
         <v>7</v>
       </c>
@@ -2881,13 +2947,13 @@
         <v>42401</v>
       </c>
       <c r="C41" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D41" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E41" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F41" s="2">
         <v>42395</v>
@@ -2895,14 +2961,14 @@
       <c r="G41" s="2">
         <v>42398</v>
       </c>
-      <c r="H41" t="s">
-        <v>246</v>
-      </c>
       <c r="I41" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>247</v>
+      </c>
+      <c r="J41" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="1">
         <v>113</v>
       </c>
@@ -2910,28 +2976,28 @@
         <v>43178</v>
       </c>
       <c r="C42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D42" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E42" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F42" s="2">
         <v>43168</v>
       </c>
-      <c r="G42" s="2">
+      <c r="H42" s="2">
         <v>43178</v>
       </c>
-      <c r="H42" t="s">
-        <v>247</v>
-      </c>
       <c r="I42" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>248</v>
+      </c>
+      <c r="J42" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="1">
         <v>48</v>
       </c>
@@ -2939,19 +3005,19 @@
         <v>42621</v>
       </c>
       <c r="C43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D43" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E43" t="s">
-        <v>400</v>
-      </c>
-      <c r="I43" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>401</v>
+      </c>
+      <c r="J43" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="1">
         <v>17</v>
       </c>
@@ -2959,19 +3025,19 @@
         <v>42459</v>
       </c>
       <c r="C44" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D44" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E44" t="s">
-        <v>400</v>
-      </c>
-      <c r="I44" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>401</v>
+      </c>
+      <c r="J44" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="1">
         <v>11</v>
       </c>
@@ -2979,13 +3045,13 @@
         <v>42433</v>
       </c>
       <c r="C45" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D45" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E45" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F45" s="2">
         <v>42430</v>
@@ -2993,14 +3059,14 @@
       <c r="G45" s="2">
         <v>42432</v>
       </c>
-      <c r="H45" t="s">
-        <v>418</v>
-      </c>
       <c r="I45" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>419</v>
+      </c>
+      <c r="J45" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="1">
         <v>152</v>
       </c>
@@ -3008,28 +3074,28 @@
         <v>43437</v>
       </c>
       <c r="C46" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D46" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E46" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F46" s="2">
         <v>43430</v>
       </c>
-      <c r="G46" s="2">
+      <c r="H46" s="2">
         <v>43437</v>
       </c>
-      <c r="H46" t="s">
-        <v>251</v>
-      </c>
       <c r="I46" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>252</v>
+      </c>
+      <c r="J46" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="1">
         <v>49</v>
       </c>
@@ -3037,19 +3103,19 @@
         <v>42635</v>
       </c>
       <c r="C47" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D47" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E47" t="s">
-        <v>400</v>
-      </c>
-      <c r="I47" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>401</v>
+      </c>
+      <c r="J47" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="1">
         <v>51</v>
       </c>
@@ -3057,13 +3123,13 @@
         <v>42643</v>
       </c>
       <c r="C48" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D48" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E48" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F48" s="2">
         <v>42640</v>
@@ -3071,14 +3137,14 @@
       <c r="G48" s="2">
         <v>42643</v>
       </c>
-      <c r="H48" t="s">
-        <v>419</v>
-      </c>
       <c r="I48" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>420</v>
+      </c>
+      <c r="J48" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="1">
         <v>43</v>
       </c>
@@ -3086,13 +3152,13 @@
         <v>42556</v>
       </c>
       <c r="C49" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D49" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E49" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F49" s="2">
         <v>42544</v>
@@ -3100,14 +3166,14 @@
       <c r="G49" s="2">
         <v>42556</v>
       </c>
-      <c r="H49" t="s">
-        <v>254</v>
-      </c>
       <c r="I49" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>255</v>
+      </c>
+      <c r="J49" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="1">
         <v>134</v>
       </c>
@@ -3115,51 +3181,51 @@
         <v>43283</v>
       </c>
       <c r="C50" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D50" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E50" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F50" s="2">
         <v>43276</v>
       </c>
-      <c r="G50" s="2">
+      <c r="H50" s="2">
         <v>43283</v>
       </c>
-      <c r="H50" t="s">
-        <v>255</v>
-      </c>
       <c r="I50" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>256</v>
+      </c>
+      <c r="J50" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="1">
         <v>196</v>
       </c>
       <c r="C51" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E51" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F51" s="2">
         <v>42822</v>
       </c>
-      <c r="G51" s="2">
+      <c r="H51" s="2">
         <v>42829</v>
       </c>
-      <c r="H51" t="s">
-        <v>420</v>
-      </c>
       <c r="I51" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>421</v>
+      </c>
+      <c r="J51" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="1">
         <v>119</v>
       </c>
@@ -3167,19 +3233,19 @@
         <v>43194</v>
       </c>
       <c r="C52" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D52" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E52" t="s">
-        <v>401</v>
-      </c>
-      <c r="I52" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>402</v>
+      </c>
+      <c r="J52" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="1">
         <v>165</v>
       </c>
@@ -3187,28 +3253,28 @@
         <v>43619</v>
       </c>
       <c r="C53" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D53" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E53" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F53" s="2">
         <v>43613</v>
       </c>
-      <c r="G53" s="2">
+      <c r="H53" s="2">
         <v>43619</v>
       </c>
-      <c r="H53" t="s">
-        <v>257</v>
-      </c>
       <c r="I53" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>258</v>
+      </c>
+      <c r="J53" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="1">
         <v>38</v>
       </c>
@@ -3216,13 +3282,13 @@
         <v>42543</v>
       </c>
       <c r="C54" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D54" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E54" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F54" s="2">
         <v>42542</v>
@@ -3230,14 +3296,14 @@
       <c r="G54" s="2">
         <v>42544</v>
       </c>
-      <c r="H54" t="s">
-        <v>258</v>
-      </c>
       <c r="I54" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>259</v>
+      </c>
+      <c r="J54" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="1">
         <v>8</v>
       </c>
@@ -3245,13 +3311,13 @@
         <v>42422</v>
       </c>
       <c r="C55" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D55" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E55" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F55" s="2">
         <v>42416</v>
@@ -3259,14 +3325,14 @@
       <c r="G55" s="2">
         <v>42419</v>
       </c>
-      <c r="H55" t="s">
-        <v>259</v>
-      </c>
       <c r="I55" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>260</v>
+      </c>
+      <c r="J55" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="1">
         <v>103</v>
       </c>
@@ -3274,28 +3340,28 @@
         <v>42979</v>
       </c>
       <c r="C56" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D56" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E56" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F56" s="2">
         <v>42971</v>
       </c>
-      <c r="G56" s="2">
+      <c r="H56" s="2">
         <v>42979</v>
       </c>
-      <c r="H56" t="s">
-        <v>260</v>
-      </c>
       <c r="I56" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>261</v>
+      </c>
+      <c r="J56" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="1">
         <v>65</v>
       </c>
@@ -3303,28 +3369,28 @@
         <v>42807</v>
       </c>
       <c r="C57" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D57" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E57" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F57" s="2">
         <v>42800</v>
       </c>
-      <c r="G57" s="2">
+      <c r="H57" s="2">
         <v>42807</v>
       </c>
-      <c r="H57" t="s">
-        <v>421</v>
-      </c>
       <c r="I57" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>422</v>
+      </c>
+      <c r="J57" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="1">
         <v>29</v>
       </c>
@@ -3332,13 +3398,13 @@
         <v>42508</v>
       </c>
       <c r="C58" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D58" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E58" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F58" s="2">
         <v>42503</v>
@@ -3346,14 +3412,14 @@
       <c r="G58" s="2">
         <v>42507</v>
       </c>
-      <c r="H58" t="s">
-        <v>422</v>
-      </c>
       <c r="I58" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>423</v>
+      </c>
+      <c r="J58" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="1">
         <v>78</v>
       </c>
@@ -3361,28 +3427,28 @@
         <v>42830</v>
       </c>
       <c r="C59" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D59" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E59" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F59" s="2">
         <v>42823</v>
       </c>
-      <c r="G59" s="2">
+      <c r="H59" s="2">
         <v>42830</v>
       </c>
-      <c r="H59" t="s">
-        <v>263</v>
-      </c>
       <c r="I59" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>264</v>
+      </c>
+      <c r="J59" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="1">
         <v>52</v>
       </c>
@@ -3390,13 +3456,13 @@
         <v>42643</v>
       </c>
       <c r="C60" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D60" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E60" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F60" s="2">
         <v>42640</v>
@@ -3404,14 +3470,14 @@
       <c r="G60" s="2">
         <v>42643</v>
       </c>
-      <c r="H60" t="s">
-        <v>264</v>
-      </c>
       <c r="I60" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>265</v>
+      </c>
+      <c r="J60" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="1">
         <v>163</v>
       </c>
@@ -3419,28 +3485,28 @@
         <v>43557</v>
       </c>
       <c r="C61" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D61" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E61" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F61" s="2">
         <v>43550</v>
       </c>
-      <c r="G61" s="2">
+      <c r="H61" s="2">
         <v>43557</v>
       </c>
-      <c r="H61" t="s">
-        <v>423</v>
-      </c>
       <c r="I61" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>424</v>
+      </c>
+      <c r="J61" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="1">
         <v>133</v>
       </c>
@@ -3448,28 +3514,28 @@
         <v>43283</v>
       </c>
       <c r="C62" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D62" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E62" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F62" s="2">
         <v>43276</v>
       </c>
-      <c r="G62" s="2">
+      <c r="H62" s="2">
         <v>43283</v>
       </c>
-      <c r="H62" t="s">
-        <v>424</v>
-      </c>
       <c r="I62" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>425</v>
+      </c>
+      <c r="J62" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="1">
         <v>98</v>
       </c>
@@ -3477,19 +3543,19 @@
         <v>42942</v>
       </c>
       <c r="C63" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D63" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E63" t="s">
-        <v>400</v>
-      </c>
-      <c r="I63" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>401</v>
+      </c>
+      <c r="J63" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="1">
         <v>75</v>
       </c>
@@ -3497,19 +3563,19 @@
         <v>42829</v>
       </c>
       <c r="C64" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D64" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E64" t="s">
-        <v>400</v>
-      </c>
-      <c r="I64" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>401</v>
+      </c>
+      <c r="J64" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="1">
         <v>47</v>
       </c>
@@ -3517,19 +3583,19 @@
         <v>42621</v>
       </c>
       <c r="C65" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D65" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E65" t="s">
-        <v>401</v>
-      </c>
-      <c r="I65" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>402</v>
+      </c>
+      <c r="J65" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="1">
         <v>63</v>
       </c>
@@ -3537,19 +3603,19 @@
         <v>42796</v>
       </c>
       <c r="C66" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D66" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E66" t="s">
-        <v>401</v>
-      </c>
-      <c r="I66" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>402</v>
+      </c>
+      <c r="J66" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="1">
         <v>145</v>
       </c>
@@ -3557,28 +3623,28 @@
         <v>43417</v>
       </c>
       <c r="C67" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D67" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E67" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F67" s="2">
         <v>43411</v>
       </c>
-      <c r="G67" s="2">
+      <c r="H67" s="2">
         <v>43417</v>
       </c>
-      <c r="H67" t="s">
-        <v>71</v>
-      </c>
       <c r="I67" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>72</v>
+      </c>
+      <c r="J67" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="1">
         <v>153</v>
       </c>
@@ -3586,28 +3652,28 @@
         <v>43458</v>
       </c>
       <c r="C68" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D68" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E68" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F68" s="2">
         <v>43453</v>
       </c>
-      <c r="G68" s="2">
+      <c r="H68" s="2">
         <v>43458</v>
       </c>
-      <c r="H68" t="s">
-        <v>425</v>
-      </c>
       <c r="I68" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>426</v>
+      </c>
+      <c r="J68" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="1">
         <v>14</v>
       </c>
@@ -3615,19 +3681,19 @@
         <v>42459</v>
       </c>
       <c r="C69" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D69" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E69" t="s">
-        <v>401</v>
-      </c>
-      <c r="I69" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>402</v>
+      </c>
+      <c r="J69" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="1">
         <v>53</v>
       </c>
@@ -3635,19 +3701,19 @@
         <v>42706</v>
       </c>
       <c r="C70" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D70" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E70" t="s">
-        <v>400</v>
-      </c>
-      <c r="I70" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>401</v>
+      </c>
+      <c r="J70" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="1">
         <v>142</v>
       </c>
@@ -3655,28 +3721,28 @@
         <v>43384</v>
       </c>
       <c r="C71" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D71" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E71" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F71" s="2">
         <v>43377</v>
       </c>
-      <c r="G71" s="2">
+      <c r="H71" s="2">
         <v>43384</v>
       </c>
-      <c r="H71" t="s">
-        <v>274</v>
-      </c>
       <c r="I71" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>275</v>
+      </c>
+      <c r="J71" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="1">
         <v>123</v>
       </c>
@@ -3684,19 +3750,19 @@
         <v>43256</v>
       </c>
       <c r="C72" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D72" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E72" t="s">
-        <v>400</v>
-      </c>
-      <c r="I72" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>401</v>
+      </c>
+      <c r="J72" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="1">
         <v>2</v>
       </c>
@@ -3704,13 +3770,13 @@
         <v>42388</v>
       </c>
       <c r="C73" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D73" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E73" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F73" s="2">
         <v>42382</v>
@@ -3718,14 +3784,14 @@
       <c r="G73" s="2">
         <v>42384</v>
       </c>
-      <c r="H73" t="s">
-        <v>276</v>
-      </c>
       <c r="I73" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>277</v>
+      </c>
+      <c r="J73" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="1">
         <v>150</v>
       </c>
@@ -3733,28 +3799,28 @@
         <v>43437</v>
       </c>
       <c r="C74" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D74" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E74" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F74" s="2">
         <v>43430</v>
       </c>
-      <c r="G74" s="2">
+      <c r="H74" s="2">
         <v>43437</v>
       </c>
-      <c r="H74" t="s">
-        <v>277</v>
-      </c>
       <c r="I74" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>278</v>
+      </c>
+      <c r="J74" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="1">
         <v>37</v>
       </c>
@@ -3762,13 +3828,13 @@
         <v>42543</v>
       </c>
       <c r="C75" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D75" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E75" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F75" s="2">
         <v>42542</v>
@@ -3776,14 +3842,14 @@
       <c r="G75" s="2">
         <v>42544</v>
       </c>
-      <c r="H75" t="s">
-        <v>278</v>
-      </c>
       <c r="I75" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>279</v>
+      </c>
+      <c r="J75" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="1">
         <v>19</v>
       </c>
@@ -3791,13 +3857,13 @@
         <v>42464</v>
       </c>
       <c r="C76" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D76" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E76" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F76" s="2">
         <v>42457</v>
@@ -3805,14 +3871,14 @@
       <c r="G76" s="2">
         <v>42461</v>
       </c>
-      <c r="H76" t="s">
-        <v>280</v>
-      </c>
       <c r="I76" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>281</v>
+      </c>
+      <c r="J76" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="1">
         <v>173</v>
       </c>
@@ -3820,28 +3886,28 @@
         <v>43686</v>
       </c>
       <c r="C77" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D77" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E77" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F77" s="2">
         <v>43678</v>
       </c>
-      <c r="G77" s="2">
+      <c r="H77" s="2">
         <v>43686</v>
       </c>
-      <c r="H77" t="s">
-        <v>280</v>
-      </c>
       <c r="I77" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>281</v>
+      </c>
+      <c r="J77" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="1">
         <v>166</v>
       </c>
@@ -3849,28 +3915,28 @@
         <v>43619</v>
       </c>
       <c r="C78" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D78" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E78" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F78" s="2">
         <v>43613</v>
       </c>
-      <c r="G78" s="2">
+      <c r="H78" s="2">
         <v>43620</v>
       </c>
-      <c r="H78" t="s">
-        <v>426</v>
-      </c>
       <c r="I78" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>427</v>
+      </c>
+      <c r="J78" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="1">
         <v>132</v>
       </c>
@@ -3878,28 +3944,28 @@
         <v>43271</v>
       </c>
       <c r="C79" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D79" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E79" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F79" s="2">
         <v>43266</v>
       </c>
-      <c r="G79" s="2">
+      <c r="H79" s="2">
         <v>43271</v>
       </c>
-      <c r="H79" t="s">
-        <v>282</v>
-      </c>
       <c r="I79" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>283</v>
+      </c>
+      <c r="J79" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="1">
         <v>0</v>
       </c>
@@ -3907,13 +3973,13 @@
         <v>42374</v>
       </c>
       <c r="C80" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D80" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E80" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F80" s="2">
         <v>42366</v>
@@ -3921,60 +3987,60 @@
       <c r="G80" s="2">
         <v>42373</v>
       </c>
-      <c r="H80" t="s">
-        <v>283</v>
-      </c>
       <c r="I80" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>284</v>
+      </c>
+      <c r="J80" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="1">
         <v>198</v>
       </c>
       <c r="C81" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E81" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F81" s="2">
         <v>43538</v>
       </c>
-      <c r="G81" s="2">
+      <c r="H81" s="2">
         <v>43544</v>
       </c>
-      <c r="H81" t="s">
-        <v>427</v>
-      </c>
       <c r="I81" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>428</v>
+      </c>
+      <c r="J81" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="1">
         <v>197</v>
       </c>
       <c r="C82" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E82" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F82" s="2">
         <v>43538</v>
       </c>
-      <c r="G82" s="2">
+      <c r="H82" s="2">
         <v>43543</v>
       </c>
-      <c r="H82" t="s">
-        <v>428</v>
-      </c>
       <c r="I82" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>429</v>
+      </c>
+      <c r="J82" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="1">
         <v>155</v>
       </c>
@@ -3982,28 +4048,28 @@
         <v>43467</v>
       </c>
       <c r="C83" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D83" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E83" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F83" s="2">
         <v>43461</v>
       </c>
-      <c r="G83" s="2">
+      <c r="H83" s="2">
         <v>43467</v>
       </c>
-      <c r="H83" t="s">
-        <v>429</v>
-      </c>
       <c r="I83" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>430</v>
+      </c>
+      <c r="J83" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="1">
         <v>4</v>
       </c>
@@ -4011,13 +4077,13 @@
         <v>42401</v>
       </c>
       <c r="C84" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D84" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E84" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F84" s="2">
         <v>42391</v>
@@ -4025,14 +4091,14 @@
       <c r="G84" s="2">
         <v>42398</v>
       </c>
-      <c r="H84" t="s">
-        <v>430</v>
-      </c>
       <c r="I84" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>431</v>
+      </c>
+      <c r="J84" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="1">
         <v>69</v>
       </c>
@@ -4040,19 +4106,19 @@
         <v>42814</v>
       </c>
       <c r="C85" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D85" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E85" t="s">
-        <v>401</v>
-      </c>
-      <c r="I85" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>402</v>
+      </c>
+      <c r="J85" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="1">
         <v>141</v>
       </c>
@@ -4060,28 +4126,28 @@
         <v>43384</v>
       </c>
       <c r="C86" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D86" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E86" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F86" s="2">
         <v>43377</v>
       </c>
-      <c r="G86" s="2">
+      <c r="H86" s="2">
         <v>43384</v>
       </c>
-      <c r="H86" t="s">
-        <v>287</v>
-      </c>
       <c r="I86" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>288</v>
+      </c>
+      <c r="J86" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="1">
         <v>70</v>
       </c>
@@ -4089,19 +4155,19 @@
         <v>42814</v>
       </c>
       <c r="C87" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D87" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E87" t="s">
-        <v>401</v>
-      </c>
-      <c r="I87" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>402</v>
+      </c>
+      <c r="J87" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="1">
         <v>44</v>
       </c>
@@ -4109,13 +4175,13 @@
         <v>42556</v>
       </c>
       <c r="C88" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D88" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E88" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F88" s="2">
         <v>42544</v>
@@ -4123,14 +4189,14 @@
       <c r="G88" s="2">
         <v>42552</v>
       </c>
-      <c r="H88" t="s">
-        <v>431</v>
-      </c>
       <c r="I88" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>432</v>
+      </c>
+      <c r="J88" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="1">
         <v>41</v>
       </c>
@@ -4138,13 +4204,13 @@
         <v>42552</v>
       </c>
       <c r="C89" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D89" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E89" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F89" s="2">
         <v>42550</v>
@@ -4152,37 +4218,37 @@
       <c r="G89" s="2">
         <v>42551</v>
       </c>
-      <c r="H89" t="s">
-        <v>290</v>
-      </c>
       <c r="I89" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>291</v>
+      </c>
+      <c r="J89" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="1">
         <v>201</v>
       </c>
       <c r="C90" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E90" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F90" s="2">
         <v>43888</v>
       </c>
-      <c r="G90" s="2">
+      <c r="H90" s="2">
         <v>43893</v>
       </c>
-      <c r="H90" t="s">
-        <v>432</v>
-      </c>
       <c r="I90" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>433</v>
+      </c>
+      <c r="J90" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="1">
         <v>135</v>
       </c>
@@ -4190,28 +4256,28 @@
         <v>43340</v>
       </c>
       <c r="C91" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D91" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E91" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F91" s="2">
         <v>43335</v>
       </c>
-      <c r="G91" s="2">
+      <c r="H91" s="2">
         <v>43340</v>
       </c>
-      <c r="H91" t="s">
-        <v>93</v>
-      </c>
       <c r="I91" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>94</v>
+      </c>
+      <c r="J91" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="1">
         <v>12</v>
       </c>
@@ -4219,13 +4285,13 @@
         <v>42436</v>
       </c>
       <c r="C92" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D92" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E92" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F92" s="2">
         <v>42432</v>
@@ -4233,14 +4299,14 @@
       <c r="G92" s="2">
         <v>42433</v>
       </c>
-      <c r="H92" t="s">
-        <v>292</v>
-      </c>
       <c r="I92" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>293</v>
+      </c>
+      <c r="J92" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="1">
         <v>23</v>
       </c>
@@ -4248,13 +4314,13 @@
         <v>42485</v>
       </c>
       <c r="C93" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D93" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E93" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F93" s="2">
         <v>42479</v>
@@ -4262,14 +4328,14 @@
       <c r="G93" s="2">
         <v>42482</v>
       </c>
-      <c r="H93" t="s">
-        <v>293</v>
-      </c>
       <c r="I93" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>294</v>
+      </c>
+      <c r="J93" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="1">
         <v>24</v>
       </c>
@@ -4277,13 +4343,13 @@
         <v>42485</v>
       </c>
       <c r="C94" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D94" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E94" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F94" s="2">
         <v>42479</v>
@@ -4291,14 +4357,14 @@
       <c r="G94" s="2">
         <v>42482</v>
       </c>
-      <c r="H94" t="s">
-        <v>433</v>
-      </c>
       <c r="I94" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>434</v>
+      </c>
+      <c r="J94" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="1">
         <v>162</v>
       </c>
@@ -4306,28 +4372,28 @@
         <v>43523</v>
       </c>
       <c r="C95" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D95" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E95" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F95" s="2">
         <v>43517</v>
       </c>
-      <c r="G95" s="2">
+      <c r="H95" s="2">
         <v>43523</v>
       </c>
-      <c r="H95" t="s">
-        <v>434</v>
-      </c>
       <c r="I95" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>435</v>
+      </c>
+      <c r="J95" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="1">
         <v>67</v>
       </c>
@@ -4335,19 +4401,19 @@
         <v>42810</v>
       </c>
       <c r="C96" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D96" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E96" t="s">
-        <v>401</v>
-      </c>
-      <c r="I96" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>402</v>
+      </c>
+      <c r="J96" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="1">
         <v>129</v>
       </c>
@@ -4355,28 +4421,28 @@
         <v>43269</v>
       </c>
       <c r="C97" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D97" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E97" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F97" s="2">
         <v>43259</v>
       </c>
-      <c r="G97" s="2">
+      <c r="H97" s="2">
         <v>43269</v>
       </c>
-      <c r="H97" t="s">
-        <v>297</v>
-      </c>
       <c r="I97" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>298</v>
+      </c>
+      <c r="J97" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="1">
         <v>110</v>
       </c>
@@ -4384,28 +4450,28 @@
         <v>43103</v>
       </c>
       <c r="C98" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D98" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E98" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F98" s="2">
         <v>43097</v>
       </c>
-      <c r="G98" s="2">
+      <c r="H98" s="2">
         <v>43103</v>
       </c>
-      <c r="H98" t="s">
-        <v>298</v>
-      </c>
       <c r="I98" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>299</v>
+      </c>
+      <c r="J98" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="1">
         <v>87</v>
       </c>
@@ -4413,28 +4479,28 @@
         <v>42905</v>
       </c>
       <c r="C99" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D99" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E99" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F99" s="2">
         <v>42895</v>
       </c>
-      <c r="G99" s="2">
+      <c r="H99" s="2">
         <v>42905</v>
       </c>
-      <c r="H99" t="s">
-        <v>435</v>
-      </c>
       <c r="I99" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>436</v>
+      </c>
+      <c r="J99" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="1">
         <v>16</v>
       </c>
@@ -4442,19 +4508,19 @@
         <v>42459</v>
       </c>
       <c r="C100" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D100" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E100" t="s">
-        <v>400</v>
-      </c>
-      <c r="I100" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>401</v>
+      </c>
+      <c r="J100" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="1">
         <v>50</v>
       </c>
@@ -4462,19 +4528,19 @@
         <v>42635</v>
       </c>
       <c r="C101" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D101" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E101" t="s">
-        <v>401</v>
-      </c>
-      <c r="I101" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>402</v>
+      </c>
+      <c r="J101" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="1">
         <v>57</v>
       </c>
@@ -4482,13 +4548,13 @@
         <v>42740</v>
       </c>
       <c r="C102" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D102" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E102" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F102" s="2">
         <v>42738</v>
@@ -4496,14 +4562,14 @@
       <c r="G102" s="2">
         <v>42739</v>
       </c>
-      <c r="H102" t="s">
-        <v>436</v>
-      </c>
       <c r="I102" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>437</v>
+      </c>
+      <c r="J102" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="1">
         <v>176</v>
       </c>
@@ -4511,28 +4577,28 @@
         <v>43686</v>
       </c>
       <c r="C103" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D103" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E103" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F103" s="2">
         <v>43678</v>
       </c>
-      <c r="G103" s="2">
+      <c r="H103" s="2">
         <v>43686</v>
       </c>
-      <c r="H103" t="s">
-        <v>437</v>
-      </c>
       <c r="I103" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>438</v>
+      </c>
+      <c r="J103" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="1">
         <v>59</v>
       </c>
@@ -4540,19 +4606,19 @@
         <v>42794</v>
       </c>
       <c r="C104" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D104" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E104" t="s">
-        <v>400</v>
-      </c>
-      <c r="I104" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>401</v>
+      </c>
+      <c r="J104" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="1">
         <v>80</v>
       </c>
@@ -4560,28 +4626,28 @@
         <v>42888</v>
       </c>
       <c r="C105" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D105" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E105" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F105" s="2">
         <v>42879</v>
       </c>
-      <c r="G105" s="2">
+      <c r="H105" s="2">
         <v>42888</v>
       </c>
-      <c r="H105" t="s">
-        <v>438</v>
-      </c>
       <c r="I105" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>439</v>
+      </c>
+      <c r="J105" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="1">
         <v>112</v>
       </c>
@@ -4589,28 +4655,28 @@
         <v>43166</v>
       </c>
       <c r="C106" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D106" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E106" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F106" s="2">
         <v>43161</v>
       </c>
-      <c r="G106" s="2">
+      <c r="H106" s="2">
         <v>43166</v>
       </c>
-      <c r="H106" t="s">
-        <v>306</v>
-      </c>
       <c r="I106" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>307</v>
+      </c>
+      <c r="J106" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="1">
         <v>77</v>
       </c>
@@ -4618,28 +4684,28 @@
         <v>42830</v>
       </c>
       <c r="C107" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D107" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E107" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F107" s="2">
         <v>42823</v>
       </c>
-      <c r="G107" s="2">
+      <c r="H107" s="2">
         <v>42830</v>
       </c>
-      <c r="H107" t="s">
-        <v>439</v>
-      </c>
       <c r="I107" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>440</v>
+      </c>
+      <c r="J107" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="1">
         <v>46</v>
       </c>
@@ -4647,13 +4713,13 @@
         <v>42619</v>
       </c>
       <c r="C108" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D108" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E108" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F108" s="2">
         <v>42607</v>
@@ -4661,14 +4727,14 @@
       <c r="G108" s="2">
         <v>42615</v>
       </c>
-      <c r="H108" t="s">
-        <v>440</v>
-      </c>
       <c r="I108" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>441</v>
+      </c>
+      <c r="J108" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="1">
         <v>180</v>
       </c>
@@ -4676,28 +4742,28 @@
         <v>43734</v>
       </c>
       <c r="C109" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D109" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E109" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F109" s="2">
         <v>43728</v>
       </c>
-      <c r="G109" s="2">
+      <c r="H109" s="2">
         <v>43734</v>
       </c>
-      <c r="H109" t="s">
-        <v>441</v>
-      </c>
       <c r="I109" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>442</v>
+      </c>
+      <c r="J109" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="1">
         <v>146</v>
       </c>
@@ -4705,28 +4771,28 @@
         <v>43417</v>
       </c>
       <c r="C110" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D110" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E110" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F110" s="2">
         <v>43411</v>
       </c>
-      <c r="G110" s="2">
+      <c r="H110" s="2">
         <v>43417</v>
       </c>
-      <c r="H110" t="s">
-        <v>442</v>
-      </c>
       <c r="I110" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>443</v>
+      </c>
+      <c r="J110" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="1">
         <v>143</v>
       </c>
@@ -4734,28 +4800,28 @@
         <v>43410</v>
       </c>
       <c r="C111" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D111" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E111" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F111" s="2">
         <v>43403</v>
       </c>
-      <c r="G111" s="2">
+      <c r="H111" s="2">
         <v>43410</v>
       </c>
-      <c r="H111" t="s">
-        <v>311</v>
-      </c>
       <c r="I111" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>312</v>
+      </c>
+      <c r="J111" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="1">
         <v>174</v>
       </c>
@@ -4763,28 +4829,28 @@
         <v>43686</v>
       </c>
       <c r="C112" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D112" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E112" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F112" s="2">
         <v>43678</v>
       </c>
-      <c r="G112" s="2">
+      <c r="H112" s="2">
         <v>43686</v>
       </c>
-      <c r="H112" t="s">
-        <v>312</v>
-      </c>
       <c r="I112" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>313</v>
+      </c>
+      <c r="J112" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="1">
         <v>32</v>
       </c>
@@ -4792,13 +4858,13 @@
         <v>42513</v>
       </c>
       <c r="C113" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D113" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E113" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F113" s="2">
         <v>42508</v>
@@ -4806,14 +4872,14 @@
       <c r="G113" s="2">
         <v>42510</v>
       </c>
-      <c r="H113" t="s">
-        <v>115</v>
-      </c>
       <c r="I113" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>116</v>
+      </c>
+      <c r="J113" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="1">
         <v>170</v>
       </c>
@@ -4821,28 +4887,28 @@
         <v>43647</v>
       </c>
       <c r="C114" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D114" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E114" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F114" s="2">
         <v>43640</v>
       </c>
-      <c r="G114" s="2">
+      <c r="H114" s="2">
         <v>43647</v>
       </c>
-      <c r="H114" t="s">
-        <v>314</v>
-      </c>
       <c r="I114" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>315</v>
+      </c>
+      <c r="J114" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="1">
         <v>66</v>
       </c>
@@ -4850,28 +4916,28 @@
         <v>42807</v>
       </c>
       <c r="C115" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D115" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E115" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F115" s="2">
         <v>42800</v>
       </c>
-      <c r="G115" s="2">
+      <c r="H115" s="2">
         <v>42807</v>
       </c>
-      <c r="H115" t="s">
-        <v>315</v>
-      </c>
       <c r="I115" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>316</v>
+      </c>
+      <c r="J115" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="1">
         <v>56</v>
       </c>
@@ -4879,19 +4945,19 @@
         <v>42706</v>
       </c>
       <c r="C116" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D116" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E116" t="s">
-        <v>401</v>
-      </c>
-      <c r="I116" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>402</v>
+      </c>
+      <c r="J116" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="1">
         <v>39</v>
       </c>
@@ -4899,13 +4965,13 @@
         <v>42552</v>
       </c>
       <c r="C117" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D117" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E117" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F117" s="2">
         <v>42550</v>
@@ -4913,14 +4979,14 @@
       <c r="G117" s="2">
         <v>42551</v>
       </c>
-      <c r="H117" t="s">
-        <v>443</v>
-      </c>
       <c r="I117" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>444</v>
+      </c>
+      <c r="J117" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="1">
         <v>108</v>
       </c>
@@ -4928,28 +4994,28 @@
         <v>43021</v>
       </c>
       <c r="C118" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D118" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E118" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F118" s="2">
         <v>43012</v>
       </c>
-      <c r="G118" s="2">
+      <c r="H118" s="2">
         <v>43021</v>
       </c>
-      <c r="H118" t="s">
-        <v>318</v>
-      </c>
       <c r="I118" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>319</v>
+      </c>
+      <c r="J118" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="1">
         <v>181</v>
       </c>
@@ -4957,28 +5023,28 @@
         <v>43741</v>
       </c>
       <c r="C119" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D119" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E119" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F119" s="2">
         <v>43734</v>
       </c>
-      <c r="G119" s="2">
+      <c r="H119" s="2">
         <v>43741</v>
       </c>
-      <c r="H119" t="s">
-        <v>319</v>
-      </c>
       <c r="I119" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>320</v>
+      </c>
+      <c r="J119" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="1">
         <v>148</v>
       </c>
@@ -4986,28 +5052,28 @@
         <v>43437</v>
       </c>
       <c r="C120" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D120" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E120" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F120" s="2">
         <v>43430</v>
       </c>
-      <c r="G120" s="2">
+      <c r="H120" s="2">
         <v>43437</v>
       </c>
-      <c r="H120" t="s">
-        <v>444</v>
-      </c>
       <c r="I120" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+        <v>445</v>
+      </c>
+      <c r="J120" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="1">
         <v>190</v>
       </c>
@@ -5015,51 +5081,51 @@
         <v>43822</v>
       </c>
       <c r="C121" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D121" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E121" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F121" s="2">
         <v>43812</v>
       </c>
-      <c r="G121" s="2">
+      <c r="H121" s="2">
         <v>43822</v>
       </c>
-      <c r="H121" t="s">
-        <v>321</v>
-      </c>
       <c r="I121" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+        <v>322</v>
+      </c>
+      <c r="J121" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="1">
         <v>206</v>
       </c>
       <c r="C122" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E122" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F122" s="2">
         <v>43921</v>
       </c>
-      <c r="G122" s="2">
+      <c r="H122" s="2">
         <v>43927</v>
       </c>
-      <c r="H122" t="s">
-        <v>445</v>
-      </c>
       <c r="I122" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+        <v>446</v>
+      </c>
+      <c r="J122" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="1">
         <v>54</v>
       </c>
@@ -5067,19 +5133,19 @@
         <v>42706</v>
       </c>
       <c r="C123" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D123" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E123" t="s">
-        <v>400</v>
-      </c>
-      <c r="I123" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+        <v>401</v>
+      </c>
+      <c r="J123" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="1">
         <v>191</v>
       </c>
@@ -5087,28 +5153,28 @@
         <v>43822</v>
       </c>
       <c r="C124" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D124" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E124" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F124" s="2">
         <v>43812</v>
       </c>
-      <c r="G124" s="2">
+      <c r="H124" s="2">
         <v>43822</v>
       </c>
-      <c r="H124" t="s">
-        <v>323</v>
-      </c>
       <c r="I124" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+        <v>324</v>
+      </c>
+      <c r="J124" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="1">
         <v>168</v>
       </c>
@@ -5116,28 +5182,28 @@
         <v>43623</v>
       </c>
       <c r="C125" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D125" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E125" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F125" s="2">
         <v>43619</v>
       </c>
-      <c r="G125" s="2">
+      <c r="H125" s="2">
         <v>43623</v>
       </c>
-      <c r="H125" t="s">
-        <v>446</v>
-      </c>
       <c r="I125" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
+        <v>447</v>
+      </c>
+      <c r="J125" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="1">
         <v>92</v>
       </c>
@@ -5145,19 +5211,19 @@
         <v>42942</v>
       </c>
       <c r="C126" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D126" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E126" t="s">
-        <v>400</v>
-      </c>
-      <c r="I126" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+        <v>401</v>
+      </c>
+      <c r="J126" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="1">
         <v>81</v>
       </c>
@@ -5165,28 +5231,28 @@
         <v>42905</v>
       </c>
       <c r="C127" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D127" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E127" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F127" s="2">
         <v>42898</v>
       </c>
-      <c r="G127" s="2">
+      <c r="H127" s="2">
         <v>42905</v>
       </c>
-      <c r="H127" t="s">
-        <v>326</v>
-      </c>
       <c r="I127" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
+        <v>327</v>
+      </c>
+      <c r="J127" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="1">
         <v>169</v>
       </c>
@@ -5194,28 +5260,28 @@
         <v>43647</v>
       </c>
       <c r="C128" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D128" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E128" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F128" s="2">
         <v>43640</v>
       </c>
-      <c r="G128" s="2">
+      <c r="H128" s="2">
         <v>43647</v>
       </c>
-      <c r="H128" t="s">
-        <v>447</v>
-      </c>
       <c r="I128" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
+        <v>448</v>
+      </c>
+      <c r="J128" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="1">
         <v>91</v>
       </c>
@@ -5223,19 +5289,19 @@
         <v>42942</v>
       </c>
       <c r="C129" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D129" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E129" t="s">
-        <v>401</v>
-      </c>
-      <c r="I129" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
+        <v>402</v>
+      </c>
+      <c r="J129" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="1">
         <v>125</v>
       </c>
@@ -5243,28 +5309,28 @@
         <v>43258</v>
       </c>
       <c r="C130" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D130" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E130" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F130" s="2">
         <v>43255</v>
       </c>
-      <c r="G130" s="2">
+      <c r="H130" s="2">
         <v>43258</v>
       </c>
-      <c r="H130" t="s">
-        <v>329</v>
-      </c>
       <c r="I130" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
+        <v>330</v>
+      </c>
+      <c r="J130" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="1">
         <v>120</v>
       </c>
@@ -5272,19 +5338,19 @@
         <v>43194</v>
       </c>
       <c r="C131" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D131" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E131" t="s">
-        <v>400</v>
-      </c>
-      <c r="I131" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9">
+        <v>401</v>
+      </c>
+      <c r="J131" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="1">
         <v>45</v>
       </c>
@@ -5292,13 +5358,13 @@
         <v>42619</v>
       </c>
       <c r="C132" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D132" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="E132" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F132" s="2">
         <v>42607</v>
@@ -5306,14 +5372,14 @@
       <c r="G132" s="2">
         <v>42615</v>
       </c>
-      <c r="H132" t="s">
-        <v>448</v>
-      </c>
       <c r="I132" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
+        <v>449</v>
+      </c>
+      <c r="J132" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="1">
         <v>95</v>
       </c>
@@ -5321,19 +5387,19 @@
         <v>42942</v>
       </c>
       <c r="C133" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D133" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E133" t="s">
-        <v>401</v>
-      </c>
-      <c r="I133" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
+        <v>402</v>
+      </c>
+      <c r="J133" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="1">
         <v>149</v>
       </c>
@@ -5341,28 +5407,28 @@
         <v>43437</v>
       </c>
       <c r="C134" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D134" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E134" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F134" s="2">
         <v>43430</v>
       </c>
-      <c r="G134" s="2">
+      <c r="H134" s="2">
         <v>43437</v>
       </c>
-      <c r="H134" t="s">
-        <v>449</v>
-      </c>
       <c r="I134" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9">
+        <v>450</v>
+      </c>
+      <c r="J134" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="1">
         <v>124</v>
       </c>
@@ -5370,19 +5436,19 @@
         <v>43256</v>
       </c>
       <c r="C135" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D135" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E135" t="s">
-        <v>401</v>
-      </c>
-      <c r="I135" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
+        <v>402</v>
+      </c>
+      <c r="J135" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="1">
         <v>107</v>
       </c>
@@ -5390,28 +5456,28 @@
         <v>43021</v>
       </c>
       <c r="C136" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D136" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E136" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F136" s="2">
         <v>43012</v>
       </c>
-      <c r="G136" s="2">
+      <c r="H136" s="2">
         <v>43021</v>
       </c>
-      <c r="H136" t="s">
-        <v>450</v>
-      </c>
       <c r="I136" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
+        <v>451</v>
+      </c>
+      <c r="J136" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" s="1">
         <v>159</v>
       </c>
@@ -5419,28 +5485,28 @@
         <v>43511</v>
       </c>
       <c r="C137" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D137" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E137" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F137" s="2">
         <v>43504</v>
       </c>
-      <c r="G137" s="2">
+      <c r="H137" s="2">
         <v>43511</v>
       </c>
-      <c r="H137" t="s">
-        <v>335</v>
-      </c>
       <c r="I137" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9">
+        <v>336</v>
+      </c>
+      <c r="J137" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="1">
         <v>118</v>
       </c>
@@ -5448,28 +5514,28 @@
         <v>43178</v>
       </c>
       <c r="C138" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D138" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E138" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F138" s="2">
         <v>43168</v>
       </c>
-      <c r="G138" s="2">
+      <c r="H138" s="2">
         <v>43178</v>
       </c>
-      <c r="H138" t="s">
-        <v>336</v>
-      </c>
       <c r="I138" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9">
+        <v>337</v>
+      </c>
+      <c r="J138" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="1">
         <v>182</v>
       </c>
@@ -5477,28 +5543,28 @@
         <v>43741</v>
       </c>
       <c r="C139" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D139" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E139" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F139" s="2">
         <v>43734</v>
       </c>
-      <c r="G139" s="2">
+      <c r="H139" s="2">
         <v>43741</v>
       </c>
-      <c r="H139" t="s">
-        <v>336</v>
-      </c>
       <c r="I139" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9">
+        <v>337</v>
+      </c>
+      <c r="J139" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" s="1">
         <v>183</v>
       </c>
@@ -5506,19 +5572,19 @@
         <v>43790</v>
       </c>
       <c r="C140" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D140" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="E140" t="s">
-        <v>400</v>
-      </c>
-      <c r="I140" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9">
+        <v>401</v>
+      </c>
+      <c r="J140" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" s="1">
         <v>179</v>
       </c>
@@ -5526,28 +5592,28 @@
         <v>43734</v>
       </c>
       <c r="C141" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D141" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="E141" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F141" s="2">
         <v>43728</v>
       </c>
-      <c r="G141" s="2">
+      <c r="H141" s="2">
         <v>43734</v>
       </c>
-      <c r="H141" t="s">
-        <v>142</v>
-      </c>
       <c r="I141" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9">
+        <v>143</v>
+      </c>
+      <c r="J141" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="1">
         <v>187</v>
       </c>
@@ -5555,28 +5621,28 @@
         <v>43808</v>
       </c>
       <c r="C142" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D142" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E142" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F142" s="2">
         <v>43801</v>
       </c>
-      <c r="G142" s="2">
+      <c r="H142" s="2">
         <v>43808</v>
       </c>
-      <c r="H142" t="s">
-        <v>339</v>
-      </c>
       <c r="I142" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9">
+        <v>340</v>
+      </c>
+      <c r="J142" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" s="1">
         <v>55</v>
       </c>
@@ -5584,65 +5650,65 @@
         <v>42706</v>
       </c>
       <c r="C143" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D143" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E143" t="s">
-        <v>401</v>
-      </c>
-      <c r="I143" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9">
+        <v>402</v>
+      </c>
+      <c r="J143" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" s="1">
         <v>203</v>
       </c>
       <c r="C144" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E144" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F144" s="2">
         <v>43921</v>
       </c>
-      <c r="G144" s="2">
+      <c r="H144" s="2">
         <v>43924</v>
       </c>
-      <c r="H144" t="s">
-        <v>451</v>
-      </c>
       <c r="I144" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9">
+        <v>452</v>
+      </c>
+      <c r="J144" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" s="1">
         <v>199</v>
       </c>
       <c r="C145" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E145" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F145" s="2">
         <v>43852</v>
       </c>
-      <c r="G145" s="2">
+      <c r="H145" s="2">
         <v>43858</v>
       </c>
-      <c r="H145" t="s">
-        <v>452</v>
-      </c>
       <c r="I145" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9">
+        <v>453</v>
+      </c>
+      <c r="J145" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" s="1">
         <v>62</v>
       </c>
@@ -5650,19 +5716,19 @@
         <v>42795</v>
       </c>
       <c r="C146" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D146" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E146" t="s">
-        <v>401</v>
-      </c>
-      <c r="I146" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9">
+        <v>402</v>
+      </c>
+      <c r="J146" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" s="1">
         <v>158</v>
       </c>
@@ -5670,28 +5736,28 @@
         <v>43483</v>
       </c>
       <c r="C147" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D147" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E147" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F147" s="2">
         <v>43480</v>
       </c>
-      <c r="G147" s="2">
+      <c r="H147" s="2">
         <v>43483</v>
       </c>
-      <c r="H147" t="s">
-        <v>453</v>
-      </c>
       <c r="I147" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9">
+        <v>454</v>
+      </c>
+      <c r="J147" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" s="1">
         <v>9</v>
       </c>
@@ -5699,13 +5765,13 @@
         <v>42422</v>
       </c>
       <c r="C148" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D148" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E148" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F148" s="2">
         <v>42416</v>
@@ -5713,14 +5779,14 @@
       <c r="G148" s="2">
         <v>42419</v>
       </c>
-      <c r="H148" t="s">
-        <v>343</v>
-      </c>
       <c r="I148" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9">
+        <v>344</v>
+      </c>
+      <c r="J148" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" s="1">
         <v>6</v>
       </c>
@@ -5728,13 +5794,13 @@
         <v>42401</v>
       </c>
       <c r="C149" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D149" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E149" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F149" s="2">
         <v>42395</v>
@@ -5742,14 +5808,14 @@
       <c r="G149" s="2">
         <v>42398</v>
       </c>
-      <c r="H149" t="s">
-        <v>454</v>
-      </c>
       <c r="I149" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9">
+        <v>455</v>
+      </c>
+      <c r="J149" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" s="1">
         <v>114</v>
       </c>
@@ -5757,28 +5823,28 @@
         <v>43178</v>
       </c>
       <c r="C150" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D150" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E150" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F150" s="2">
         <v>43168</v>
       </c>
-      <c r="G150" s="2">
+      <c r="H150" s="2">
         <v>43178</v>
       </c>
-      <c r="H150" t="s">
-        <v>345</v>
-      </c>
       <c r="I150" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9">
+        <v>346</v>
+      </c>
+      <c r="J150" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" s="1">
         <v>96</v>
       </c>
@@ -5786,19 +5852,19 @@
         <v>42942</v>
       </c>
       <c r="C151" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D151" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E151" t="s">
-        <v>400</v>
-      </c>
-      <c r="I151" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9">
+        <v>401</v>
+      </c>
+      <c r="J151" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" s="1">
         <v>15</v>
       </c>
@@ -5806,19 +5872,19 @@
         <v>42459</v>
       </c>
       <c r="C152" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D152" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E152" t="s">
-        <v>401</v>
-      </c>
-      <c r="I152" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9">
+        <v>402</v>
+      </c>
+      <c r="J152" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" s="1">
         <v>102</v>
       </c>
@@ -5826,28 +5892,28 @@
         <v>42976</v>
       </c>
       <c r="C153" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D153" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E153" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F153" s="2">
         <v>42971</v>
       </c>
-      <c r="G153" s="2">
+      <c r="H153" s="2">
         <v>42976</v>
       </c>
-      <c r="H153" t="s">
-        <v>455</v>
-      </c>
       <c r="I153" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9">
+        <v>456</v>
+      </c>
+      <c r="J153" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" s="1">
         <v>82</v>
       </c>
@@ -5855,28 +5921,28 @@
         <v>42905</v>
       </c>
       <c r="C154" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D154" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E154" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F154" s="2">
         <v>42895</v>
       </c>
-      <c r="G154" s="2">
+      <c r="H154" s="2">
         <v>42905</v>
       </c>
-      <c r="H154" t="s">
-        <v>456</v>
-      </c>
       <c r="I154" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9">
+        <v>457</v>
+      </c>
+      <c r="J154" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" s="1">
         <v>89</v>
       </c>
@@ -5884,19 +5950,19 @@
         <v>42942</v>
       </c>
       <c r="C155" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D155" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E155" t="s">
-        <v>401</v>
-      </c>
-      <c r="I155" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9">
+        <v>402</v>
+      </c>
+      <c r="J155" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" s="1">
         <v>83</v>
       </c>
@@ -5904,28 +5970,28 @@
         <v>42905</v>
       </c>
       <c r="C156" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D156" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E156" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F156" s="2">
         <v>42898</v>
       </c>
-      <c r="G156" s="2">
+      <c r="H156" s="2">
         <v>42905</v>
       </c>
-      <c r="H156" t="s">
-        <v>457</v>
-      </c>
       <c r="I156" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9">
+        <v>458</v>
+      </c>
+      <c r="J156" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" s="1">
         <v>64</v>
       </c>
@@ -5933,19 +5999,19 @@
         <v>42796</v>
       </c>
       <c r="C157" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D157" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E157" t="s">
-        <v>400</v>
-      </c>
-      <c r="I157" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9">
+        <v>401</v>
+      </c>
+      <c r="J157" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" s="1">
         <v>172</v>
       </c>
@@ -5953,28 +6019,28 @@
         <v>43661</v>
       </c>
       <c r="C158" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D158" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E158" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F158" s="2">
         <v>43655</v>
       </c>
-      <c r="G158" s="2">
+      <c r="H158" s="2">
         <v>43661</v>
       </c>
-      <c r="H158" t="s">
-        <v>353</v>
-      </c>
       <c r="I158" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9">
+        <v>354</v>
+      </c>
+      <c r="J158" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" s="1">
         <v>93</v>
       </c>
@@ -5982,19 +6048,19 @@
         <v>42942</v>
       </c>
       <c r="C159" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D159" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E159" t="s">
-        <v>401</v>
-      </c>
-      <c r="I159" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9">
+        <v>402</v>
+      </c>
+      <c r="J159" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" s="1">
         <v>72</v>
       </c>
@@ -6002,19 +6068,19 @@
         <v>42814</v>
       </c>
       <c r="C160" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D160" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E160" t="s">
-        <v>400</v>
-      </c>
-      <c r="I160" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9">
+        <v>401</v>
+      </c>
+      <c r="J160" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" s="1">
         <v>90</v>
       </c>
@@ -6022,19 +6088,19 @@
         <v>42942</v>
       </c>
       <c r="C161" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D161" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E161" t="s">
-        <v>400</v>
-      </c>
-      <c r="I161" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9">
+        <v>401</v>
+      </c>
+      <c r="J161" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" s="1">
         <v>140</v>
       </c>
@@ -6042,28 +6108,28 @@
         <v>43374</v>
       </c>
       <c r="C162" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D162" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E162" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F162" s="2">
         <v>43368</v>
       </c>
-      <c r="G162" s="2">
+      <c r="H162" s="2">
         <v>43374</v>
       </c>
-      <c r="H162" t="s">
-        <v>458</v>
-      </c>
       <c r="I162" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9">
+        <v>459</v>
+      </c>
+      <c r="J162" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" s="1">
         <v>127</v>
       </c>
@@ -6071,51 +6137,51 @@
         <v>43269</v>
       </c>
       <c r="C163" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D163" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E163" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F163" s="2">
         <v>43259</v>
       </c>
-      <c r="G163" s="2">
+      <c r="H163" s="2">
         <v>43269</v>
       </c>
-      <c r="H163" t="s">
-        <v>358</v>
-      </c>
       <c r="I163" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9">
+        <v>359</v>
+      </c>
+      <c r="J163" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" s="1">
         <v>205</v>
       </c>
       <c r="C164" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E164" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F164" s="2">
         <v>43921</v>
       </c>
-      <c r="G164" s="2">
+      <c r="H164" s="2">
         <v>43927</v>
       </c>
-      <c r="H164" t="s">
-        <v>459</v>
-      </c>
       <c r="I164" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9">
+        <v>460</v>
+      </c>
+      <c r="J164" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" s="1">
         <v>104</v>
       </c>
@@ -6123,28 +6189,28 @@
         <v>42979</v>
       </c>
       <c r="C165" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D165" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E165" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F165" s="2">
         <v>42971</v>
       </c>
-      <c r="G165" s="2">
+      <c r="H165" s="2">
         <v>42979</v>
       </c>
-      <c r="H165" t="s">
-        <v>359</v>
-      </c>
       <c r="I165" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9">
+        <v>360</v>
+      </c>
+      <c r="J165" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" s="1">
         <v>156</v>
       </c>
@@ -6152,28 +6218,28 @@
         <v>43467</v>
       </c>
       <c r="C166" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D166" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E166" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F166" s="2">
         <v>43461</v>
       </c>
-      <c r="G166" s="2">
+      <c r="H166" s="2">
         <v>43467</v>
       </c>
-      <c r="H166" t="s">
-        <v>360</v>
-      </c>
       <c r="I166" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9">
+        <v>361</v>
+      </c>
+      <c r="J166" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" s="1">
         <v>60</v>
       </c>
@@ -6181,19 +6247,19 @@
         <v>42794</v>
       </c>
       <c r="C167" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D167" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E167" t="s">
-        <v>401</v>
-      </c>
-      <c r="I167" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9">
+        <v>402</v>
+      </c>
+      <c r="J167" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" s="1">
         <v>115</v>
       </c>
@@ -6201,28 +6267,28 @@
         <v>43178</v>
       </c>
       <c r="C168" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D168" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E168" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F168" s="2">
         <v>43168</v>
       </c>
-      <c r="G168" s="2">
+      <c r="H168" s="2">
         <v>43178</v>
       </c>
-      <c r="H168" t="s">
-        <v>362</v>
-      </c>
       <c r="I168" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9">
+        <v>363</v>
+      </c>
+      <c r="J168" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" s="1">
         <v>117</v>
       </c>
@@ -6230,28 +6296,28 @@
         <v>43178</v>
       </c>
       <c r="C169" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D169" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E169" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F169" s="2">
         <v>43168</v>
       </c>
-      <c r="G169" s="2">
+      <c r="H169" s="2">
         <v>43178</v>
       </c>
-      <c r="H169" t="s">
-        <v>460</v>
-      </c>
       <c r="I169" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9">
+        <v>461</v>
+      </c>
+      <c r="J169" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" s="1">
         <v>28</v>
       </c>
@@ -6259,13 +6325,13 @@
         <v>42503</v>
       </c>
       <c r="C170" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D170" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E170" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F170" s="2">
         <v>42500</v>
@@ -6273,14 +6339,14 @@
       <c r="G170" s="2">
         <v>42502</v>
       </c>
-      <c r="H170" t="s">
-        <v>461</v>
-      </c>
       <c r="I170" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9">
+        <v>462</v>
+      </c>
+      <c r="J170" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" s="1">
         <v>111</v>
       </c>
@@ -6288,28 +6354,28 @@
         <v>43166</v>
       </c>
       <c r="C171" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D171" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E171" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F171" s="2">
         <v>43161</v>
       </c>
-      <c r="G171" s="2">
+      <c r="H171" s="2">
         <v>43166</v>
       </c>
-      <c r="H171" t="s">
-        <v>365</v>
-      </c>
       <c r="I171" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9">
+        <v>366</v>
+      </c>
+      <c r="J171" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" s="1">
         <v>68</v>
       </c>
@@ -6317,19 +6383,19 @@
         <v>42810</v>
       </c>
       <c r="C172" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D172" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E172" t="s">
-        <v>400</v>
-      </c>
-      <c r="I172" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9">
+        <v>401</v>
+      </c>
+      <c r="J172" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" s="1">
         <v>106</v>
       </c>
@@ -6337,28 +6403,28 @@
         <v>42996</v>
       </c>
       <c r="C173" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D173" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E173" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F173" s="2">
         <v>42986</v>
       </c>
-      <c r="G173" s="2">
+      <c r="H173" s="2">
         <v>42996</v>
       </c>
-      <c r="H173" t="s">
-        <v>462</v>
-      </c>
       <c r="I173" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9">
+        <v>463</v>
+      </c>
+      <c r="J173" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" s="1">
         <v>151</v>
       </c>
@@ -6366,28 +6432,28 @@
         <v>43437</v>
       </c>
       <c r="C174" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D174" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E174" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F174" s="2">
         <v>43430</v>
       </c>
-      <c r="G174" s="2">
+      <c r="H174" s="2">
         <v>43437</v>
       </c>
-      <c r="H174" t="s">
-        <v>368</v>
-      </c>
       <c r="I174" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9">
+        <v>369</v>
+      </c>
+      <c r="J174" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" s="1">
         <v>194</v>
       </c>
@@ -6395,28 +6461,28 @@
         <v>43822</v>
       </c>
       <c r="C175" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D175" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E175" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F175" s="2">
         <v>43812</v>
       </c>
-      <c r="G175" s="2">
+      <c r="H175" s="2">
         <v>43822</v>
       </c>
-      <c r="H175" t="s">
-        <v>463</v>
-      </c>
       <c r="I175" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9">
+        <v>464</v>
+      </c>
+      <c r="J175" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A176" s="1">
         <v>188</v>
       </c>
@@ -6424,28 +6490,28 @@
         <v>43808</v>
       </c>
       <c r="C176" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D176" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E176" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F176" s="2">
         <v>43801</v>
       </c>
-      <c r="G176" s="2">
+      <c r="H176" s="2">
         <v>43808</v>
       </c>
-      <c r="H176" t="s">
-        <v>370</v>
-      </c>
       <c r="I176" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9">
+        <v>371</v>
+      </c>
+      <c r="J176" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" s="1">
         <v>58</v>
       </c>
@@ -6453,13 +6519,13 @@
         <v>42740</v>
       </c>
       <c r="C177" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D177" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E177" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F177" s="2">
         <v>42738</v>
@@ -6467,14 +6533,14 @@
       <c r="G177" s="2">
         <v>42739</v>
       </c>
-      <c r="H177" t="s">
-        <v>464</v>
-      </c>
       <c r="I177" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9">
+        <v>465</v>
+      </c>
+      <c r="J177" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" s="1">
         <v>76</v>
       </c>
@@ -6482,28 +6548,28 @@
         <v>42829</v>
       </c>
       <c r="C178" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D178" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E178" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F178" s="2">
         <v>42822</v>
       </c>
-      <c r="G178" s="2">
+      <c r="H178" s="2">
         <v>42829</v>
       </c>
-      <c r="H178" t="s">
-        <v>372</v>
-      </c>
       <c r="I178" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9">
+        <v>373</v>
+      </c>
+      <c r="J178" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" s="1">
         <v>88</v>
       </c>
@@ -6511,28 +6577,28 @@
         <v>42905</v>
       </c>
       <c r="C179" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D179" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E179" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F179" s="2">
         <v>42895</v>
       </c>
-      <c r="G179" s="2">
+      <c r="H179" s="2">
         <v>42905</v>
       </c>
-      <c r="H179" t="s">
-        <v>465</v>
-      </c>
       <c r="I179" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9">
+        <v>466</v>
+      </c>
+      <c r="J179" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A180" s="1">
         <v>36</v>
       </c>
@@ -6540,19 +6606,19 @@
         <v>42524</v>
       </c>
       <c r="C180" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D180" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E180" t="s">
-        <v>400</v>
-      </c>
-      <c r="I180" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9">
+        <v>401</v>
+      </c>
+      <c r="J180" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" s="1">
         <v>40</v>
       </c>
@@ -6560,13 +6626,13 @@
         <v>42552</v>
       </c>
       <c r="C181" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D181" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E181" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F181" s="2">
         <v>42544</v>
@@ -6574,14 +6640,14 @@
       <c r="G181" s="2">
         <v>42551</v>
       </c>
-      <c r="H181" t="s">
-        <v>375</v>
-      </c>
       <c r="I181" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9">
+        <v>376</v>
+      </c>
+      <c r="J181" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" s="1">
         <v>157</v>
       </c>
@@ -6589,28 +6655,28 @@
         <v>43483</v>
       </c>
       <c r="C182" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D182" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="E182" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F182" s="2">
         <v>43480</v>
       </c>
-      <c r="G182" s="2">
+      <c r="H182" s="2">
         <v>43483</v>
       </c>
-      <c r="H182" t="s">
-        <v>376</v>
-      </c>
       <c r="I182" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9">
+        <v>377</v>
+      </c>
+      <c r="J182" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A183" s="1">
         <v>79</v>
       </c>
@@ -6618,28 +6684,28 @@
         <v>42888</v>
       </c>
       <c r="C183" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D183" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E183" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F183" s="2">
         <v>42879</v>
       </c>
-      <c r="G183" s="2">
+      <c r="H183" s="2">
         <v>42888</v>
       </c>
-      <c r="H183" t="s">
-        <v>466</v>
-      </c>
       <c r="I183" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9">
+        <v>467</v>
+      </c>
+      <c r="J183" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A184" s="1">
         <v>21</v>
       </c>
@@ -6647,13 +6713,13 @@
         <v>42478</v>
       </c>
       <c r="C184" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D184" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E184" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F184" s="2">
         <v>42467</v>
@@ -6661,14 +6727,14 @@
       <c r="G184" s="2">
         <v>42475</v>
       </c>
-      <c r="H184" t="s">
-        <v>378</v>
-      </c>
       <c r="I184" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9">
+        <v>379</v>
+      </c>
+      <c r="J184" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A185" s="1">
         <v>171</v>
       </c>
@@ -6676,28 +6742,28 @@
         <v>43661</v>
       </c>
       <c r="C185" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D185" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="E185" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F185" s="2">
         <v>43655</v>
       </c>
-      <c r="G185" s="2">
+      <c r="H185" s="2">
         <v>43661</v>
       </c>
-      <c r="H185" t="s">
-        <v>379</v>
-      </c>
       <c r="I185" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9">
+        <v>380</v>
+      </c>
+      <c r="J185" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A186" s="1">
         <v>192</v>
       </c>
@@ -6705,28 +6771,28 @@
         <v>43822</v>
       </c>
       <c r="C186" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D186" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E186" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F186" s="2">
         <v>43812</v>
       </c>
-      <c r="G186" s="2">
+      <c r="H186" s="2">
         <v>43822</v>
       </c>
-      <c r="H186" t="s">
-        <v>380</v>
-      </c>
       <c r="I186" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9">
+        <v>381</v>
+      </c>
+      <c r="J186" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A187" s="1">
         <v>178</v>
       </c>
@@ -6734,19 +6800,19 @@
         <v>43731</v>
       </c>
       <c r="C187" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D187" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E187" t="s">
-        <v>401</v>
-      </c>
-      <c r="I187" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9">
+        <v>402</v>
+      </c>
+      <c r="J187" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A188" s="1">
         <v>116</v>
       </c>
@@ -6754,36 +6820,36 @@
         <v>43178</v>
       </c>
       <c r="C188" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D188" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E188" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F188" s="2">
         <v>43168</v>
       </c>
-      <c r="G188" s="2">
+      <c r="H188" s="2">
         <v>43178</v>
       </c>
-      <c r="H188" t="s">
-        <v>467</v>
-      </c>
       <c r="I188" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9">
+        <v>468</v>
+      </c>
+      <c r="J188" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A189" s="1">
         <v>195</v>
       </c>
       <c r="C189" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E189" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F189" s="2">
         <v>42366</v>
@@ -6791,14 +6857,14 @@
       <c r="G189" s="2">
         <v>42373</v>
       </c>
-      <c r="H189" t="s">
-        <v>394</v>
-      </c>
       <c r="I189" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9">
+        <v>395</v>
+      </c>
+      <c r="J189" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A190" s="1">
         <v>30</v>
       </c>
@@ -6806,13 +6872,13 @@
         <v>42508</v>
       </c>
       <c r="C190" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D190" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E190" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F190" s="2">
         <v>42503</v>
@@ -6820,14 +6886,14 @@
       <c r="G190" s="2">
         <v>42507</v>
       </c>
-      <c r="H190" t="s">
-        <v>383</v>
-      </c>
       <c r="I190" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9">
+        <v>384</v>
+      </c>
+      <c r="J190" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A191" s="1">
         <v>126</v>
       </c>
@@ -6835,28 +6901,28 @@
         <v>43258</v>
       </c>
       <c r="C191" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D191" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E191" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F191" s="2">
         <v>43255</v>
       </c>
-      <c r="G191" s="2">
+      <c r="H191" s="2">
         <v>43258</v>
       </c>
-      <c r="H191" t="s">
-        <v>384</v>
-      </c>
       <c r="I191" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9">
+        <v>385</v>
+      </c>
+      <c r="J191" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A192" s="1">
         <v>131</v>
       </c>
@@ -6864,28 +6930,28 @@
         <v>43271</v>
       </c>
       <c r="C192" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D192" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E192" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F192" s="2">
         <v>43266</v>
       </c>
-      <c r="G192" s="2">
+      <c r="H192" s="2">
         <v>43271</v>
       </c>
-      <c r="H192" t="s">
-        <v>385</v>
-      </c>
       <c r="I192" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9">
+        <v>386</v>
+      </c>
+      <c r="J192" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A193" s="1">
         <v>20</v>
       </c>
@@ -6893,19 +6959,19 @@
         <v>42468</v>
       </c>
       <c r="C193" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D193" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="E193" t="s">
-        <v>400</v>
-      </c>
-      <c r="I193" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="194" spans="1:9">
+        <v>401</v>
+      </c>
+      <c r="J193" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A194" s="1">
         <v>13</v>
       </c>
@@ -6913,13 +6979,13 @@
         <v>42436</v>
       </c>
       <c r="C194" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D194" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="E194" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F194" s="2">
         <v>42432</v>
@@ -6927,14 +6993,14 @@
       <c r="G194" s="2">
         <v>42433</v>
       </c>
-      <c r="H194" t="s">
-        <v>195</v>
-      </c>
       <c r="I194" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="195" spans="1:9">
+        <v>196</v>
+      </c>
+      <c r="J194" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A195" s="1">
         <v>22</v>
       </c>
@@ -6942,13 +7008,13 @@
         <v>42478</v>
       </c>
       <c r="C195" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D195" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="E195" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F195" s="2">
         <v>42467</v>
@@ -6956,14 +7022,14 @@
       <c r="G195" s="2">
         <v>42475</v>
       </c>
-      <c r="H195" t="s">
-        <v>468</v>
-      </c>
       <c r="I195" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9">
+        <v>469</v>
+      </c>
+      <c r="J195" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A196" s="1">
         <v>74</v>
       </c>
@@ -6971,19 +7037,19 @@
         <v>42814</v>
       </c>
       <c r="C196" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D196" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="E196" t="s">
-        <v>401</v>
-      </c>
-      <c r="I196" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="197" spans="1:9">
+        <v>402</v>
+      </c>
+      <c r="J196" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A197" s="1">
         <v>185</v>
       </c>
@@ -6991,28 +7057,28 @@
         <v>43804</v>
       </c>
       <c r="C197" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D197" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="E197" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F197" s="2">
         <v>43796</v>
       </c>
-      <c r="G197" s="2">
+      <c r="H197" s="2">
         <v>43804</v>
       </c>
-      <c r="H197" t="s">
-        <v>390</v>
-      </c>
       <c r="I197" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="198" spans="1:9">
+        <v>391</v>
+      </c>
+      <c r="J197" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A198" s="1">
         <v>161</v>
       </c>
@@ -7020,28 +7086,28 @@
         <v>43523</v>
       </c>
       <c r="C198" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D198" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="E198" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F198" s="2">
         <v>43517</v>
       </c>
-      <c r="G198" s="2">
+      <c r="H198" s="2">
         <v>43523</v>
       </c>
-      <c r="H198" t="s">
-        <v>469</v>
-      </c>
       <c r="I198" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="199" spans="1:9">
+        <v>470</v>
+      </c>
+      <c r="J198" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A199" s="1">
         <v>138</v>
       </c>
@@ -7049,51 +7115,51 @@
         <v>43357</v>
       </c>
       <c r="C199" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D199" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E199" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F199" s="2">
         <v>43354</v>
       </c>
-      <c r="G199" s="2">
+      <c r="H199" s="2">
         <v>43360</v>
       </c>
-      <c r="H199" t="s">
-        <v>470</v>
-      </c>
       <c r="I199" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="200" spans="1:9">
+        <v>471</v>
+      </c>
+      <c r="J199" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A200" s="1">
         <v>200</v>
       </c>
       <c r="C200" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E200" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F200" s="2">
         <v>43852</v>
       </c>
-      <c r="G200" s="2">
+      <c r="H200" s="2">
         <v>43858</v>
       </c>
-      <c r="H200" t="s">
-        <v>470</v>
-      </c>
       <c r="I200" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="201" spans="1:9">
+        <v>471</v>
+      </c>
+      <c r="J200" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A201" s="1">
         <v>101</v>
       </c>
@@ -7101,28 +7167,28 @@
         <v>42976</v>
       </c>
       <c r="C201" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D201" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="E201" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F201" s="2">
         <v>42971</v>
       </c>
-      <c r="G201" s="2">
+      <c r="H201" s="2">
         <v>42976</v>
       </c>
-      <c r="H201" t="s">
-        <v>393</v>
-      </c>
       <c r="I201" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="202" spans="1:9">
+        <v>394</v>
+      </c>
+      <c r="J201" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A202" s="1">
         <v>1</v>
       </c>
@@ -7130,19 +7196,19 @@
         <v>42374</v>
       </c>
       <c r="C202" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D202" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E202" t="s">
-        <v>400</v>
-      </c>
-      <c r="I202" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="203" spans="1:9">
+        <v>401</v>
+      </c>
+      <c r="J202" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A203" s="1">
         <v>186</v>
       </c>
@@ -7150,28 +7216,28 @@
         <v>43804</v>
       </c>
       <c r="C203" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D203" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E203" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F203" s="2">
         <v>43796</v>
       </c>
-      <c r="G203" s="2">
+      <c r="H203" s="2">
         <v>43804</v>
       </c>
-      <c r="H203" t="s">
-        <v>471</v>
-      </c>
       <c r="I203" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="204" spans="1:9">
+        <v>472</v>
+      </c>
+      <c r="J203" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A204" s="1">
         <v>122</v>
       </c>
@@ -7179,51 +7245,51 @@
         <v>43251</v>
       </c>
       <c r="C204" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D204" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E204" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F204" s="2">
         <v>43245</v>
       </c>
-      <c r="G204" s="2">
+      <c r="H204" s="2">
         <v>43251</v>
       </c>
-      <c r="H204" t="s">
-        <v>396</v>
-      </c>
       <c r="I204" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="205" spans="1:9">
+        <v>397</v>
+      </c>
+      <c r="J204" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A205" s="1">
         <v>202</v>
       </c>
       <c r="C205" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E205" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F205" s="2">
         <v>43888</v>
       </c>
-      <c r="G205" s="2">
+      <c r="H205" s="2">
         <v>43893</v>
       </c>
-      <c r="H205" t="s">
-        <v>472</v>
-      </c>
       <c r="I205" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="206" spans="1:9">
+        <v>473</v>
+      </c>
+      <c r="J205" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A206" s="1">
         <v>137</v>
       </c>
@@ -7231,28 +7297,28 @@
         <v>43357</v>
       </c>
       <c r="C206" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D206" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="E206" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F206" s="2">
         <v>43354</v>
       </c>
-      <c r="G206" s="2">
+      <c r="H206" s="2">
         <v>43360</v>
       </c>
-      <c r="H206" t="s">
-        <v>397</v>
-      </c>
       <c r="I206" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="207" spans="1:9">
+        <v>398</v>
+      </c>
+      <c r="J206" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A207" s="1">
         <v>86</v>
       </c>
@@ -7260,28 +7326,28 @@
         <v>42905</v>
       </c>
       <c r="C207" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D207" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="E207" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F207" s="2">
         <v>42895</v>
       </c>
-      <c r="G207" s="2">
+      <c r="H207" s="2">
         <v>42905</v>
-      </c>
-      <c r="H207" t="s">
-        <v>473</v>
       </c>
       <c r="I207" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="208" spans="1:9">
+      <c r="J207" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A208" s="1">
         <v>193</v>
       </c>
@@ -7289,25 +7355,25 @@
         <v>43822</v>
       </c>
       <c r="C208" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D208" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="E208" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F208" s="2">
         <v>43812</v>
       </c>
-      <c r="G208" s="2">
+      <c r="H208" s="2">
         <v>43822</v>
       </c>
-      <c r="H208" t="s">
-        <v>399</v>
-      </c>
       <c r="I208" t="s">
-        <v>474</v>
+        <v>400</v>
+      </c>
+      <c r="J208" t="s">
+        <v>475</v>
       </c>
     </row>
   </sheetData>
